--- a/Java Apps @ DXC - Track 2 - TOC.xlsx
+++ b/Java Apps @ DXC - Track 2 - TOC.xlsx
@@ -1974,7 +1974,7 @@
     <t>Total # of Hours for Angular 11</t>
   </si>
   <si>
-    <t>Day 22</t>
+    <t>Day 12</t>
   </si>
   <si>
     <t>Expose endpoints using Spring Boot.                                        Consume these endpoints using  Angular and display the data.</t>
@@ -2102,10 +2102,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -2259,58 +2259,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -2319,53 +2267,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2381,10 +2284,100 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2397,7 +2390,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2449,7 +2449,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2461,85 +2587,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2551,7 +2605,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2563,73 +2623,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2723,15 +2723,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2749,17 +2740,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2776,6 +2760,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2797,11 +2790,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2820,151 +2811,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3439,7 +3439,7 @@
   <dimension ref="A4:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -3606,9 +3606,9 @@
   <dimension ref="A1:C331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A315" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A76" sqref="A76:A137"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -7142,7 +7142,7 @@
   <dimension ref="A1:C219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="F124" sqref="F124"/>
     </sheetView>
@@ -8752,9 +8752,9 @@
   <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>

--- a/Java Apps @ DXC - Track 2 - TOC.xlsx
+++ b/Java Apps @ DXC - Track 2 - TOC.xlsx
@@ -80,7 +80,7 @@
     <t>Sections</t>
   </si>
   <si>
-    <t>Day 1</t>
+    <t>Day 11</t>
   </si>
   <si>
     <t>Spring Framework:                           Spring Fundamentals</t>
@@ -278,7 +278,7 @@
     <t>Hands On Lab 4 -Spring Inversion Of Control</t>
   </si>
   <si>
-    <t>Day 2</t>
+    <t>Day 12</t>
   </si>
   <si>
     <t>Spring Boot Fundamentals            REST Fundamentals             Components of RESTful Web Services                                         Spring Boot CLI                        Initializing a Spring Boot Project                                                                    Spring Boot Actuator                                                    Spring Boot Developer Tools Spring Boot Testing</t>
@@ -434,13 +434,13 @@
     <t>Spring Boot</t>
   </si>
   <si>
-    <t>Hands On Lab 1 - Spring Boot MVC Login Controller</t>
+    <t>Hands On Lab 1 -  A Simple RESTful API in Spring Boot</t>
   </si>
   <si>
     <t>Hands On Lab 2 -  Spring Boot with H2 Database</t>
   </si>
   <si>
-    <t>Day 3</t>
+    <t>Day 13</t>
   </si>
   <si>
     <t>Spring MVC</t>
@@ -575,7 +575,7 @@
     <t>Hands On Lab 2 - Creating a Web Application With Spring Boot</t>
   </si>
   <si>
-    <t>Day 4</t>
+    <t>Day 14</t>
   </si>
   <si>
     <t>RESTful Web Services with Spring Data JPA and  Hibernate                             Externalized Configurations</t>
@@ -815,7 +815,7 @@
     <t>Hands On Lab 2 - Using the JPA Repository</t>
   </si>
   <si>
-    <t>Day 5</t>
+    <t>Day 15</t>
   </si>
   <si>
     <t>RESTful Web Services with Spring Data JPA and  Hibernate  (contd.)</t>
@@ -908,7 +908,7 @@
     <t>Total # of Hours for Spring</t>
   </si>
   <si>
-    <t>Day 6</t>
+    <t>Day 16</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1080,7 +1080,7 @@
     <t>Hands On Exercises - JavaScript ES6 Features</t>
   </si>
   <si>
-    <t>Day 7-(2 hrs.)</t>
+    <t>Day 17-(2 hrs.)</t>
   </si>
   <si>
     <t>JavaScript(ES6) Fundamentals (contd.)</t>
@@ -1176,7 +1176,7 @@
     <t>7. Summary and Course Wrap-up</t>
   </si>
   <si>
-    <t>Day 7-(6 hrs.)</t>
+    <t>Day 17-(6 hrs.)</t>
   </si>
   <si>
     <t>Node.js</t>
@@ -1357,7 +1357,7 @@
     <t>Total # of Hours for JavaScript (ES6) &amp; Node.js</t>
   </si>
   <si>
-    <t>Day 8</t>
+    <t>Day 18</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1493,7 +1493,7 @@
     <t>Angular Lab - Part 1</t>
   </si>
   <si>
-    <t>Day 9</t>
+    <t>Day 19</t>
   </si>
   <si>
     <t>Angular Lifecycle Hook                                                             Angular pipes                            
@@ -1681,7 +1681,7 @@
     <t>Angular Lab - Part 2</t>
   </si>
   <si>
-    <t>Day 10</t>
+    <t>Day 20</t>
   </si>
   <si>
     <t>Modules - built in
@@ -1825,7 +1825,7 @@
     <t>Angular Lab - Part 3</t>
   </si>
   <si>
-    <t>Day 11</t>
+    <t>Day 21</t>
   </si>
   <si>
     <t>Custom Validations                         Creating fake REST endpoints using jsonserver
@@ -1974,7 +1974,7 @@
     <t>Total # of Hours for Angular 11</t>
   </si>
   <si>
-    <t>Day 12</t>
+    <t>Day 22</t>
   </si>
   <si>
     <t>Expose endpoints using Spring Boot.                                        Consume these endpoints using  Angular and display the data.</t>
@@ -2102,10 +2102,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -2259,7 +2259,27 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -2267,45 +2287,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2330,10 +2319,41 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2352,6 +2372,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -2360,44 +2388,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2449,7 +2449,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2461,13 +2563,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2479,19 +2575,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2503,133 +2629,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2740,11 +2740,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2796,34 +2820,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2841,130 +2841,130 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3439,7 +3439,7 @@
   <dimension ref="A4:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -3606,9 +3606,9 @@
   <dimension ref="A1:C331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A319" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:C2"/>
+      <selection pane="bottomLeft" activeCell="F310" sqref="F310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -5978,9 +5978,9 @@
   <dimension ref="A1:D143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F143" sqref="F143"/>
+      <selection pane="bottomLeft" activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="3"/>
@@ -7142,9 +7142,9 @@
   <dimension ref="A1:C219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F124" sqref="F124"/>
+      <selection pane="bottomLeft" activeCell="F168" sqref="F168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -8754,7 +8754,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>

--- a/Java Apps @ DXC - Track 2 - TOC.xlsx
+++ b/Java Apps @ DXC - Track 2 - TOC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" activeTab="4"/>
+    <workbookView windowWidth="20490" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="7" r:id="rId1"/>
@@ -809,10 +809,10 @@
     <t>Spring Data JPA</t>
   </si>
   <si>
-    <t>Hands On Lab 1 - Accessing Data with JPA</t>
-  </si>
-  <si>
-    <t>Hands On Lab 2 - Using the JPA Repository</t>
+    <t>Hands On Lab 1 - Spring Data JPA</t>
+  </si>
+  <si>
+    <t>Hands On Lab 2 - Spring Data JPA</t>
   </si>
   <si>
     <t>Day 15</t>
@@ -2102,10 +2102,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -2266,22 +2266,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2296,25 +2298,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2323,6 +2309,14 @@
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2343,7 +2337,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2352,13 +2346,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2380,24 +2367,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2449,79 +2449,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2539,7 +2467,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2551,13 +2497,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2575,7 +2527,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2587,13 +2551,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2605,7 +2569,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2617,19 +2587,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2723,6 +2723,69 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2757,81 +2820,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2841,130 +2841,130 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3605,10 +3605,10 @@
   <sheetPr/>
   <dimension ref="A1:C331"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A319" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F310" sqref="F310"/>
+      <selection pane="bottomLeft" activeCell="E300" sqref="E300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -5669,7 +5669,7 @@
       <c r="B293" s="6"/>
       <c r="C293" s="34"/>
     </row>
-    <row r="294" ht="18.75" spans="1:3">
+    <row r="294" ht="17" customHeight="1" spans="1:3">
       <c r="A294" s="15"/>
       <c r="B294" s="9" t="s">
         <v>80</v>
@@ -8751,8 +8751,8 @@
   <sheetPr/>
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>

--- a/Java Apps @ DXC - Track 2 - TOC.xlsx
+++ b/Java Apps @ DXC - Track 2 - TOC.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="655">
   <si>
     <t>Track 2</t>
   </si>
@@ -80,9 +80,15 @@
     <t>Sections</t>
   </si>
   <si>
+    <t xml:space="preserve">MCQs </t>
+  </si>
+  <si>
     <t>Day 11</t>
   </si>
   <si>
+    <t>Weekly MCQs 3</t>
+  </si>
+  <si>
     <t>Spring Framework:                           Spring Fundamentals</t>
   </si>
   <si>
@@ -896,10 +902,10 @@
     <t>Hand On Assignments</t>
   </si>
   <si>
-    <t>Hands On Lab 3  - Spring MVC With Data JPA</t>
-  </si>
-  <si>
-    <t>Hands On Lab 4 - Spring MVC with JSP</t>
+    <t>Hands On Lab 1  - Spring MVC With Data JPA</t>
+  </si>
+  <si>
+    <t>Hands On Lab 2 - Spring MVC with JSP</t>
   </si>
   <si>
     <t>Total # of Days for Spring</t>
@@ -2102,9 +2108,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="43">
@@ -2207,6 +2213,13 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2252,13 +2265,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Verdana"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -2266,9 +2272,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2282,41 +2294,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2344,14 +2326,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -2367,8 +2341,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2381,8 +2386,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2397,7 +2403,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2449,13 +2455,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2467,31 +2503,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2503,49 +2521,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2569,7 +2557,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2581,7 +2593,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2593,7 +2617,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2605,31 +2629,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2726,32 +2732,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2767,6 +2749,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2804,8 +2795,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2820,18 +2811,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2841,134 +2847,134 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3046,21 +3052,24 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3070,40 +3079,40 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3451,141 +3460,141 @@
   </cols>
   <sheetData>
     <row r="4" ht="24.75" spans="7:7">
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="40" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" ht="13.5"/>
     <row r="8" ht="13.5" spans="6:9">
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="41" t="s">
+      <c r="H8" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="41" t="s">
+      <c r="I8" s="42" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="6:9">
-      <c r="F9" s="42">
+      <c r="F9" s="43">
         <v>1</v>
       </c>
-      <c r="G9" s="43" t="s">
+      <c r="G9" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="44">
+      <c r="H9" s="45">
         <v>5</v>
       </c>
-      <c r="I9" s="44">
+      <c r="I9" s="45">
         <v>40</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="6:9">
-      <c r="F10" s="45">
+      <c r="F10" s="46">
         <v>2</v>
       </c>
-      <c r="G10" s="43" t="s">
+      <c r="G10" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="44">
+      <c r="H10" s="45">
         <v>2</v>
       </c>
-      <c r="I10" s="44">
+      <c r="I10" s="45">
         <v>16</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="6:9">
-      <c r="F11" s="45">
+      <c r="F11" s="46">
         <v>3</v>
       </c>
-      <c r="G11" s="43" t="s">
+      <c r="G11" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="44">
+      <c r="H11" s="45">
         <v>4</v>
       </c>
-      <c r="I11" s="44">
+      <c r="I11" s="45">
         <v>32</v>
       </c>
     </row>
     <row r="12" ht="30" customHeight="1" spans="6:9">
-      <c r="F12" s="42">
+      <c r="F12" s="43">
         <v>4</v>
       </c>
-      <c r="G12" s="46" t="s">
+      <c r="G12" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="44">
+      <c r="H12" s="45">
         <v>1</v>
       </c>
-      <c r="I12" s="44">
+      <c r="I12" s="45">
         <v>8</v>
       </c>
     </row>
     <row r="13" ht="15.75" spans="6:9">
-      <c r="F13" s="47"/>
-      <c r="G13" s="48" t="s">
+      <c r="F13" s="48"/>
+      <c r="G13" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="49" t="s">
+      <c r="H13" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="49" t="s">
+      <c r="I13" s="50" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="51" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="51">
+      <c r="A19" s="52">
         <v>1</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="51"/>
-      <c r="B20" s="53" t="s">
+      <c r="A20" s="52"/>
+      <c r="B20" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
     </row>
     <row r="21" ht="24" customHeight="1" spans="1:6">
-      <c r="A21" s="51"/>
-      <c r="B21" s="54" t="s">
+      <c r="A21" s="52"/>
+      <c r="B21" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="55">
+      <c r="A22" s="56">
         <v>2</v>
       </c>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3603,22 +3612,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C331"/>
+  <dimension ref="A1:D331"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E300" sqref="E300"/>
+      <selection pane="bottomLeft" activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="33.7916666666667" customWidth="1"/>
     <col min="2" max="2" width="39.8916666666667" customWidth="1"/>
     <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:3">
+    <row r="1" ht="16.5" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -3628,530 +3638,540 @@
       <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" ht="24.75" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" ht="24.75" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
+      <c r="D2" s="30" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="30" t="s">
-        <v>21</v>
+      <c r="A3" s="31" t="s">
+        <v>23</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:3">
-      <c r="A4" s="30"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
     </row>
     <row r="5" ht="15" spans="1:3">
-      <c r="A5" s="30"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:3">
-      <c r="A6" s="30"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="6"/>
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
-      <c r="A7" s="30"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="6"/>
       <c r="C7" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
-      <c r="A8" s="30"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="6"/>
       <c r="C8" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
-      <c r="A9" s="30"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="6"/>
       <c r="C9" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
-      <c r="A10" s="30"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="6"/>
       <c r="C10" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:3">
-      <c r="A11" s="30"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="6"/>
       <c r="C11" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
-      <c r="A12" s="30"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="6"/>
       <c r="C12" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
-      <c r="A13" s="30"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="6"/>
       <c r="C13" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
-      <c r="A14" s="30"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="6"/>
       <c r="C14" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="30"/>
+      <c r="A15" s="31"/>
       <c r="C15" s="20"/>
     </row>
     <row r="16" ht="15" spans="1:3">
-      <c r="A16" s="30"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
-      <c r="A17" s="30"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="6"/>
       <c r="C17" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
-      <c r="A18" s="30"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="6"/>
       <c r="C18" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:3">
-      <c r="A19" s="30"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="6"/>
       <c r="C19" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:3">
-      <c r="A20" s="30"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="6"/>
       <c r="C20" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
-      <c r="A21" s="30"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="6"/>
       <c r="C21" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
-      <c r="A22" s="30"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="6"/>
       <c r="C22" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:3">
-      <c r="A23" s="30"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="6"/>
       <c r="C23" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:3">
-      <c r="A24" s="30"/>
+      <c r="A24" s="31"/>
       <c r="B24" s="6"/>
       <c r="C24" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:3">
-      <c r="A25" s="30"/>
+      <c r="A25" s="31"/>
       <c r="B25" s="6"/>
       <c r="C25" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" ht="15" spans="1:3">
-      <c r="A26" s="30"/>
+      <c r="A26" s="31"/>
       <c r="B26" s="6"/>
       <c r="C26" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:3">
-      <c r="A27" s="30"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="6"/>
       <c r="C27" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:3">
-      <c r="A28" s="30"/>
+      <c r="A28" s="31"/>
       <c r="B28" s="6"/>
       <c r="C28" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="30"/>
+      <c r="A29" s="31"/>
       <c r="C29" s="20"/>
     </row>
     <row r="30" ht="15" spans="1:3">
-      <c r="A30" s="30"/>
+      <c r="A30" s="31"/>
       <c r="B30" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:3">
-      <c r="A31" s="30"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="6"/>
       <c r="C31" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:3">
-      <c r="A32" s="30"/>
+      <c r="A32" s="31"/>
       <c r="B32" s="6"/>
       <c r="C32" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:3">
-      <c r="A33" s="30"/>
+      <c r="A33" s="31"/>
       <c r="B33" s="6"/>
       <c r="C33" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:3">
-      <c r="A34" s="30"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="6"/>
       <c r="C34" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:3">
-      <c r="A35" s="30"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="6"/>
       <c r="C35" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:3">
-      <c r="A36" s="30"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="6"/>
       <c r="C36" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" ht="15.75" spans="1:3">
-      <c r="A37" s="30"/>
+      <c r="A37" s="31"/>
       <c r="B37" s="6"/>
       <c r="C37" s="4"/>
     </row>
     <row r="38" ht="15" spans="1:3">
-      <c r="A38" s="30"/>
+      <c r="A38" s="31"/>
       <c r="B38" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:3">
-      <c r="A39" s="30"/>
+      <c r="A39" s="31"/>
       <c r="B39" s="6"/>
       <c r="C39" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:3">
-      <c r="A40" s="30"/>
+      <c r="A40" s="31"/>
       <c r="B40" s="6"/>
       <c r="C40" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" ht="15" spans="1:3">
-      <c r="A41" s="30"/>
+      <c r="A41" s="31"/>
       <c r="B41" s="6"/>
       <c r="C41" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:3">
-      <c r="A42" s="30"/>
+      <c r="A42" s="31"/>
       <c r="B42" s="6"/>
       <c r="C42" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:3">
-      <c r="A43" s="30"/>
+      <c r="A43" s="31"/>
       <c r="B43" s="6"/>
       <c r="C43" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:3">
-      <c r="A44" s="30"/>
+      <c r="A44" s="31"/>
       <c r="B44" s="6"/>
       <c r="C44" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:3">
-      <c r="A45" s="30"/>
+      <c r="A45" s="31"/>
       <c r="B45" s="6"/>
       <c r="C45" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:3">
-      <c r="A46" s="30"/>
+      <c r="A46" s="31"/>
       <c r="B46" s="6"/>
       <c r="C46" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" ht="15.75" spans="1:3">
-      <c r="A47" s="30"/>
+      <c r="A47" s="31"/>
       <c r="B47" s="6"/>
       <c r="C47" s="4"/>
     </row>
     <row r="48" ht="15" spans="1:3">
-      <c r="A48" s="30"/>
+      <c r="A48" s="31"/>
       <c r="B48" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" ht="15" spans="1:3">
-      <c r="A49" s="30"/>
+      <c r="A49" s="31"/>
       <c r="B49" s="6"/>
       <c r="C49" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" ht="15" spans="1:3">
-      <c r="A50" s="30"/>
+      <c r="A50" s="31"/>
       <c r="B50" s="6"/>
       <c r="C50" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" ht="15" spans="1:3">
-      <c r="A51" s="30"/>
+      <c r="A51" s="31"/>
       <c r="B51" s="6"/>
       <c r="C51" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" ht="15" spans="1:3">
-      <c r="A52" s="30"/>
+      <c r="A52" s="31"/>
       <c r="B52" s="6"/>
       <c r="C52" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" ht="15" spans="1:3">
-      <c r="A53" s="30"/>
+      <c r="A53" s="31"/>
       <c r="B53" s="6"/>
       <c r="C53" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" ht="15" spans="1:3">
-      <c r="A54" s="30"/>
+      <c r="A54" s="31"/>
       <c r="B54" s="6"/>
       <c r="C54" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" ht="15" spans="1:3">
-      <c r="A55" s="30"/>
+      <c r="A55" s="31"/>
       <c r="B55" s="6"/>
       <c r="C55" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" ht="15" spans="1:3">
-      <c r="A56" s="30"/>
+      <c r="A56" s="31"/>
       <c r="B56" s="6"/>
       <c r="C56" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" ht="15" spans="1:3">
-      <c r="A57" s="30"/>
+      <c r="A57" s="31"/>
       <c r="B57" s="6"/>
       <c r="C57" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" ht="15" spans="1:3">
-      <c r="A58" s="30"/>
+      <c r="A58" s="31"/>
       <c r="C58" s="4"/>
     </row>
     <row r="59" ht="15" spans="1:3">
-      <c r="A59" s="30"/>
+      <c r="A59" s="31"/>
       <c r="B59" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" ht="15" spans="1:3">
-      <c r="A60" s="30"/>
+      <c r="A60" s="31"/>
       <c r="B60" s="6"/>
       <c r="C60" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" ht="15" spans="1:3">
-      <c r="A61" s="30"/>
+      <c r="A61" s="31"/>
       <c r="B61" s="6"/>
       <c r="C61" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" ht="15" spans="1:3">
-      <c r="A62" s="30"/>
+      <c r="A62" s="31"/>
       <c r="B62" s="6"/>
       <c r="C62" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" ht="15" spans="1:3">
-      <c r="A63" s="30"/>
+      <c r="A63" s="31"/>
       <c r="B63" s="6"/>
       <c r="C63" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" ht="15" spans="1:3">
-      <c r="A64" s="30"/>
+      <c r="A64" s="31"/>
       <c r="B64" s="6"/>
       <c r="C64" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" ht="15" spans="1:3">
-      <c r="A65" s="30"/>
+      <c r="A65" s="31"/>
       <c r="B65" s="6"/>
       <c r="C65" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" ht="15" spans="1:3">
-      <c r="A66" s="30"/>
+      <c r="A66" s="31"/>
       <c r="B66" s="6"/>
       <c r="C66" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" ht="15" spans="1:3">
-      <c r="A67" s="30"/>
+      <c r="A67" s="31"/>
       <c r="C67" s="4"/>
     </row>
     <row r="68" ht="15" spans="1:3">
-      <c r="A68" s="30"/>
+      <c r="A68" s="31"/>
       <c r="B68" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" ht="15" spans="1:3">
-      <c r="A69" s="30"/>
+      <c r="A69" s="31"/>
       <c r="B69" s="9"/>
       <c r="C69" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" ht="15" spans="1:3">
-      <c r="A70" s="30"/>
+      <c r="A70" s="31"/>
       <c r="B70" s="9"/>
       <c r="C70" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="30"/>
+      <c r="A71" s="31"/>
       <c r="B71" s="9"/>
-      <c r="C71" s="31" t="s">
-        <v>84</v>
+      <c r="C71" s="32" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="72" hidden="1" spans="1:3">
-      <c r="A72" s="30"/>
+      <c r="A72" s="31"/>
       <c r="B72" s="9"/>
-      <c r="C72" s="31"/>
+      <c r="C72" s="32"/>
     </row>
     <row r="73" ht="15" spans="1:3">
-      <c r="A73" s="30"/>
+      <c r="A73" s="31"/>
       <c r="B73" s="9"/>
-      <c r="C73" s="31" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="74" ht="9" customHeight="1" spans="1:3">
-      <c r="A74" s="32"/>
-      <c r="B74" s="33"/>
-      <c r="C74" s="33"/>
-    </row>
-    <row r="75" ht="24.75" spans="1:3">
+      <c r="C73" s="32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74" ht="9" customHeight="1" spans="1:4">
+      <c r="A74" s="33"/>
+      <c r="B74" s="34"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="34"/>
+    </row>
+    <row r="75" ht="24.75" spans="1:4">
       <c r="A75" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
+      <c r="D75" s="30" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="76" ht="15.75" spans="1:3">
       <c r="A76" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" ht="15.75" spans="1:3">
@@ -4162,38 +4182,38 @@
     <row r="78" ht="15" spans="1:3">
       <c r="A78" s="15"/>
       <c r="B78" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" ht="15" spans="1:3">
       <c r="A79" s="15"/>
       <c r="B79" s="6"/>
       <c r="C79" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" ht="15" spans="1:3">
       <c r="A80" s="15"/>
       <c r="B80" s="6"/>
       <c r="C80" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" ht="15" spans="1:3">
       <c r="A81" s="15"/>
       <c r="B81" s="6"/>
       <c r="C81" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" ht="15" spans="1:3">
       <c r="A82" s="15"/>
       <c r="B82" s="6"/>
       <c r="C82" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" ht="15.75" spans="1:3">
@@ -4204,115 +4224,115 @@
     <row r="84" ht="15" spans="1:3">
       <c r="A84" s="15"/>
       <c r="B84" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" ht="15" spans="1:3">
       <c r="A85" s="15"/>
       <c r="B85" s="6"/>
       <c r="C85" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" ht="15" spans="1:3">
       <c r="A86" s="15"/>
       <c r="B86" s="6"/>
       <c r="C86" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" ht="15" spans="1:3">
       <c r="A87" s="15"/>
       <c r="B87" s="6"/>
       <c r="C87" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" ht="15" spans="1:3">
       <c r="A88" s="15"/>
       <c r="B88" s="6"/>
       <c r="C88" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" ht="15" spans="1:3">
       <c r="A89" s="15"/>
       <c r="B89" s="6"/>
       <c r="C89" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" ht="15" spans="1:3">
       <c r="A90" s="15"/>
       <c r="B90" s="6"/>
       <c r="C90" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" ht="15" spans="1:3">
       <c r="A91" s="15"/>
       <c r="B91" s="6"/>
       <c r="C91" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="92" ht="18.75" spans="1:3">
       <c r="A92" s="15"/>
       <c r="B92" s="6"/>
-      <c r="C92" s="34"/>
+      <c r="C92" s="35"/>
     </row>
     <row r="93" ht="15" spans="1:3">
       <c r="A93" s="15"/>
       <c r="B93" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94" ht="15" spans="1:3">
       <c r="A94" s="15"/>
       <c r="B94" s="6"/>
       <c r="C94" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="95" ht="15" spans="1:3">
       <c r="A95" s="15"/>
       <c r="B95" s="6"/>
       <c r="C95" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96" ht="15" spans="1:3">
       <c r="A96" s="15"/>
       <c r="B96" s="6"/>
       <c r="C96" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" ht="15" spans="1:3">
       <c r="A97" s="15"/>
       <c r="B97" s="6"/>
       <c r="C97" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" ht="15" spans="1:3">
       <c r="A98" s="15"/>
       <c r="B98" s="6"/>
       <c r="C98" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="99" ht="15" spans="1:3">
       <c r="A99" s="15"/>
       <c r="B99" s="6"/>
       <c r="C99" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100" ht="15.75" spans="1:3">
@@ -4323,185 +4343,185 @@
     <row r="101" ht="15" spans="1:3">
       <c r="A101" s="15"/>
       <c r="B101" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="102" ht="15" spans="1:3">
       <c r="A102" s="15"/>
       <c r="B102" s="6"/>
       <c r="C102" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="103" ht="15" spans="1:3">
       <c r="A103" s="15"/>
       <c r="B103" s="6"/>
       <c r="C103" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="104" ht="15" spans="1:3">
       <c r="A104" s="15"/>
       <c r="B104" s="6"/>
       <c r="C104" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="105" ht="15" spans="1:3">
       <c r="A105" s="15"/>
       <c r="B105" s="6"/>
       <c r="C105" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="106" ht="15" spans="1:3">
       <c r="A106" s="15"/>
       <c r="B106" s="6"/>
       <c r="C106" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="107" ht="15" spans="1:3">
       <c r="A107" s="15"/>
-      <c r="B107" s="35"/>
+      <c r="B107" s="36"/>
       <c r="C107" s="20"/>
     </row>
     <row r="108" ht="15" spans="1:3">
       <c r="A108" s="15"/>
       <c r="B108" s="6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="109" ht="15" spans="1:3">
       <c r="A109" s="15"/>
       <c r="B109" s="6"/>
       <c r="C109" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="110" ht="15" spans="1:3">
       <c r="A110" s="15"/>
       <c r="B110" s="6"/>
       <c r="C110" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="111" ht="15" spans="1:3">
       <c r="A111" s="15"/>
       <c r="B111" s="6"/>
       <c r="C111" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="112" ht="15" spans="1:3">
       <c r="A112" s="15"/>
       <c r="B112" s="6"/>
       <c r="C112" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="113" ht="15" spans="1:3">
       <c r="A113" s="15"/>
       <c r="B113" s="6"/>
       <c r="C113" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="114" ht="15" spans="1:3">
       <c r="A114" s="15"/>
       <c r="B114" s="6"/>
       <c r="C114" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="115" ht="15" spans="1:3">
       <c r="A115" s="15"/>
       <c r="B115" s="6"/>
       <c r="C115" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="116" ht="15" spans="1:3">
       <c r="A116" s="15"/>
-      <c r="B116" s="35"/>
+      <c r="B116" s="36"/>
       <c r="C116" s="20"/>
     </row>
     <row r="117" ht="15" spans="1:3">
       <c r="A117" s="15"/>
       <c r="B117" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="118" ht="15" spans="1:3">
       <c r="A118" s="15"/>
       <c r="B118" s="6"/>
       <c r="C118" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="119" ht="15" spans="1:3">
       <c r="A119" s="15"/>
       <c r="B119" s="6"/>
       <c r="C119" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="120" ht="15" spans="1:3">
       <c r="A120" s="15"/>
       <c r="B120" s="6"/>
       <c r="C120" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="121" ht="15" spans="1:3">
       <c r="A121" s="15"/>
-      <c r="B121" s="35"/>
+      <c r="B121" s="36"/>
       <c r="C121" s="20"/>
     </row>
     <row r="122" ht="15" spans="1:3">
       <c r="A122" s="15"/>
       <c r="B122" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="123" ht="15" spans="1:3">
       <c r="A123" s="15"/>
       <c r="B123" s="6"/>
       <c r="C123" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="124" ht="15" spans="1:3">
       <c r="A124" s="15"/>
       <c r="B124" s="6"/>
       <c r="C124" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="125" ht="15" spans="1:3">
       <c r="A125" s="15"/>
       <c r="B125" s="6"/>
       <c r="C125" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="126" ht="15" spans="1:3">
       <c r="A126" s="15"/>
       <c r="B126" s="6"/>
       <c r="C126" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="127" ht="12" customHeight="1" spans="1:3">
@@ -4512,45 +4532,45 @@
     <row r="128" ht="33" customHeight="1" spans="1:3">
       <c r="A128" s="15"/>
       <c r="B128" s="6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="129" ht="33" customHeight="1" spans="1:3">
       <c r="A129" s="15"/>
       <c r="B129" s="6"/>
       <c r="C129" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="130" ht="33" customHeight="1" spans="1:3">
       <c r="A130" s="15"/>
       <c r="B130" s="6"/>
       <c r="C130" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="131" ht="33" customHeight="1" spans="1:3">
       <c r="A131" s="15"/>
       <c r="B131" s="6"/>
       <c r="C131" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="132" ht="33" customHeight="1" spans="1:3">
       <c r="A132" s="15"/>
       <c r="B132" s="6"/>
       <c r="C132" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="133" ht="33" customHeight="1" spans="1:3">
       <c r="A133" s="15"/>
       <c r="B133" s="6"/>
       <c r="C133" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="134" ht="12" customHeight="1" spans="1:3">
@@ -4561,47 +4581,51 @@
     <row r="135" ht="15" spans="1:3">
       <c r="A135" s="15"/>
       <c r="B135" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="136" ht="15" spans="1:3">
       <c r="A136" s="15"/>
       <c r="B136" s="9"/>
       <c r="C136" s="11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="137" ht="15" spans="1:3">
       <c r="A137" s="15"/>
       <c r="B137" s="9"/>
       <c r="C137" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="138" ht="8" customHeight="1" spans="1:3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="138" ht="8" customHeight="1" spans="1:4">
       <c r="A138" s="12"/>
       <c r="B138" s="12"/>
       <c r="C138" s="12"/>
-    </row>
-    <row r="139" ht="24.75" spans="1:3">
+      <c r="D138" s="34"/>
+    </row>
+    <row r="139" ht="24.75" spans="1:4">
       <c r="A139" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
+      <c r="D139" s="30" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="140" ht="15.75" spans="1:3">
       <c r="A140" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="141" ht="15.75" spans="1:3">
@@ -4612,45 +4636,45 @@
     <row r="142" ht="15" spans="1:3">
       <c r="A142" s="15"/>
       <c r="B142" s="6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="143" ht="15" spans="1:3">
       <c r="A143" s="15"/>
       <c r="B143" s="6"/>
       <c r="C143" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="144" ht="15" spans="1:3">
       <c r="A144" s="15"/>
       <c r="B144" s="6"/>
       <c r="C144" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="145" ht="15" spans="1:3">
       <c r="A145" s="15"/>
       <c r="B145" s="6"/>
       <c r="C145" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="146" ht="15" spans="1:3">
       <c r="A146" s="15"/>
       <c r="B146" s="6"/>
       <c r="C146" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="147" ht="15" spans="1:3">
       <c r="A147" s="15"/>
       <c r="B147" s="6"/>
       <c r="C147" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="148" ht="15.75" spans="1:3">
@@ -4661,52 +4685,52 @@
     <row r="149" ht="15" spans="1:3">
       <c r="A149" s="15"/>
       <c r="B149" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="150" ht="15" spans="1:3">
       <c r="A150" s="15"/>
       <c r="B150" s="6"/>
       <c r="C150" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="151" ht="15" spans="1:3">
       <c r="A151" s="15"/>
       <c r="B151" s="6"/>
       <c r="C151" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="152" ht="15" spans="1:3">
       <c r="A152" s="15"/>
       <c r="B152" s="6"/>
       <c r="C152" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="153" ht="15" spans="1:3">
       <c r="A153" s="15"/>
       <c r="B153" s="6"/>
       <c r="C153" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="154" ht="15" spans="1:3">
       <c r="A154" s="15"/>
       <c r="B154" s="6"/>
       <c r="C154" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="155" ht="15" spans="1:3">
       <c r="A155" s="15"/>
       <c r="B155" s="6"/>
       <c r="C155" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -4716,38 +4740,38 @@
     <row r="157" ht="15" spans="1:3">
       <c r="A157" s="15"/>
       <c r="B157" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="158" ht="15" spans="1:3">
       <c r="A158" s="15"/>
       <c r="B158" s="6"/>
       <c r="C158" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="159" ht="15" spans="1:3">
       <c r="A159" s="15"/>
       <c r="B159" s="6"/>
       <c r="C159" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="160" ht="15" spans="1:3">
       <c r="A160" s="15"/>
       <c r="B160" s="6"/>
       <c r="C160" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="161" ht="15" spans="1:3">
       <c r="A161" s="15"/>
       <c r="B161" s="6"/>
       <c r="C161" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="162" ht="15" spans="1:3">
@@ -4758,52 +4782,52 @@
     <row r="163" ht="15" spans="1:3">
       <c r="A163" s="15"/>
       <c r="B163" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="164" ht="15" spans="1:3">
       <c r="A164" s="15"/>
       <c r="B164" s="6"/>
       <c r="C164" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="165" ht="15" spans="1:3">
       <c r="A165" s="15"/>
       <c r="B165" s="6"/>
       <c r="C165" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="166" ht="15" spans="1:3">
       <c r="A166" s="15"/>
       <c r="B166" s="6"/>
       <c r="C166" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="167" ht="15" spans="1:3">
       <c r="A167" s="15"/>
       <c r="B167" s="6"/>
       <c r="C167" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="168" ht="15" spans="1:3">
       <c r="A168" s="15"/>
       <c r="B168" s="6"/>
       <c r="C168" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="169" ht="15" spans="1:3">
       <c r="A169" s="15"/>
       <c r="B169" s="6"/>
       <c r="C169" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="170" ht="15" spans="1:3">
@@ -4814,45 +4838,45 @@
     <row r="171" ht="15" spans="1:3">
       <c r="A171" s="15"/>
       <c r="B171" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="172" ht="15" spans="1:3">
       <c r="A172" s="15"/>
       <c r="B172" s="6"/>
       <c r="C172" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="173" ht="15" spans="1:3">
       <c r="A173" s="15"/>
       <c r="B173" s="6"/>
       <c r="C173" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="174" ht="15" spans="1:3">
       <c r="A174" s="15"/>
       <c r="B174" s="6"/>
       <c r="C174" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="175" ht="15" spans="1:3">
       <c r="A175" s="15"/>
       <c r="B175" s="6"/>
       <c r="C175" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="176" ht="15" spans="1:3">
       <c r="A176" s="15"/>
       <c r="B176" s="6"/>
       <c r="C176" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -4862,38 +4886,38 @@
     <row r="178" ht="15" spans="1:3">
       <c r="A178" s="15"/>
       <c r="B178" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C178" s="36" t="s">
-        <v>24</v>
+        <v>171</v>
+      </c>
+      <c r="C178" s="37" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="179" ht="15" spans="1:3">
       <c r="A179" s="15"/>
       <c r="B179" s="6"/>
       <c r="C179" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="180" ht="15" spans="1:3">
       <c r="A180" s="15"/>
       <c r="B180" s="6"/>
       <c r="C180" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="181" ht="15" spans="1:3">
       <c r="A181" s="15"/>
       <c r="B181" s="6"/>
       <c r="C181" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="182" ht="15" spans="1:3">
       <c r="A182" s="15"/>
       <c r="B182" s="6"/>
       <c r="C182" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="183" ht="18" spans="1:3">
@@ -4904,45 +4928,45 @@
     <row r="184" ht="15" spans="1:3">
       <c r="A184" s="15"/>
       <c r="B184" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C184" s="36" t="s">
-        <v>24</v>
+        <v>175</v>
+      </c>
+      <c r="C184" s="37" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="185" ht="15" spans="1:3">
       <c r="A185" s="15"/>
       <c r="B185" s="6"/>
       <c r="C185" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="186" ht="15" spans="1:3">
       <c r="A186" s="15"/>
       <c r="B186" s="6"/>
       <c r="C186" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="187" ht="15" spans="1:3">
       <c r="A187" s="15"/>
       <c r="B187" s="6"/>
       <c r="C187" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="188" ht="15" spans="1:3">
       <c r="A188" s="15"/>
       <c r="B188" s="6"/>
       <c r="C188" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="189" ht="15" spans="1:3">
       <c r="A189" s="15"/>
       <c r="B189" s="6"/>
       <c r="C189" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="190" ht="15.75" spans="1:3">
@@ -4953,45 +4977,45 @@
     <row r="191" ht="15" spans="1:3">
       <c r="A191" s="15"/>
       <c r="B191" s="6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="192" ht="15" spans="1:3">
       <c r="A192" s="15"/>
       <c r="B192" s="6"/>
       <c r="C192" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="193" ht="15" spans="1:3">
       <c r="A193" s="15"/>
       <c r="B193" s="6"/>
       <c r="C193" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="194" ht="15" spans="1:3">
       <c r="A194" s="15"/>
       <c r="B194" s="6"/>
       <c r="C194" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="195" ht="15" spans="1:3">
       <c r="A195" s="15"/>
       <c r="B195" s="6"/>
       <c r="C195" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="196" ht="15" spans="1:3">
       <c r="A196" s="15"/>
       <c r="B196" s="6"/>
       <c r="C196" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="197" ht="18" spans="1:3">
@@ -5002,24 +5026,24 @@
     <row r="198" ht="15" spans="1:3">
       <c r="A198" s="15"/>
       <c r="B198" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="199" ht="15" spans="1:3">
       <c r="A199" s="15"/>
       <c r="B199" s="9"/>
       <c r="C199" s="11" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="200" ht="25.5" spans="1:3">
       <c r="A200" s="15"/>
       <c r="B200" s="9"/>
-      <c r="C200" s="37" t="s">
-        <v>184</v>
+      <c r="C200" s="38" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1" spans="1:3">
@@ -5029,20 +5053,20 @@
     </row>
     <row r="202" ht="27" customHeight="1" spans="1:3">
       <c r="A202" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
     </row>
     <row r="203" ht="15.75" spans="1:3">
       <c r="A203" s="15" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="204" ht="15.75" spans="1:3">
@@ -5053,52 +5077,52 @@
     <row r="205" ht="15" spans="1:3">
       <c r="A205" s="15"/>
       <c r="B205" s="6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="206" ht="15" spans="1:3">
       <c r="A206" s="15"/>
       <c r="B206" s="6"/>
       <c r="C206" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="207" ht="15" spans="1:3">
       <c r="A207" s="15"/>
       <c r="B207" s="6"/>
       <c r="C207" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="208" ht="15" spans="1:3">
       <c r="A208" s="15"/>
       <c r="B208" s="6"/>
       <c r="C208" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="209" ht="15" spans="1:3">
       <c r="A209" s="15"/>
       <c r="B209" s="6"/>
       <c r="C209" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="210" ht="15" spans="1:3">
       <c r="A210" s="15"/>
       <c r="B210" s="6"/>
       <c r="C210" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="211" ht="15" spans="1:3">
       <c r="A211" s="15"/>
       <c r="B211" s="6"/>
       <c r="C211" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="212" ht="15.75" spans="1:3">
@@ -5109,66 +5133,66 @@
     <row r="213" ht="18.75" spans="1:3">
       <c r="A213" s="15"/>
       <c r="B213" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="C213" s="34" t="s">
-        <v>24</v>
+        <v>194</v>
+      </c>
+      <c r="C213" s="35" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="214" ht="15" spans="1:3">
       <c r="A214" s="15"/>
       <c r="B214" s="6"/>
       <c r="C214" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="215" ht="18.75" spans="1:3">
       <c r="A215" s="15"/>
       <c r="B215" s="6"/>
-      <c r="C215" s="34" t="s">
-        <v>36</v>
+      <c r="C215" s="35" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="216" ht="18.75" spans="1:3">
       <c r="A216" s="15"/>
       <c r="B216" s="6"/>
-      <c r="C216" s="34" t="s">
-        <v>194</v>
+      <c r="C216" s="35" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="217" ht="18.75" spans="1:3">
       <c r="A217" s="15"/>
       <c r="B217" s="6"/>
-      <c r="C217" s="34" t="s">
-        <v>195</v>
+      <c r="C217" s="35" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="218" ht="18.75" spans="1:3">
       <c r="A218" s="15"/>
       <c r="B218" s="6"/>
-      <c r="C218" s="34" t="s">
-        <v>196</v>
+      <c r="C218" s="35" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="219" ht="18.75" spans="1:3">
       <c r="A219" s="15"/>
       <c r="B219" s="6"/>
-      <c r="C219" s="34" t="s">
-        <v>197</v>
+      <c r="C219" s="35" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="220" ht="18.75" spans="1:3">
       <c r="A220" s="15"/>
       <c r="B220" s="6"/>
-      <c r="C220" s="34" t="s">
-        <v>198</v>
+      <c r="C220" s="35" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="221" ht="18.75" spans="1:3">
       <c r="A221" s="15"/>
       <c r="B221" s="6"/>
-      <c r="C221" s="34" t="s">
-        <v>64</v>
+      <c r="C221" s="35" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -5178,66 +5202,66 @@
     <row r="223" ht="18.75" spans="1:3">
       <c r="A223" s="15"/>
       <c r="B223" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="C223" s="34" t="s">
-        <v>24</v>
+        <v>201</v>
+      </c>
+      <c r="C223" s="35" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="224" ht="18.75" spans="1:3">
       <c r="A224" s="15"/>
       <c r="B224" s="6"/>
-      <c r="C224" s="34" t="s">
-        <v>35</v>
+      <c r="C224" s="35" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="225" ht="18.75" spans="1:3">
       <c r="A225" s="15"/>
       <c r="B225" s="6"/>
-      <c r="C225" s="34" t="s">
-        <v>200</v>
+      <c r="C225" s="35" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="226" ht="18.75" spans="1:3">
       <c r="A226" s="15"/>
       <c r="B226" s="6"/>
-      <c r="C226" s="34" t="s">
-        <v>201</v>
+      <c r="C226" s="35" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="227" ht="18.75" spans="1:3">
       <c r="A227" s="15"/>
       <c r="B227" s="6"/>
-      <c r="C227" s="34" t="s">
-        <v>202</v>
+      <c r="C227" s="35" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="228" ht="18.75" spans="1:3">
       <c r="A228" s="15"/>
       <c r="B228" s="6"/>
-      <c r="C228" s="34" t="s">
-        <v>203</v>
+      <c r="C228" s="35" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="229" ht="18.75" spans="1:3">
       <c r="A229" s="15"/>
       <c r="B229" s="6"/>
-      <c r="C229" s="34" t="s">
-        <v>204</v>
+      <c r="C229" s="35" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="230" ht="18.75" spans="1:3">
       <c r="A230" s="15"/>
       <c r="B230" s="6"/>
-      <c r="C230" s="34" t="s">
-        <v>205</v>
+      <c r="C230" s="35" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="231" ht="18.75" spans="1:3">
       <c r="A231" s="15"/>
       <c r="B231" s="6"/>
-      <c r="C231" s="34" t="s">
-        <v>64</v>
+      <c r="C231" s="35" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -5248,87 +5272,87 @@
     <row r="233" ht="18.75" spans="1:3">
       <c r="A233" s="15"/>
       <c r="B233" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C233" s="34" t="s">
-        <v>24</v>
+        <v>208</v>
+      </c>
+      <c r="C233" s="35" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="234" ht="18.75" spans="1:3">
       <c r="A234" s="15"/>
       <c r="B234" s="6"/>
-      <c r="C234" s="34" t="s">
-        <v>207</v>
+      <c r="C234" s="35" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="235" ht="18.75" spans="1:3">
       <c r="A235" s="15"/>
       <c r="B235" s="6"/>
-      <c r="C235" s="34" t="s">
-        <v>208</v>
+      <c r="C235" s="35" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="236" ht="18.75" spans="1:3">
       <c r="A236" s="15"/>
       <c r="B236" s="6"/>
-      <c r="C236" s="34" t="s">
-        <v>209</v>
+      <c r="C236" s="35" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="237" ht="18.75" spans="1:3">
       <c r="A237" s="15"/>
       <c r="B237" s="6"/>
-      <c r="C237" s="34" t="s">
-        <v>210</v>
+      <c r="C237" s="35" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="238" ht="18.75" spans="1:3">
       <c r="A238" s="15"/>
       <c r="B238" s="6"/>
-      <c r="C238" s="34" t="s">
-        <v>211</v>
+      <c r="C238" s="35" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="239" ht="18.75" spans="1:3">
       <c r="A239" s="15"/>
       <c r="B239" s="6"/>
-      <c r="C239" s="34" t="s">
-        <v>212</v>
+      <c r="C239" s="35" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="240" ht="18.75" spans="1:3">
       <c r="A240" s="15"/>
       <c r="B240" s="6"/>
-      <c r="C240" s="34" t="s">
-        <v>213</v>
+      <c r="C240" s="35" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="241" ht="18.75" spans="1:3">
       <c r="A241" s="15"/>
       <c r="B241" s="6"/>
-      <c r="C241" s="34" t="s">
-        <v>214</v>
+      <c r="C241" s="35" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="242" ht="18.75" spans="1:3">
       <c r="A242" s="15"/>
       <c r="B242" s="6"/>
-      <c r="C242" s="34" t="s">
-        <v>215</v>
+      <c r="C242" s="35" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="243" ht="18.75" spans="1:3">
       <c r="A243" s="15"/>
       <c r="B243" s="6"/>
-      <c r="C243" s="34" t="s">
-        <v>216</v>
+      <c r="C243" s="35" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="244" ht="18.75" spans="1:3">
       <c r="A244" s="15"/>
       <c r="B244" s="6"/>
-      <c r="C244" s="34" t="s">
-        <v>217</v>
+      <c r="C244" s="35" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -5338,129 +5362,129 @@
     <row r="246" ht="18.75" spans="1:3">
       <c r="A246" s="15"/>
       <c r="B246" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="C246" s="34" t="s">
-        <v>24</v>
+        <v>220</v>
+      </c>
+      <c r="C246" s="35" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="247" ht="18.75" spans="1:3">
       <c r="A247" s="15"/>
       <c r="B247" s="6"/>
-      <c r="C247" s="34" t="s">
-        <v>219</v>
+      <c r="C247" s="35" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="248" ht="18.75" spans="1:3">
       <c r="A248" s="15"/>
       <c r="B248" s="6"/>
-      <c r="C248" s="34" t="s">
-        <v>220</v>
+      <c r="C248" s="35" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="249" ht="18.75" spans="1:3">
       <c r="A249" s="15"/>
       <c r="B249" s="6"/>
-      <c r="C249" s="34" t="s">
-        <v>221</v>
+      <c r="C249" s="35" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="250" ht="18.75" spans="1:3">
       <c r="A250" s="15"/>
       <c r="B250" s="6"/>
-      <c r="C250" s="34" t="s">
-        <v>222</v>
+      <c r="C250" s="35" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="251" ht="18.75" spans="1:3">
       <c r="A251" s="15"/>
       <c r="B251" s="6"/>
-      <c r="C251" s="34" t="s">
-        <v>223</v>
+      <c r="C251" s="35" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="252" ht="18.75" spans="1:3">
       <c r="A252" s="15"/>
       <c r="B252" s="6"/>
-      <c r="C252" s="34" t="s">
-        <v>224</v>
+      <c r="C252" s="35" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="253" ht="18.75" spans="1:3">
       <c r="A253" s="15"/>
       <c r="B253" s="6"/>
-      <c r="C253" s="34" t="s">
-        <v>225</v>
+      <c r="C253" s="35" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="254" ht="18.75" spans="1:3">
       <c r="A254" s="15"/>
       <c r="B254" s="6"/>
-      <c r="C254" s="34" t="s">
-        <v>226</v>
+      <c r="C254" s="35" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="255" ht="18.75" spans="1:3">
       <c r="A255" s="15"/>
       <c r="B255" s="6"/>
-      <c r="C255" s="34" t="s">
-        <v>227</v>
+      <c r="C255" s="35" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="256" ht="18.75" spans="1:3">
       <c r="A256" s="15"/>
       <c r="B256" s="6"/>
-      <c r="C256" s="34" t="s">
-        <v>228</v>
+      <c r="C256" s="35" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="257" ht="18.75" spans="1:3">
       <c r="A257" s="15"/>
       <c r="B257" s="6"/>
-      <c r="C257" s="34" t="s">
-        <v>229</v>
+      <c r="C257" s="35" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="258" ht="18.75" spans="1:3">
       <c r="A258" s="15"/>
       <c r="B258" s="6"/>
-      <c r="C258" s="34" t="s">
-        <v>230</v>
+      <c r="C258" s="35" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="259" ht="18.75" spans="1:3">
       <c r="A259" s="15"/>
       <c r="B259" s="6"/>
-      <c r="C259" s="34" t="s">
-        <v>231</v>
+      <c r="C259" s="35" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="260" ht="18.75" spans="1:3">
       <c r="A260" s="15"/>
       <c r="B260" s="6"/>
-      <c r="C260" s="34" t="s">
-        <v>232</v>
+      <c r="C260" s="35" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="261" ht="18.75" spans="1:3">
       <c r="A261" s="15"/>
       <c r="B261" s="6"/>
-      <c r="C261" s="34" t="s">
-        <v>233</v>
+      <c r="C261" s="35" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="262" ht="18.75" spans="1:3">
       <c r="A262" s="15"/>
       <c r="B262" s="6"/>
-      <c r="C262" s="34" t="s">
-        <v>234</v>
+      <c r="C262" s="35" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="263" ht="18.75" spans="1:3">
       <c r="A263" s="15"/>
       <c r="B263" s="6"/>
-      <c r="C263" s="34" t="s">
-        <v>235</v>
+      <c r="C263" s="35" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5470,73 +5494,73 @@
     <row r="265" ht="18.75" spans="1:3">
       <c r="A265" s="15"/>
       <c r="B265" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C265" s="34" t="s">
-        <v>24</v>
+        <v>238</v>
+      </c>
+      <c r="C265" s="35" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="266" ht="18.75" spans="1:3">
       <c r="A266" s="15"/>
       <c r="B266" s="6"/>
-      <c r="C266" s="34" t="s">
-        <v>237</v>
+      <c r="C266" s="35" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="267" ht="18.75" spans="1:3">
       <c r="A267" s="15"/>
       <c r="B267" s="6"/>
-      <c r="C267" s="34" t="s">
-        <v>238</v>
+      <c r="C267" s="35" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="268" ht="18.75" spans="1:3">
       <c r="A268" s="15"/>
       <c r="B268" s="6"/>
-      <c r="C268" s="34" t="s">
-        <v>239</v>
+      <c r="C268" s="35" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="269" ht="18.75" spans="1:3">
       <c r="A269" s="15"/>
       <c r="B269" s="6"/>
-      <c r="C269" s="34" t="s">
-        <v>240</v>
+      <c r="C269" s="35" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="270" ht="18.75" spans="1:3">
       <c r="A270" s="15"/>
       <c r="B270" s="6"/>
-      <c r="C270" s="34" t="s">
-        <v>241</v>
+      <c r="C270" s="35" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="271" ht="18.75" spans="1:3">
       <c r="A271" s="15"/>
       <c r="B271" s="6"/>
-      <c r="C271" s="34" t="s">
-        <v>242</v>
+      <c r="C271" s="35" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="272" ht="18.75" spans="1:3">
       <c r="A272" s="15"/>
       <c r="B272" s="6"/>
-      <c r="C272" s="34" t="s">
-        <v>243</v>
+      <c r="C272" s="35" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="273" ht="18.75" spans="1:3">
       <c r="A273" s="15"/>
       <c r="B273" s="6"/>
-      <c r="C273" s="34" t="s">
-        <v>244</v>
+      <c r="C273" s="35" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="274" ht="18.75" spans="1:3">
       <c r="A274" s="15"/>
       <c r="B274" s="6"/>
-      <c r="C274" s="34" t="s">
-        <v>32</v>
+      <c r="C274" s="35" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -5546,150 +5570,150 @@
     <row r="276" ht="18.75" spans="1:3">
       <c r="A276" s="15"/>
       <c r="B276" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C276" s="34" t="s">
-        <v>24</v>
+        <v>247</v>
+      </c>
+      <c r="C276" s="35" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="277" ht="18.75" spans="1:3">
       <c r="A277" s="15"/>
       <c r="B277" s="6"/>
-      <c r="C277" s="34" t="s">
-        <v>246</v>
+      <c r="C277" s="35" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="278" ht="18.75" spans="1:3">
       <c r="A278" s="15"/>
       <c r="B278" s="6"/>
-      <c r="C278" s="34" t="s">
-        <v>247</v>
+      <c r="C278" s="35" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="279" ht="18.75" spans="1:3">
       <c r="A279" s="15"/>
       <c r="B279" s="6"/>
-      <c r="C279" s="34" t="s">
-        <v>248</v>
+      <c r="C279" s="35" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="280" ht="18.75" spans="1:3">
       <c r="A280" s="15"/>
       <c r="B280" s="6"/>
-      <c r="C280" s="34" t="s">
-        <v>249</v>
+      <c r="C280" s="35" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="281" ht="18.75" spans="1:3">
       <c r="A281" s="15"/>
       <c r="B281" s="6"/>
-      <c r="C281" s="34" t="s">
-        <v>250</v>
+      <c r="C281" s="35" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="282" ht="18.75" spans="1:3">
       <c r="A282" s="15"/>
       <c r="B282" s="6"/>
-      <c r="C282" s="34" t="s">
-        <v>251</v>
+      <c r="C282" s="35" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="283" ht="18.75" spans="1:3">
       <c r="A283" s="15"/>
       <c r="B283" s="6"/>
-      <c r="C283" s="34" t="s">
-        <v>252</v>
+      <c r="C283" s="35" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="284" ht="18.75" spans="1:3">
       <c r="A284" s="15"/>
       <c r="B284" s="6"/>
-      <c r="C284" s="34" t="s">
-        <v>253</v>
+      <c r="C284" s="35" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="285" ht="18.75" spans="1:3">
       <c r="A285" s="15"/>
       <c r="B285" s="6"/>
-      <c r="C285" s="34" t="s">
-        <v>254</v>
+      <c r="C285" s="35" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="286" ht="18.75" spans="1:3">
       <c r="A286" s="15"/>
       <c r="B286" s="6"/>
-      <c r="C286" s="34" t="s">
-        <v>255</v>
+      <c r="C286" s="35" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="287" ht="18.75" spans="1:3">
       <c r="A287" s="15"/>
       <c r="B287" s="6"/>
-      <c r="C287" s="34" t="s">
-        <v>256</v>
+      <c r="C287" s="35" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="288" ht="18.75" spans="1:3">
       <c r="A288" s="15"/>
       <c r="B288" s="6"/>
-      <c r="C288" s="34" t="s">
-        <v>257</v>
+      <c r="C288" s="35" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="289" ht="18.75" spans="1:3">
       <c r="A289" s="15"/>
       <c r="B289" s="6"/>
-      <c r="C289" s="34" t="s">
-        <v>258</v>
+      <c r="C289" s="35" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="290" ht="18.75" spans="1:3">
       <c r="A290" s="15"/>
       <c r="B290" s="6"/>
-      <c r="C290" s="34" t="s">
-        <v>259</v>
+      <c r="C290" s="35" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="291" ht="18.75" spans="1:3">
       <c r="A291" s="15"/>
       <c r="B291" s="6"/>
-      <c r="C291" s="34" t="s">
-        <v>260</v>
+      <c r="C291" s="35" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="292" ht="18.75" spans="1:3">
       <c r="A292" s="15"/>
       <c r="B292" s="6"/>
-      <c r="C292" s="34" t="s">
-        <v>261</v>
+      <c r="C292" s="35" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="293" ht="18.75" spans="1:3">
       <c r="A293" s="15"/>
       <c r="B293" s="6"/>
-      <c r="C293" s="34"/>
+      <c r="C293" s="35"/>
     </row>
     <row r="294" ht="17" customHeight="1" spans="1:3">
       <c r="A294" s="15"/>
       <c r="B294" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C294" s="38" t="s">
-        <v>262</v>
+        <v>82</v>
+      </c>
+      <c r="C294" s="39" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="295" ht="18.75" spans="1:3">
       <c r="A295" s="15"/>
       <c r="B295" s="9"/>
-      <c r="C295" s="34" t="s">
-        <v>263</v>
+      <c r="C295" s="35" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="296" ht="18.75" spans="1:3">
       <c r="A296" s="15"/>
       <c r="B296" s="9"/>
-      <c r="C296" s="34" t="s">
-        <v>264</v>
+      <c r="C296" s="35" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -5699,69 +5723,69 @@
     </row>
     <row r="298" ht="24.75" spans="1:3">
       <c r="A298" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
     </row>
     <row r="299" ht="18.75" spans="1:3">
       <c r="A299" s="15" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B299" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="C299" s="34" t="s">
-        <v>268</v>
+        <v>269</v>
+      </c>
+      <c r="C299" s="35" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="300" ht="18.75" spans="1:3">
       <c r="A300" s="15"/>
       <c r="B300" s="16"/>
-      <c r="C300" s="34" t="s">
-        <v>269</v>
+      <c r="C300" s="35" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="301" ht="18.75" spans="1:3">
       <c r="A301" s="15"/>
       <c r="B301" s="16"/>
-      <c r="C301" s="34" t="s">
-        <v>270</v>
+      <c r="C301" s="35" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="302" ht="18.75" spans="1:3">
       <c r="A302" s="15"/>
       <c r="B302" s="16"/>
-      <c r="C302" s="34" t="s">
-        <v>271</v>
+      <c r="C302" s="35" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="303" ht="18.75" spans="1:3">
       <c r="A303" s="15"/>
       <c r="B303" s="16"/>
-      <c r="C303" s="34" t="s">
-        <v>272</v>
+      <c r="C303" s="35" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="304" ht="18.75" spans="1:3">
       <c r="A304" s="15"/>
       <c r="B304" s="16"/>
-      <c r="C304" s="34" t="s">
-        <v>273</v>
+      <c r="C304" s="35" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="305" ht="18.75" spans="1:3">
       <c r="A305" s="15"/>
       <c r="B305" s="16"/>
-      <c r="C305" s="34" t="s">
-        <v>274</v>
+      <c r="C305" s="35" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="306" ht="18.75" spans="1:3">
       <c r="A306" s="15"/>
       <c r="B306" s="16"/>
-      <c r="C306" s="34" t="s">
-        <v>275</v>
+      <c r="C306" s="35" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -5771,108 +5795,108 @@
     <row r="308" ht="18.75" spans="1:3">
       <c r="A308" s="15"/>
       <c r="B308" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="C308" s="34" t="s">
-        <v>24</v>
+        <v>278</v>
+      </c>
+      <c r="C308" s="35" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="309" ht="18.75" spans="1:3">
       <c r="A309" s="15"/>
       <c r="B309" s="16"/>
-      <c r="C309" s="34" t="s">
-        <v>277</v>
+      <c r="C309" s="35" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="310" ht="18.75" spans="1:3">
       <c r="A310" s="15"/>
       <c r="B310" s="16"/>
-      <c r="C310" s="34" t="s">
-        <v>278</v>
+      <c r="C310" s="35" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="311" ht="18.75" spans="1:3">
       <c r="A311" s="15"/>
       <c r="B311" s="16"/>
-      <c r="C311" s="34" t="s">
-        <v>279</v>
+      <c r="C311" s="35" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="312" ht="18.75" spans="1:3">
       <c r="A312" s="15"/>
       <c r="B312" s="16"/>
-      <c r="C312" s="34" t="s">
-        <v>280</v>
+      <c r="C312" s="35" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="313" ht="18.75" spans="1:3">
       <c r="A313" s="15"/>
       <c r="B313" s="16"/>
-      <c r="C313" s="34" t="s">
-        <v>281</v>
+      <c r="C313" s="35" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="314" ht="18.75" spans="1:3">
       <c r="A314" s="15"/>
       <c r="B314" s="16"/>
-      <c r="C314" s="34" t="s">
-        <v>282</v>
+      <c r="C314" s="35" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="315" ht="18.75" spans="1:3">
       <c r="A315" s="15"/>
       <c r="B315" s="16"/>
-      <c r="C315" s="34" t="s">
-        <v>283</v>
+      <c r="C315" s="35" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="316" ht="18.75" spans="1:3">
       <c r="A316" s="15"/>
       <c r="B316" s="16"/>
-      <c r="C316" s="34" t="s">
-        <v>284</v>
+      <c r="C316" s="35" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="317" ht="18.75" spans="1:3">
       <c r="A317" s="15"/>
       <c r="B317" s="16"/>
-      <c r="C317" s="34" t="s">
-        <v>285</v>
+      <c r="C317" s="35" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="318" ht="18.75" spans="1:3">
       <c r="A318" s="15"/>
       <c r="B318" s="16"/>
-      <c r="C318" s="34" t="s">
-        <v>286</v>
+      <c r="C318" s="35" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="319" ht="37.5" spans="1:3">
       <c r="A319" s="15"/>
       <c r="B319" s="16"/>
-      <c r="C319" s="34" t="s">
-        <v>287</v>
+      <c r="C319" s="35" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="320" ht="18.75" spans="1:3">
       <c r="A320" s="15"/>
       <c r="B320" s="16"/>
-      <c r="C320" s="34" t="s">
-        <v>288</v>
+      <c r="C320" s="35" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="321" ht="18.75" spans="1:3">
       <c r="A321" s="15"/>
       <c r="B321" s="16"/>
-      <c r="C321" s="34" t="s">
-        <v>289</v>
+      <c r="C321" s="35" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="322" ht="18.75" spans="1:3">
       <c r="A322" s="15"/>
       <c r="B322" s="16"/>
-      <c r="C322" s="34" t="s">
-        <v>290</v>
+      <c r="C322" s="35" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -5883,17 +5907,17 @@
     <row r="324" ht="37.5" spans="1:3">
       <c r="A324" s="15"/>
       <c r="B324" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="C324" s="34" t="s">
-        <v>292</v>
+        <v>293</v>
+      </c>
+      <c r="C324" s="35" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="325" ht="18.75" spans="1:3">
       <c r="A325" s="15"/>
       <c r="B325" s="27"/>
-      <c r="C325" s="34" t="s">
-        <v>293</v>
+      <c r="C325" s="35" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -5903,7 +5927,7 @@
     </row>
     <row r="330" ht="18.75" spans="1:2">
       <c r="A330" s="13" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B330" s="14">
         <v>5</v>
@@ -5911,7 +5935,7 @@
     </row>
     <row r="331" ht="18.75" spans="1:2">
       <c r="A331" s="13" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B331" s="14">
         <v>40</v>
@@ -6004,7 +6028,7 @@
     </row>
     <row r="2" ht="24.75" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -6012,13 +6036,13 @@
     </row>
     <row r="3" ht="24.75" spans="1:4">
       <c r="A3" s="15" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -6031,10 +6055,10 @@
     <row r="5" ht="15" spans="1:4">
       <c r="A5" s="15"/>
       <c r="B5" s="6" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D5" s="23"/>
     </row>
@@ -6042,7 +6066,7 @@
       <c r="A6" s="15"/>
       <c r="B6" s="6"/>
       <c r="C6" s="11" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D6" s="23"/>
     </row>
@@ -6050,7 +6074,7 @@
       <c r="A7" s="15"/>
       <c r="B7" s="6"/>
       <c r="C7" s="11" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D7" s="23"/>
     </row>
@@ -6069,10 +6093,10 @@
     <row r="10" ht="15" spans="1:4">
       <c r="A10" s="15"/>
       <c r="B10" s="6" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" s="23"/>
     </row>
@@ -6080,7 +6104,7 @@
       <c r="A11" s="15"/>
       <c r="B11" s="6"/>
       <c r="C11" s="11" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D11" s="23"/>
     </row>
@@ -6088,7 +6112,7 @@
       <c r="A12" s="15"/>
       <c r="B12" s="6"/>
       <c r="C12" s="11" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D12" s="23"/>
     </row>
@@ -6096,7 +6120,7 @@
       <c r="A13" s="15"/>
       <c r="B13" s="6"/>
       <c r="C13" s="11" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D13" s="23"/>
     </row>
@@ -6104,7 +6128,7 @@
       <c r="A14" s="15"/>
       <c r="B14" s="6"/>
       <c r="C14" s="11" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D14" s="23"/>
     </row>
@@ -6112,7 +6136,7 @@
       <c r="A15" s="15"/>
       <c r="B15" s="6"/>
       <c r="C15" s="11" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D15" s="23"/>
     </row>
@@ -6120,7 +6144,7 @@
       <c r="A16" s="15"/>
       <c r="B16" s="6"/>
       <c r="C16" s="11" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D16" s="23"/>
     </row>
@@ -6128,7 +6152,7 @@
       <c r="A17" s="15"/>
       <c r="B17" s="6"/>
       <c r="C17" s="11" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D17" s="23"/>
     </row>
@@ -6136,7 +6160,7 @@
       <c r="A18" s="15"/>
       <c r="B18" s="6"/>
       <c r="C18" s="11" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D18" s="23"/>
     </row>
@@ -6144,7 +6168,7 @@
       <c r="A19" s="15"/>
       <c r="B19" s="6"/>
       <c r="C19" s="11" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D19" s="23"/>
     </row>
@@ -6152,7 +6176,7 @@
       <c r="A20" s="15"/>
       <c r="B20" s="6"/>
       <c r="C20" s="11" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D20" s="23"/>
     </row>
@@ -6165,10 +6189,10 @@
     <row r="22" ht="15" spans="1:4">
       <c r="A22" s="15"/>
       <c r="B22" s="6" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D22" s="23"/>
     </row>
@@ -6176,7 +6200,7 @@
       <c r="A23" s="15"/>
       <c r="B23" s="6"/>
       <c r="C23" s="11" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D23" s="23"/>
     </row>
@@ -6184,7 +6208,7 @@
       <c r="A24" s="15"/>
       <c r="B24" s="6"/>
       <c r="C24" s="11" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D24" s="23"/>
     </row>
@@ -6192,7 +6216,7 @@
       <c r="A25" s="15"/>
       <c r="B25" s="6"/>
       <c r="C25" s="11" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D25" s="23"/>
     </row>
@@ -6200,7 +6224,7 @@
       <c r="A26" s="15"/>
       <c r="B26" s="6"/>
       <c r="C26" s="11" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D26" s="23"/>
     </row>
@@ -6208,7 +6232,7 @@
       <c r="A27" s="15"/>
       <c r="B27" s="6"/>
       <c r="C27" s="11" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D27" s="23"/>
     </row>
@@ -6216,7 +6240,7 @@
       <c r="A28" s="15"/>
       <c r="B28" s="6"/>
       <c r="C28" s="11" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D28" s="23"/>
     </row>
@@ -6224,7 +6248,7 @@
       <c r="A29" s="15"/>
       <c r="B29" s="6"/>
       <c r="C29" s="11" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D29" s="23"/>
     </row>
@@ -6232,7 +6256,7 @@
       <c r="A30" s="15"/>
       <c r="B30" s="6"/>
       <c r="C30" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D30" s="23"/>
     </row>
@@ -6245,10 +6269,10 @@
     <row r="32" ht="15" spans="1:4">
       <c r="A32" s="15"/>
       <c r="B32" s="6" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D32" s="23"/>
     </row>
@@ -6256,7 +6280,7 @@
       <c r="A33" s="15"/>
       <c r="B33" s="6"/>
       <c r="C33" s="11" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D33" s="23"/>
     </row>
@@ -6264,7 +6288,7 @@
       <c r="A34" s="15"/>
       <c r="B34" s="6"/>
       <c r="C34" s="11" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D34" s="23"/>
     </row>
@@ -6272,7 +6296,7 @@
       <c r="A35" s="15"/>
       <c r="B35" s="6"/>
       <c r="C35" s="11" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D35" s="23"/>
     </row>
@@ -6280,7 +6304,7 @@
       <c r="A36" s="15"/>
       <c r="B36" s="6"/>
       <c r="C36" s="11" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D36" s="23"/>
     </row>
@@ -6288,7 +6312,7 @@
       <c r="A37" s="15"/>
       <c r="B37" s="6"/>
       <c r="C37" s="11" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D37" s="23"/>
     </row>
@@ -6296,7 +6320,7 @@
       <c r="A38" s="15"/>
       <c r="B38" s="6"/>
       <c r="C38" s="11" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D38" s="23"/>
     </row>
@@ -6304,7 +6328,7 @@
       <c r="A39" s="15"/>
       <c r="B39" s="6"/>
       <c r="C39" s="11" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D39" s="23"/>
     </row>
@@ -6312,7 +6336,7 @@
       <c r="A40" s="15"/>
       <c r="B40" s="6"/>
       <c r="C40" s="4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D40" s="23"/>
     </row>
@@ -6320,7 +6344,7 @@
       <c r="A41" s="15"/>
       <c r="B41" s="6"/>
       <c r="C41" s="4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D41" s="23"/>
     </row>
@@ -6328,7 +6352,7 @@
       <c r="A42" s="15"/>
       <c r="B42" s="6"/>
       <c r="C42" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D42" s="23"/>
     </row>
@@ -6341,10 +6365,10 @@
     <row r="44" ht="15" spans="1:4">
       <c r="A44" s="15"/>
       <c r="B44" s="6" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D44" s="23"/>
     </row>
@@ -6352,7 +6376,7 @@
       <c r="A45" s="15"/>
       <c r="B45" s="6"/>
       <c r="C45" s="11" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D45" s="23"/>
     </row>
@@ -6360,7 +6384,7 @@
       <c r="A46" s="15"/>
       <c r="B46" s="6"/>
       <c r="C46" s="11" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D46" s="23"/>
     </row>
@@ -6368,7 +6392,7 @@
       <c r="A47" s="15"/>
       <c r="B47" s="6"/>
       <c r="C47" s="11" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D47" s="23"/>
     </row>
@@ -6376,7 +6400,7 @@
       <c r="A48" s="15"/>
       <c r="B48" s="6"/>
       <c r="C48" s="11" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D48" s="23"/>
     </row>
@@ -6384,7 +6408,7 @@
       <c r="A49" s="15"/>
       <c r="B49" s="6"/>
       <c r="C49" s="11" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D49" s="23"/>
     </row>
@@ -6392,7 +6416,7 @@
       <c r="A50" s="15"/>
       <c r="B50" s="6"/>
       <c r="C50" s="11" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D50" s="23"/>
     </row>
@@ -6405,10 +6429,10 @@
     <row r="52" ht="15" spans="1:4">
       <c r="A52" s="15"/>
       <c r="B52" s="6" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D52" s="23"/>
     </row>
@@ -6416,7 +6440,7 @@
       <c r="A53" s="15"/>
       <c r="B53" s="6"/>
       <c r="C53" s="11" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D53" s="23"/>
     </row>
@@ -6424,7 +6448,7 @@
       <c r="A54" s="15"/>
       <c r="B54" s="6"/>
       <c r="C54" s="11" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D54" s="23"/>
     </row>
@@ -6432,7 +6456,7 @@
       <c r="A55" s="15"/>
       <c r="B55" s="6"/>
       <c r="C55" s="11" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D55" s="23"/>
     </row>
@@ -6440,7 +6464,7 @@
       <c r="A56" s="15"/>
       <c r="B56" s="6"/>
       <c r="C56" s="11" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D56" s="23"/>
     </row>
@@ -6448,7 +6472,7 @@
       <c r="A57" s="15"/>
       <c r="B57" s="6"/>
       <c r="C57" s="11" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D57" s="23"/>
     </row>
@@ -6456,7 +6480,7 @@
       <c r="A58" s="15"/>
       <c r="B58" s="6"/>
       <c r="C58" s="11" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D58" s="23"/>
     </row>
@@ -6464,7 +6488,7 @@
       <c r="A59" s="15"/>
       <c r="B59" s="6"/>
       <c r="C59" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D59" s="23"/>
     </row>
@@ -6477,10 +6501,10 @@
     <row r="61" ht="18" customHeight="1" spans="1:4">
       <c r="A61" s="15"/>
       <c r="B61" s="6" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D61" s="23"/>
     </row>
@@ -6488,7 +6512,7 @@
       <c r="A62" s="15"/>
       <c r="B62" s="6"/>
       <c r="C62" s="11" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D62" s="23"/>
     </row>
@@ -6496,7 +6520,7 @@
       <c r="A63" s="15"/>
       <c r="B63" s="6"/>
       <c r="C63" s="11" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D63" s="23"/>
     </row>
@@ -6504,7 +6528,7 @@
       <c r="A64" s="15"/>
       <c r="B64" s="6"/>
       <c r="C64" s="11" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D64" s="23"/>
     </row>
@@ -6512,7 +6536,7 @@
       <c r="A65" s="15"/>
       <c r="B65" s="6"/>
       <c r="C65" s="11" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D65" s="23"/>
     </row>
@@ -6520,7 +6544,7 @@
       <c r="A66" s="15"/>
       <c r="B66" s="6"/>
       <c r="C66" s="11" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D66" s="23"/>
     </row>
@@ -6528,7 +6552,7 @@
       <c r="A67" s="15"/>
       <c r="B67" s="6"/>
       <c r="C67" s="11" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D67" s="23"/>
     </row>
@@ -6536,7 +6560,7 @@
       <c r="A68" s="15"/>
       <c r="B68" s="6"/>
       <c r="C68" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D68" s="23"/>
     </row>
@@ -6549,10 +6573,10 @@
     <row r="70" ht="24.75" spans="1:4">
       <c r="A70" s="15"/>
       <c r="B70" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D70" s="2"/>
     </row>
@@ -6560,7 +6584,7 @@
       <c r="A71" s="15"/>
       <c r="B71" s="9"/>
       <c r="C71" s="4" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D71" s="2"/>
     </row>
@@ -6572,20 +6596,20 @@
     </row>
     <row r="73" ht="24.75" spans="2:4">
       <c r="B73" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
     <row r="74" ht="15" spans="1:4">
       <c r="A74" s="24" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D74" s="4"/>
     </row>
@@ -6593,7 +6617,7 @@
       <c r="A75" s="24"/>
       <c r="B75" s="16"/>
       <c r="C75" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D75" s="4"/>
     </row>
@@ -6601,7 +6625,7 @@
       <c r="A76" s="24"/>
       <c r="B76" s="16"/>
       <c r="C76" s="4" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D76" s="4"/>
     </row>
@@ -6609,7 +6633,7 @@
       <c r="A77" s="24"/>
       <c r="B77" s="16"/>
       <c r="C77" s="4" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D77" s="4"/>
     </row>
@@ -6617,7 +6641,7 @@
       <c r="A78" s="24"/>
       <c r="B78" s="16"/>
       <c r="C78" s="4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D78" s="4"/>
     </row>
@@ -6625,7 +6649,7 @@
       <c r="A79" s="24"/>
       <c r="B79" s="16"/>
       <c r="C79" s="4" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D79" s="4"/>
     </row>
@@ -6633,7 +6657,7 @@
       <c r="A80" s="24"/>
       <c r="B80" s="16"/>
       <c r="C80" s="4" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D80" s="4"/>
     </row>
@@ -6641,7 +6665,7 @@
       <c r="A81" s="24"/>
       <c r="B81" s="16"/>
       <c r="C81" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D81" s="4"/>
     </row>
@@ -6653,38 +6677,38 @@
     <row r="83" ht="15" spans="1:3">
       <c r="A83" s="24"/>
       <c r="B83" s="16" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" ht="15" spans="1:3">
       <c r="A84" s="24"/>
       <c r="B84" s="16"/>
       <c r="C84" s="11" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="85" ht="15" spans="1:3">
       <c r="A85" s="24"/>
       <c r="B85" s="16"/>
       <c r="C85" s="11" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="86" ht="15" spans="1:3">
       <c r="A86" s="24"/>
       <c r="B86" s="16"/>
       <c r="C86" s="11" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="87" ht="15" spans="1:3">
       <c r="A87" s="24"/>
       <c r="B87" s="16"/>
       <c r="C87" s="11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="88" ht="18.75" spans="1:4">
@@ -6695,45 +6719,45 @@
     <row r="89" ht="15" spans="1:3">
       <c r="A89" s="24"/>
       <c r="B89" s="16" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" ht="15" spans="1:3">
       <c r="A90" s="24"/>
       <c r="B90" s="16"/>
       <c r="C90" s="11" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="91" ht="15" spans="1:3">
       <c r="A91" s="24"/>
       <c r="B91" s="16"/>
       <c r="C91" s="11" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="92" ht="15" spans="1:3">
       <c r="A92" s="24"/>
       <c r="B92" s="16"/>
       <c r="C92" s="11" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="93" ht="15" spans="1:3">
       <c r="A93" s="24"/>
       <c r="B93" s="16"/>
       <c r="C93" s="11" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="94" ht="15" spans="1:3">
       <c r="A94" s="24"/>
       <c r="B94" s="16"/>
       <c r="C94" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="95" ht="18.75" spans="1:4">
@@ -6745,52 +6769,52 @@
     <row r="96" ht="15" spans="1:3">
       <c r="A96" s="24"/>
       <c r="B96" s="16" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97" ht="15" spans="1:3">
       <c r="A97" s="24"/>
       <c r="B97" s="16"/>
       <c r="C97" s="11" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="98" ht="15" spans="1:3">
       <c r="A98" s="24"/>
       <c r="B98" s="16"/>
       <c r="C98" s="4" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="99" ht="15" spans="1:3">
       <c r="A99" s="24"/>
       <c r="B99" s="16"/>
       <c r="C99" s="4" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="100" ht="15" spans="1:3">
       <c r="A100" s="24"/>
       <c r="B100" s="16"/>
       <c r="C100" s="4" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="101" ht="15" spans="1:3">
       <c r="A101" s="24"/>
       <c r="B101" s="16"/>
       <c r="C101" s="4" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="102" ht="15" spans="1:4">
       <c r="A102" s="24"/>
       <c r="B102" s="16"/>
       <c r="C102" s="4" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D102" s="4"/>
     </row>
@@ -6802,20 +6826,20 @@
     </row>
     <row r="104" ht="24.75" spans="2:4">
       <c r="B104" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
     </row>
     <row r="105" ht="15" spans="1:4">
       <c r="A105" s="26" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D105" s="4"/>
     </row>
@@ -6823,7 +6847,7 @@
       <c r="A106" s="26"/>
       <c r="B106" s="16"/>
       <c r="C106" s="4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D106" s="4"/>
     </row>
@@ -6831,7 +6855,7 @@
       <c r="A107" s="26"/>
       <c r="B107" s="16"/>
       <c r="C107" s="4" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D107" s="4"/>
     </row>
@@ -6839,7 +6863,7 @@
       <c r="A108" s="26"/>
       <c r="B108" s="16"/>
       <c r="C108" s="4" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D108" s="4"/>
     </row>
@@ -6847,7 +6871,7 @@
       <c r="A109" s="26"/>
       <c r="B109" s="16"/>
       <c r="C109" s="4" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D109" s="4"/>
     </row>
@@ -6855,7 +6879,7 @@
       <c r="A110" s="26"/>
       <c r="B110" s="16"/>
       <c r="C110" s="4" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D110" s="4"/>
     </row>
@@ -6867,10 +6891,10 @@
     <row r="112" ht="15" spans="1:4">
       <c r="A112" s="26"/>
       <c r="B112" s="16" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D112" s="4"/>
     </row>
@@ -6878,7 +6902,7 @@
       <c r="A113" s="26"/>
       <c r="B113" s="16"/>
       <c r="C113" s="4" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D113" s="4"/>
     </row>
@@ -6886,7 +6910,7 @@
       <c r="A114" s="26"/>
       <c r="B114" s="16"/>
       <c r="C114" s="4" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D114" s="4"/>
     </row>
@@ -6894,7 +6918,7 @@
       <c r="A115" s="26"/>
       <c r="B115" s="16"/>
       <c r="C115" s="4" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D115" s="4"/>
     </row>
@@ -6902,7 +6926,7 @@
       <c r="A116" s="26"/>
       <c r="B116" s="16"/>
       <c r="C116" s="4" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D116" s="4"/>
     </row>
@@ -6910,7 +6934,7 @@
       <c r="A117" s="26"/>
       <c r="B117" s="16"/>
       <c r="C117" s="4" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D117" s="4"/>
     </row>
@@ -6918,7 +6942,7 @@
       <c r="A118" s="26"/>
       <c r="B118" s="16"/>
       <c r="C118" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D118" s="4"/>
     </row>
@@ -6926,7 +6950,7 @@
       <c r="A119" s="26"/>
       <c r="B119" s="16"/>
       <c r="C119" s="4" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D119" s="4"/>
     </row>
@@ -6934,7 +6958,7 @@
       <c r="A120" s="26"/>
       <c r="B120" s="16"/>
       <c r="C120" s="4" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D120" s="4"/>
     </row>
@@ -6946,10 +6970,10 @@
     <row r="122" ht="15" spans="1:4">
       <c r="A122" s="26"/>
       <c r="B122" s="16" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D122" s="4"/>
     </row>
@@ -6957,7 +6981,7 @@
       <c r="A123" s="26"/>
       <c r="B123" s="16"/>
       <c r="C123" s="4" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D123" s="4"/>
     </row>
@@ -6965,7 +6989,7 @@
       <c r="A124" s="26"/>
       <c r="B124" s="16"/>
       <c r="C124" s="4" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D124" s="4"/>
     </row>
@@ -6973,7 +6997,7 @@
       <c r="A125" s="26"/>
       <c r="B125" s="16"/>
       <c r="C125" s="4" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D125" s="4"/>
     </row>
@@ -6981,7 +7005,7 @@
       <c r="A126" s="26"/>
       <c r="B126" s="16"/>
       <c r="C126" s="4" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D126" s="4"/>
     </row>
@@ -6989,7 +7013,7 @@
       <c r="A127" s="26"/>
       <c r="B127" s="16"/>
       <c r="C127" s="4" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D127" s="4"/>
     </row>
@@ -7002,10 +7026,10 @@
     <row r="129" ht="15" spans="1:4">
       <c r="A129" s="26"/>
       <c r="B129" s="16" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D129" s="4"/>
     </row>
@@ -7013,7 +7037,7 @@
       <c r="A130" s="26"/>
       <c r="B130" s="16"/>
       <c r="C130" s="4" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D130" s="4"/>
     </row>
@@ -7021,7 +7045,7 @@
       <c r="A131" s="26"/>
       <c r="B131" s="16"/>
       <c r="C131" s="4" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D131" s="4"/>
     </row>
@@ -7029,7 +7053,7 @@
       <c r="A132" s="26"/>
       <c r="B132" s="16"/>
       <c r="C132" s="4" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D132" s="4"/>
     </row>
@@ -7037,7 +7061,7 @@
       <c r="A133" s="26"/>
       <c r="B133" s="16"/>
       <c r="C133" s="4" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D133" s="4"/>
     </row>
@@ -7045,7 +7069,7 @@
       <c r="A134" s="26"/>
       <c r="B134" s="16"/>
       <c r="C134" s="4" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D134" s="4"/>
     </row>
@@ -7058,10 +7082,10 @@
     <row r="136" ht="15" spans="1:4">
       <c r="A136" s="26"/>
       <c r="B136" s="27" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D136" s="10"/>
     </row>
@@ -7069,7 +7093,7 @@
       <c r="A137" s="26"/>
       <c r="B137" s="27"/>
       <c r="C137" s="4" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D137" s="4"/>
     </row>
@@ -7077,7 +7101,7 @@
       <c r="A138" s="26"/>
       <c r="B138" s="27"/>
       <c r="C138" s="4" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D138" s="4"/>
     </row>
@@ -7089,7 +7113,7 @@
     </row>
     <row r="142" ht="37.5" spans="1:2">
       <c r="A142" s="28" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B142" s="14">
         <v>2</v>
@@ -7097,7 +7121,7 @@
     </row>
     <row r="143" ht="37.5" spans="1:2">
       <c r="A143" s="28" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B143" s="29">
         <v>16</v>
@@ -7167,20 +7191,20 @@
     </row>
     <row r="2" ht="33" customHeight="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
       <c r="A3" s="15" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:3">
@@ -7191,38 +7215,38 @@
     <row r="5" ht="15" spans="1:3">
       <c r="A5" s="15"/>
       <c r="B5" s="6" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:3">
       <c r="A6" s="15"/>
       <c r="B6" s="6"/>
       <c r="C6" s="4" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
       <c r="A7" s="15"/>
       <c r="B7" s="6"/>
       <c r="C7" s="4" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
       <c r="A8" s="15"/>
       <c r="B8" s="6"/>
       <c r="C8" s="4" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
       <c r="A9" s="15"/>
       <c r="B9" s="6"/>
       <c r="C9" s="4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="10" ht="13" customHeight="1" spans="1:3">
@@ -7233,66 +7257,66 @@
     <row r="11" ht="15" spans="1:3">
       <c r="A11" s="15"/>
       <c r="B11" s="6" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
       <c r="A12" s="15"/>
       <c r="B12" s="6"/>
       <c r="C12" s="4" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
       <c r="A13" s="15"/>
       <c r="B13" s="6"/>
       <c r="C13" s="4" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
       <c r="A14" s="15"/>
       <c r="B14" s="6"/>
       <c r="C14" s="4" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:3">
       <c r="A15" s="15"/>
       <c r="B15" s="6"/>
       <c r="C15" s="4" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:3">
       <c r="A16" s="15"/>
       <c r="B16" s="6"/>
       <c r="C16" s="4" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
       <c r="A17" s="15"/>
       <c r="B17" s="6"/>
       <c r="C17" s="4" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
       <c r="A18" s="15"/>
       <c r="B18" s="6"/>
       <c r="C18" s="4" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:3">
       <c r="A19" s="15"/>
       <c r="B19" s="6"/>
       <c r="C19" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" ht="18.75" spans="1:3">
@@ -7303,73 +7327,73 @@
     <row r="21" ht="15" spans="1:3">
       <c r="A21" s="15"/>
       <c r="B21" s="6" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
       <c r="A22" s="15"/>
       <c r="B22" s="6"/>
       <c r="C22" s="4" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:3">
       <c r="A23" s="15"/>
       <c r="B23" s="6"/>
       <c r="C23" s="4" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:3">
       <c r="A24" s="15"/>
       <c r="B24" s="6"/>
       <c r="C24" s="4" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:3">
       <c r="A25" s="15"/>
       <c r="B25" s="6"/>
       <c r="C25" s="4" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" ht="15" spans="1:3">
       <c r="A26" s="15"/>
       <c r="B26" s="6"/>
       <c r="C26" s="4" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:3">
       <c r="A27" s="15"/>
       <c r="B27" s="6"/>
       <c r="C27" s="4" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:3">
       <c r="A28" s="15"/>
       <c r="B28" s="6"/>
       <c r="C28" s="4" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:3">
       <c r="A29" s="15"/>
       <c r="B29" s="6"/>
       <c r="C29" s="4" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:3">
       <c r="A30" s="15"/>
       <c r="B30" s="6"/>
       <c r="C30" s="4" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="31" ht="18.75" spans="1:3">
@@ -7379,62 +7403,62 @@
     </row>
     <row r="32" ht="15" spans="1:3">
       <c r="A32" s="15" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:3">
       <c r="A33" s="15"/>
       <c r="B33" s="6"/>
       <c r="C33" s="4" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:3">
       <c r="A34" s="15"/>
       <c r="B34" s="6"/>
       <c r="C34" s="4" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:3">
       <c r="A35" s="15"/>
       <c r="B35" s="6"/>
       <c r="C35" s="4" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:3">
       <c r="A36" s="15"/>
       <c r="B36" s="6"/>
       <c r="C36" s="4" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="37" ht="15" spans="1:3">
       <c r="A37" s="15"/>
       <c r="B37" s="6"/>
       <c r="C37" s="4" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="38" ht="15" spans="1:3">
       <c r="A38" s="15"/>
       <c r="B38" s="6"/>
       <c r="C38" s="4" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:3">
       <c r="A39" s="15"/>
       <c r="B39" s="6"/>
       <c r="C39" s="4" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="40" ht="18.75" spans="1:3">
@@ -7444,55 +7468,55 @@
     </row>
     <row r="41" ht="15" spans="1:3">
       <c r="A41" s="15" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:3">
       <c r="A42" s="15"/>
       <c r="B42" s="6"/>
       <c r="C42" s="4" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:3">
       <c r="A43" s="15"/>
       <c r="B43" s="6"/>
       <c r="C43" s="4" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:3">
       <c r="A44" s="15"/>
       <c r="B44" s="6"/>
       <c r="C44" s="4" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:3">
       <c r="A45" s="15"/>
       <c r="B45" s="6"/>
       <c r="C45" s="4" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:3">
       <c r="A46" s="15"/>
       <c r="B46" s="6"/>
       <c r="C46" s="4" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="47" ht="15" spans="1:3">
       <c r="A47" s="15"/>
       <c r="B47" s="6"/>
       <c r="C47" s="4" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="48" customFormat="1" ht="18.75" spans="1:3">
@@ -7503,17 +7527,17 @@
     <row r="49" customFormat="1" ht="15" spans="1:3">
       <c r="A49" s="15"/>
       <c r="B49" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="50" customFormat="1" ht="15" spans="1:3">
       <c r="A50" s="15"/>
       <c r="B50" s="9"/>
       <c r="C50" s="4" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="51" customFormat="1" ht="9" customHeight="1" spans="1:3">
@@ -7523,69 +7547,69 @@
     </row>
     <row r="52" ht="24.75" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
     </row>
     <row r="53" ht="15" spans="1:3">
       <c r="A53" s="15" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" ht="15" spans="1:3">
       <c r="A54" s="15"/>
       <c r="B54" s="6"/>
       <c r="C54" s="4" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="55" ht="15" spans="1:3">
       <c r="A55" s="15"/>
       <c r="B55" s="6"/>
       <c r="C55" s="4" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="56" ht="15" spans="1:3">
       <c r="A56" s="15"/>
       <c r="B56" s="6"/>
       <c r="C56" s="4" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="57" ht="15" spans="1:3">
       <c r="A57" s="15"/>
       <c r="B57" s="6"/>
       <c r="C57" s="4" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="58" ht="15" spans="1:3">
       <c r="A58" s="15"/>
       <c r="B58" s="6"/>
       <c r="C58" s="4" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="59" ht="15" spans="1:3">
       <c r="A59" s="15"/>
       <c r="B59" s="6"/>
       <c r="C59" s="4" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="60" ht="15" spans="1:3">
       <c r="A60" s="15"/>
       <c r="B60" s="6"/>
       <c r="C60" s="4" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="61" ht="18.75" spans="1:3">
@@ -7595,90 +7619,90 @@
     </row>
     <row r="62" ht="15" spans="1:3">
       <c r="A62" s="15" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" ht="15" spans="1:3">
       <c r="A63" s="15"/>
       <c r="B63" s="6"/>
       <c r="C63" s="4" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="64" ht="15" spans="1:3">
       <c r="A64" s="15"/>
       <c r="B64" s="6"/>
       <c r="C64" s="4" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="65" ht="15" spans="1:3">
       <c r="A65" s="15"/>
       <c r="B65" s="6"/>
       <c r="C65" s="4" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="66" ht="15" spans="1:3">
       <c r="A66" s="15"/>
       <c r="B66" s="6"/>
       <c r="C66" s="4" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="67" ht="15" spans="1:3">
       <c r="A67" s="15"/>
       <c r="B67" s="6"/>
       <c r="C67" s="4" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="68" ht="15" spans="1:3">
       <c r="A68" s="15"/>
       <c r="B68" s="6"/>
       <c r="C68" s="4" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="69" ht="15" spans="1:3">
       <c r="A69" s="15"/>
       <c r="B69" s="6"/>
       <c r="C69" s="4" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="70" ht="15" spans="1:3">
       <c r="A70" s="15"/>
       <c r="B70" s="6"/>
       <c r="C70" s="4" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="71" ht="15" spans="1:3">
       <c r="A71" s="15"/>
       <c r="B71" s="6"/>
       <c r="C71" s="4" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="72" ht="15" spans="1:3">
       <c r="A72" s="15"/>
       <c r="B72" s="6"/>
       <c r="C72" s="4" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="73" ht="15" spans="1:3">
       <c r="A73" s="15"/>
       <c r="B73" s="6"/>
       <c r="C73" s="4" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="74" ht="9" customHeight="1" spans="1:3">
@@ -7688,55 +7712,55 @@
     </row>
     <row r="75" ht="15" spans="1:3">
       <c r="A75" s="15" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" ht="15" spans="1:3">
       <c r="A76" s="15"/>
       <c r="B76" s="6"/>
       <c r="C76" s="4" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="77" ht="15" spans="1:3">
       <c r="A77" s="15"/>
       <c r="B77" s="6"/>
       <c r="C77" s="4" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="78" ht="15" spans="1:3">
       <c r="A78" s="15"/>
       <c r="B78" s="6"/>
       <c r="C78" s="4" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="79" ht="15" spans="1:3">
       <c r="A79" s="15"/>
       <c r="B79" s="6"/>
       <c r="C79" s="4" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="80" ht="15" spans="1:3">
       <c r="A80" s="15"/>
       <c r="B80" s="6"/>
       <c r="C80" s="4" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="81" ht="15" spans="1:3">
       <c r="A81" s="15"/>
       <c r="B81" s="6"/>
       <c r="C81" s="4" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="82" ht="18.75" spans="1:1">
@@ -7744,69 +7768,69 @@
     </row>
     <row r="83" ht="15" spans="1:3">
       <c r="A83" s="15" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" ht="15" spans="1:3">
       <c r="A84" s="15"/>
       <c r="B84" s="6"/>
       <c r="C84" s="4" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="85" ht="15" spans="1:3">
       <c r="A85" s="15"/>
       <c r="B85" s="6"/>
       <c r="C85" s="4" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="86" ht="15" spans="1:3">
       <c r="A86" s="15"/>
       <c r="B86" s="6"/>
       <c r="C86" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="87" ht="15" spans="1:3">
       <c r="A87" s="15"/>
       <c r="B87" s="6"/>
       <c r="C87" s="4" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="88" ht="15" spans="1:3">
       <c r="A88" s="15"/>
       <c r="B88" s="6"/>
       <c r="C88" s="4" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="89" ht="15" spans="1:3">
       <c r="A89" s="15"/>
       <c r="B89" s="6"/>
       <c r="C89" s="4" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="90" ht="15" spans="1:3">
       <c r="A90" s="15"/>
       <c r="B90" s="6"/>
       <c r="C90" s="4" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="91" ht="15" spans="1:3">
       <c r="A91" s="15"/>
       <c r="B91" s="6"/>
       <c r="C91" s="4" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="92" ht="18.75" spans="1:3">
@@ -7816,62 +7840,62 @@
     </row>
     <row r="93" ht="15" spans="1:3">
       <c r="A93" s="15" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" ht="15" spans="1:3">
       <c r="A94" s="15"/>
       <c r="B94" s="6"/>
       <c r="C94" s="4" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="95" ht="15" spans="1:3">
       <c r="A95" s="15"/>
       <c r="B95" s="6"/>
       <c r="C95" s="4" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="96" ht="15" spans="1:3">
       <c r="A96" s="15"/>
       <c r="B96" s="6"/>
       <c r="C96" s="4" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="97" ht="15" spans="1:3">
       <c r="A97" s="15"/>
       <c r="B97" s="6"/>
       <c r="C97" s="4" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="98" ht="15" spans="1:3">
       <c r="A98" s="15"/>
       <c r="B98" s="6"/>
       <c r="C98" s="4" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="99" ht="15" spans="1:3">
       <c r="A99" s="15"/>
       <c r="B99" s="6"/>
       <c r="C99" s="4" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="100" ht="15" spans="1:3">
       <c r="A100" s="15"/>
       <c r="B100" s="6"/>
       <c r="C100" s="4" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="101" ht="18.75" spans="1:3">
@@ -7880,69 +7904,69 @@
     </row>
     <row r="102" ht="15" spans="1:3">
       <c r="A102" s="15" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103" ht="15" spans="1:3">
       <c r="A103" s="15"/>
       <c r="B103" s="3"/>
       <c r="C103" s="4" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="104" ht="15" spans="1:3">
       <c r="A104" s="15"/>
       <c r="B104" s="3"/>
       <c r="C104" s="4" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="105" ht="15" spans="1:3">
       <c r="A105" s="15"/>
       <c r="B105" s="3"/>
       <c r="C105" s="4" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="106" ht="15" spans="1:3">
       <c r="A106" s="15"/>
       <c r="B106" s="3"/>
       <c r="C106" s="4" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="107" ht="15" spans="1:3">
       <c r="A107" s="15"/>
       <c r="B107" s="3"/>
       <c r="C107" s="4" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="108" ht="15" spans="1:3">
       <c r="A108" s="15"/>
       <c r="B108" s="3"/>
       <c r="C108" s="4" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="109" ht="15" spans="1:3">
       <c r="A109" s="15"/>
       <c r="B109" s="3"/>
       <c r="C109" s="4" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="110" ht="15" spans="1:3">
       <c r="A110" s="15"/>
       <c r="B110" s="3"/>
       <c r="C110" s="4" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="111" ht="18.75" spans="1:3">
@@ -7953,17 +7977,17 @@
     <row r="112" ht="15" spans="1:3">
       <c r="A112" s="15"/>
       <c r="B112" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="113" ht="15" spans="1:3">
       <c r="A113" s="15"/>
       <c r="B113" s="9"/>
       <c r="C113" s="4" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="114" customFormat="1" ht="9" customHeight="1" spans="1:3">
@@ -7973,111 +7997,111 @@
     </row>
     <row r="115" ht="24.75" spans="1:3">
       <c r="A115" s="2" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
     </row>
     <row r="116" ht="15" spans="1:3">
       <c r="A116" s="15" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="117" ht="15" spans="1:3">
       <c r="A117" s="19"/>
       <c r="B117" s="6"/>
       <c r="C117" s="4" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="118" ht="15" spans="1:3">
       <c r="A118" s="19"/>
       <c r="B118" s="6"/>
       <c r="C118" s="4" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="119" ht="15" spans="1:3">
       <c r="A119" s="19"/>
       <c r="B119" s="6"/>
       <c r="C119" s="4" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="120" ht="15" spans="1:3">
       <c r="A120" s="19"/>
       <c r="B120" s="6"/>
       <c r="C120" s="4" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="121" ht="15" spans="1:3">
       <c r="A121" s="19"/>
       <c r="B121" s="6"/>
       <c r="C121" s="4" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="122" ht="15" spans="1:3">
       <c r="A122" s="19"/>
       <c r="B122" s="6"/>
       <c r="C122" s="4" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="123" ht="15" spans="1:3">
       <c r="A123" s="19"/>
       <c r="B123" s="6"/>
       <c r="C123" s="4" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="124" ht="15" spans="1:3">
       <c r="A124" s="19"/>
       <c r="B124" s="6"/>
       <c r="C124" s="4" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1" spans="1:3">
       <c r="A125" s="19"/>
       <c r="B125" s="6"/>
       <c r="C125" s="4" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1" spans="1:3">
       <c r="A126" s="19"/>
       <c r="B126" s="6"/>
       <c r="C126" s="4" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1" spans="1:3">
       <c r="A127" s="19"/>
       <c r="B127" s="6"/>
       <c r="C127" s="4" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="128" ht="15" spans="1:3">
       <c r="A128" s="19"/>
       <c r="B128" s="6"/>
       <c r="C128" s="4" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="129" ht="15" spans="1:3">
       <c r="A129" s="19"/>
       <c r="B129" s="6"/>
       <c r="C129" s="4" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="130" ht="18.75" spans="1:3">
@@ -8087,55 +8111,55 @@
     </row>
     <row r="131" ht="15" spans="1:3">
       <c r="A131" s="15" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="132" ht="15" spans="1:3">
       <c r="A132" s="15"/>
       <c r="B132" s="6"/>
       <c r="C132" s="4" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="133" ht="15" spans="1:3">
       <c r="A133" s="15"/>
       <c r="B133" s="6"/>
       <c r="C133" s="4" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="134" ht="15" spans="1:3">
       <c r="A134" s="15"/>
       <c r="B134" s="6"/>
       <c r="C134" s="4" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="135" ht="15" spans="1:3">
       <c r="A135" s="15"/>
       <c r="B135" s="6"/>
       <c r="C135" s="4" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="136" ht="15" spans="1:3">
       <c r="A136" s="15"/>
       <c r="B136" s="6"/>
       <c r="C136" s="4" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="137" ht="15" spans="1:3">
       <c r="A137" s="15"/>
       <c r="B137" s="6"/>
       <c r="C137" s="4" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="138" ht="18.75" spans="1:3">
@@ -8145,34 +8169,34 @@
     </row>
     <row r="139" ht="15" spans="1:3">
       <c r="A139" s="15" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="140" ht="15" spans="1:3">
       <c r="A140" s="15"/>
       <c r="B140" s="6"/>
       <c r="C140" s="4" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="141" ht="15" spans="1:3">
       <c r="A141" s="15"/>
       <c r="B141" s="6"/>
       <c r="C141" s="4" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="142" ht="15" spans="1:3">
       <c r="A142" s="15"/>
       <c r="B142" s="6"/>
       <c r="C142" s="4" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="143" ht="18" spans="1:3">
@@ -8183,59 +8207,59 @@
     <row r="144" ht="15" spans="1:3">
       <c r="A144" s="15"/>
       <c r="B144" s="6" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="145" ht="15" spans="1:3">
       <c r="A145" s="15"/>
       <c r="B145" s="6"/>
       <c r="C145" s="4" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="146" ht="15" spans="1:3">
       <c r="A146" s="15"/>
       <c r="B146" s="6"/>
       <c r="C146" s="4" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="147" ht="15" spans="1:3">
       <c r="A147" s="15"/>
       <c r="B147" s="6"/>
       <c r="C147" s="4" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="148" ht="15" spans="1:3">
       <c r="A148" s="15"/>
       <c r="B148" s="6"/>
       <c r="C148" s="4" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="149" ht="15" spans="1:3">
       <c r="A149" s="15"/>
       <c r="B149" s="6"/>
       <c r="C149" s="4" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="150" ht="15" spans="1:3">
       <c r="A150" s="15"/>
       <c r="B150" s="6"/>
       <c r="C150" s="4" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="151" ht="15" spans="1:3">
       <c r="A151" s="15"/>
       <c r="B151" s="6"/>
       <c r="C151" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="152" ht="15" spans="2:3">
@@ -8244,69 +8268,69 @@
     </row>
     <row r="153" ht="15" spans="1:3">
       <c r="A153" s="15" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="154" ht="15" spans="1:3">
       <c r="A154" s="15"/>
       <c r="B154" s="6"/>
       <c r="C154" s="4" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="155" ht="15" spans="1:3">
       <c r="A155" s="15"/>
       <c r="B155" s="6"/>
       <c r="C155" s="4" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="156" ht="15" spans="1:3">
       <c r="A156" s="15"/>
       <c r="B156" s="6"/>
       <c r="C156" s="4" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="157" ht="15" spans="1:3">
       <c r="A157" s="15"/>
       <c r="B157" s="6"/>
       <c r="C157" s="4" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="158" ht="15" spans="1:3">
       <c r="A158" s="15"/>
       <c r="B158" s="6"/>
       <c r="C158" s="4" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="159" ht="15" spans="1:3">
       <c r="A159" s="15"/>
       <c r="B159" s="6"/>
       <c r="C159" s="4" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="160" ht="15" spans="1:3">
       <c r="A160" s="15"/>
       <c r="B160" s="6"/>
       <c r="C160" s="4" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="161" ht="15" spans="1:3">
       <c r="A161" s="15"/>
       <c r="B161" s="6"/>
       <c r="C161" s="4" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="162" ht="18.75" spans="1:3">
@@ -8317,17 +8341,17 @@
     <row r="163" ht="15" spans="1:3">
       <c r="A163" s="15"/>
       <c r="B163" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="164" ht="15" spans="1:3">
       <c r="A164" s="15"/>
       <c r="B164" s="9"/>
       <c r="C164" s="4" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="165" ht="13" customHeight="1" spans="1:3">
@@ -8337,69 +8361,69 @@
     </row>
     <row r="166" ht="24.75" spans="1:3">
       <c r="A166" s="2" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
     </row>
     <row r="167" ht="15" spans="1:3">
       <c r="A167" s="15" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="168" ht="15" spans="1:3">
       <c r="A168" s="15"/>
       <c r="B168" s="6"/>
       <c r="C168" s="4" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="169" ht="15" spans="1:3">
       <c r="A169" s="15"/>
       <c r="B169" s="6"/>
       <c r="C169" s="4" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="170" ht="15" spans="1:3">
       <c r="A170" s="15"/>
       <c r="B170" s="6"/>
       <c r="C170" s="4" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="171" ht="15" spans="1:3">
       <c r="A171" s="15"/>
       <c r="B171" s="6"/>
       <c r="C171" s="4" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="172" ht="15" spans="1:3">
       <c r="A172" s="15"/>
       <c r="B172" s="6"/>
       <c r="C172" s="4" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="173" ht="15" spans="1:3">
       <c r="A173" s="15"/>
       <c r="B173" s="6"/>
       <c r="C173" s="4" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="174" ht="15" spans="1:3">
       <c r="A174" s="15"/>
       <c r="B174" s="6"/>
       <c r="C174" s="4" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -8409,101 +8433,101 @@
     <row r="176" ht="23" customHeight="1" spans="1:3">
       <c r="A176" s="15"/>
       <c r="B176" s="6" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="177" ht="15" spans="1:3">
       <c r="A177" s="15"/>
       <c r="B177" s="6"/>
       <c r="C177" s="4" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="178" ht="15" spans="1:3">
       <c r="A178" s="15"/>
       <c r="B178" s="6"/>
       <c r="C178" s="4" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="179" ht="15" spans="1:3">
       <c r="A179" s="15"/>
       <c r="B179" s="6"/>
       <c r="C179" s="4" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="180" ht="15" spans="1:3">
       <c r="A180" s="15"/>
       <c r="B180" s="6"/>
       <c r="C180" s="4" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="181" ht="15" spans="1:3">
       <c r="A181" s="15"/>
       <c r="B181" s="6"/>
       <c r="C181" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="182" ht="15" spans="1:3">
       <c r="A182" s="15"/>
       <c r="B182" s="6"/>
       <c r="C182" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="183" ht="15" spans="1:3">
       <c r="A183" s="15"/>
       <c r="B183" s="6"/>
       <c r="C183" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="184" ht="15" spans="1:3">
       <c r="A184" s="15"/>
       <c r="B184" s="6"/>
       <c r="C184" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="185" ht="15" spans="1:3">
       <c r="A185" s="15"/>
       <c r="B185" s="6"/>
       <c r="C185" s="4" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="186" ht="15" spans="1:3">
       <c r="A186" s="15"/>
       <c r="B186" s="6"/>
       <c r="C186" s="4" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="187" ht="15" spans="1:3">
       <c r="A187" s="15"/>
       <c r="B187" s="6"/>
       <c r="C187" s="4" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="188" ht="15" spans="1:3">
       <c r="A188" s="15"/>
       <c r="B188" s="6"/>
       <c r="C188" s="4" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="189" ht="15" spans="1:3">
       <c r="A189" s="15"/>
       <c r="B189" s="6"/>
       <c r="C189" s="4" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="190" ht="15" spans="3:3">
@@ -8511,55 +8535,55 @@
     </row>
     <row r="191" ht="15" spans="1:3">
       <c r="A191" s="15" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="192" ht="15" spans="1:3">
       <c r="A192" s="15"/>
       <c r="B192" s="6"/>
       <c r="C192" s="4" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="193" ht="15" spans="1:3">
       <c r="A193" s="15"/>
       <c r="B193" s="6"/>
       <c r="C193" s="4" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="194" ht="15" spans="1:3">
       <c r="A194" s="15"/>
       <c r="B194" s="6"/>
       <c r="C194" s="4" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="195" ht="15" spans="1:3">
       <c r="A195" s="15"/>
       <c r="B195" s="6"/>
       <c r="C195" s="4" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="196" ht="15" spans="1:3">
       <c r="A196" s="15"/>
       <c r="B196" s="6"/>
       <c r="C196" s="4" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="197" ht="15" spans="1:3">
       <c r="A197" s="15"/>
       <c r="B197" s="6"/>
       <c r="C197" s="4" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="198" ht="15" spans="3:3">
@@ -8567,83 +8591,83 @@
     </row>
     <row r="199" ht="15" spans="1:3">
       <c r="A199" s="15" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="200" ht="15" spans="1:3">
       <c r="A200" s="15"/>
       <c r="B200" s="6"/>
       <c r="C200" s="4" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="201" ht="15" spans="1:3">
       <c r="A201" s="15"/>
       <c r="B201" s="6"/>
       <c r="C201" s="4" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="202" ht="15" spans="1:3">
       <c r="A202" s="15"/>
       <c r="B202" s="6"/>
       <c r="C202" s="4" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="203" ht="15" spans="1:3">
       <c r="A203" s="15"/>
       <c r="B203" s="6"/>
       <c r="C203" s="4" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="204" ht="15" spans="1:3">
       <c r="A204" s="15"/>
       <c r="B204" s="6"/>
       <c r="C204" s="4" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="205" ht="15" spans="1:3">
       <c r="A205" s="15"/>
       <c r="B205" s="6"/>
       <c r="C205" s="4" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="206" ht="15" spans="1:3">
       <c r="A206" s="15"/>
       <c r="B206" s="6"/>
       <c r="C206" s="4" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="207" ht="15" spans="1:3">
       <c r="A207" s="15"/>
       <c r="B207" s="6"/>
       <c r="C207" s="4" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="208" ht="15" spans="1:3">
       <c r="A208" s="15"/>
       <c r="B208" s="6"/>
       <c r="C208" s="4" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="209" ht="15" spans="1:3">
       <c r="A209" s="15"/>
       <c r="B209" s="6"/>
       <c r="C209" s="4" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="210" ht="15" spans="3:3">
@@ -8652,17 +8676,17 @@
     <row r="211" ht="15" spans="1:3">
       <c r="A211" s="15"/>
       <c r="B211" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="212" ht="15" spans="1:3">
       <c r="A212" s="15"/>
       <c r="B212" s="9"/>
       <c r="C212" s="4" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="213" ht="11" customHeight="1" spans="1:3">
@@ -8672,7 +8696,7 @@
     </row>
     <row r="218" ht="18.75" spans="1:2">
       <c r="A218" s="22" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B218" s="14">
         <v>4</v>
@@ -8680,7 +8704,7 @@
     </row>
     <row r="219" ht="18.75" spans="1:2">
       <c r="A219" s="22" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B219" s="14">
         <v>32</v>
@@ -8778,7 +8802,7 @@
     </row>
     <row r="2" ht="24.75" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -8786,10 +8810,10 @@
     <row r="3" ht="24.75" spans="1:3">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" ht="24.75" spans="1:3">
@@ -8799,69 +8823,69 @@
     </row>
     <row r="5" ht="15" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:3">
       <c r="A6" s="7"/>
       <c r="B6" s="6"/>
       <c r="C6" s="4" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
       <c r="A7" s="7"/>
       <c r="B7" s="6"/>
       <c r="C7" s="4" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
       <c r="A8" s="7"/>
       <c r="B8" s="6"/>
       <c r="C8" s="4" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
       <c r="A9" s="7"/>
       <c r="B9" s="6"/>
       <c r="C9" s="4" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
       <c r="A10" s="7"/>
       <c r="B10" s="6"/>
       <c r="C10" s="4" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:3">
       <c r="A11" s="7"/>
       <c r="B11" s="6"/>
       <c r="C11" s="4" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
       <c r="A12" s="7"/>
       <c r="B12" s="6"/>
       <c r="C12" s="4" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
       <c r="A13" s="7"/>
       <c r="B13" s="6"/>
       <c r="C13" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -8870,73 +8894,73 @@
     <row r="15" ht="15" spans="1:3">
       <c r="A15" s="7"/>
       <c r="B15" s="6" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:3">
       <c r="A16" s="7"/>
       <c r="B16" s="6"/>
       <c r="C16" s="4" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
       <c r="A17" s="7"/>
       <c r="B17" s="6"/>
       <c r="C17" s="4" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
       <c r="A18" s="7"/>
       <c r="B18" s="6"/>
       <c r="C18" s="4" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:3">
       <c r="A19" s="7"/>
       <c r="B19" s="6"/>
       <c r="C19" s="4" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:3">
       <c r="A20" s="7"/>
       <c r="B20" s="6"/>
       <c r="C20" s="4" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
       <c r="A21" s="7"/>
       <c r="B21" s="6"/>
       <c r="C21" s="4" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
       <c r="A22" s="7"/>
       <c r="B22" s="6"/>
       <c r="C22" s="4" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:3">
       <c r="A23" s="7"/>
       <c r="B23" s="6"/>
       <c r="C23" s="4" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:3">
       <c r="A24" s="7"/>
       <c r="B24" s="6"/>
       <c r="C24" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" ht="15.75" spans="1:3">
@@ -8947,73 +8971,73 @@
     <row r="26" ht="15" spans="1:3">
       <c r="A26" s="7"/>
       <c r="B26" s="6" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:3">
       <c r="A27" s="7"/>
       <c r="B27" s="6"/>
       <c r="C27" s="4" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:3">
       <c r="A28" s="7"/>
       <c r="B28" s="6"/>
       <c r="C28" s="4" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:3">
       <c r="A29" s="7"/>
       <c r="B29" s="6"/>
       <c r="C29" s="4" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:3">
       <c r="A30" s="7"/>
       <c r="B30" s="6"/>
       <c r="C30" s="4" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:3">
       <c r="A31" s="7"/>
       <c r="B31" s="6"/>
       <c r="C31" s="4" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:3">
       <c r="A32" s="7"/>
       <c r="B32" s="6"/>
       <c r="C32" s="4" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:3">
       <c r="A33" s="7"/>
       <c r="B33" s="6"/>
       <c r="C33" s="4" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:3">
       <c r="A34" s="7"/>
       <c r="B34" s="6"/>
       <c r="C34" s="4" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:3">
       <c r="A35" s="7"/>
       <c r="B35" s="6"/>
       <c r="C35" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" ht="15.75" spans="1:3">
@@ -9024,73 +9048,73 @@
     <row r="37" ht="15" spans="1:3">
       <c r="A37" s="7"/>
       <c r="B37" s="6" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" ht="15" spans="1:3">
       <c r="A38" s="7"/>
       <c r="B38" s="6"/>
       <c r="C38" s="4" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:3">
       <c r="A39" s="7"/>
       <c r="B39" s="6"/>
       <c r="C39" s="4" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:3">
       <c r="A40" s="7"/>
       <c r="B40" s="6"/>
       <c r="C40" s="4" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="41" ht="15" spans="1:3">
       <c r="A41" s="7"/>
       <c r="B41" s="6"/>
       <c r="C41" s="4" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:3">
       <c r="A42" s="7"/>
       <c r="B42" s="6"/>
       <c r="C42" s="4" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:3">
       <c r="A43" s="7"/>
       <c r="B43" s="6"/>
       <c r="C43" s="4" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:3">
       <c r="A44" s="7"/>
       <c r="B44" s="6"/>
       <c r="C44" s="4" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:3">
       <c r="A45" s="7"/>
       <c r="B45" s="6"/>
       <c r="C45" s="4" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:3">
       <c r="A46" s="7"/>
       <c r="B46" s="6"/>
       <c r="C46" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" ht="15.75" spans="1:3">
@@ -9101,17 +9125,17 @@
     <row r="48" ht="15" spans="1:3">
       <c r="A48" s="7"/>
       <c r="B48" s="9" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="49" ht="30" spans="1:3">
       <c r="A49" s="7"/>
       <c r="B49" s="9"/>
       <c r="C49" s="11" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="50" customFormat="1" ht="9" customHeight="1" spans="1:3">
@@ -9121,7 +9145,7 @@
     </row>
     <row r="55" ht="18.75" spans="1:2">
       <c r="A55" s="13" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B55" s="14">
         <v>1</v>
@@ -9129,7 +9153,7 @@
     </row>
     <row r="56" ht="18.75" spans="1:2">
       <c r="A56" s="13" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B56" s="14">
         <v>8</v>

--- a/Java Apps @ DXC - Track 2 - TOC.xlsx
+++ b/Java Apps @ DXC - Track 2 - TOC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7815" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="7" r:id="rId1"/>
@@ -2108,10 +2108,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -2266,13 +2266,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -2280,7 +2273,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2291,6 +2299,14 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2311,25 +2327,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2364,6 +2365,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -2380,22 +2388,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2455,6 +2455,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2473,7 +2509,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2485,31 +2521,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2527,7 +2539,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2539,37 +2605,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2581,13 +2623,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2599,43 +2635,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2732,8 +2732,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2753,15 +2753,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2773,6 +2764,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2812,165 +2818,159 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3614,7 +3614,7 @@
   <sheetPr/>
   <dimension ref="A1:D331"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D139" sqref="D139"/>
@@ -6001,10 +6001,10 @@
   <sheetPr/>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D107" sqref="D107"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="3"/>

--- a/Java Apps @ DXC - Track 2 - TOC.xlsx
+++ b/Java Apps @ DXC - Track 2 - TOC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7815" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="7" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="656">
   <si>
     <t>Track 2</t>
   </si>
@@ -582,6 +582,9 @@
   </si>
   <si>
     <t>Day 14</t>
+  </si>
+  <si>
+    <t>Weekly MCQs 4</t>
   </si>
   <si>
     <t>RESTful Web Services with Spring Data JPA and  Hibernate                             Externalized Configurations</t>
@@ -1998,7 +2001,7 @@
     <t xml:space="preserve">4. Spring Boot Prerequisites  </t>
   </si>
   <si>
-    <t xml:space="preserve">5. Demo: Creating a Spring Boot App </t>
+    <t>5. Demo: Creating a Spring Boot App</t>
   </si>
   <si>
     <t>6. Demo: Adding a Basic Model</t>
@@ -2108,10 +2111,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -2194,6 +2197,13 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color rgb="FF738F93"/>
       <name val="Arial"/>
@@ -2209,13 +2219,6 @@
       <sz val="14"/>
       <color rgb="FF797979"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Verdana"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2265,8 +2268,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2279,24 +2290,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2318,6 +2313,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -2327,10 +2329,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2351,7 +2353,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2366,7 +2368,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2374,14 +2376,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2394,16 +2404,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2455,19 +2458,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2479,13 +2470,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2503,25 +2500,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2533,7 +2530,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2545,37 +2560,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2593,13 +2584,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2611,31 +2638,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2729,11 +2732,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2753,6 +2762,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2764,6 +2782,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2783,26 +2810,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2817,19 +2829,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2847,130 +2850,130 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3010,16 +3013,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3032,17 +3038,17 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3050,9 +3056,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3112,7 +3115,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3615,9 +3618,9 @@
   <dimension ref="A1:D331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D139" sqref="D139"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="3"/>
@@ -3648,7 +3651,7 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="15" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3742,7 +3745,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="31"/>
-      <c r="C15" s="20"/>
+      <c r="C15" s="21"/>
     </row>
     <row r="16" ht="15" spans="1:3">
       <c r="A16" s="31"/>
@@ -3839,7 +3842,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="31"/>
-      <c r="C29" s="20"/>
+      <c r="C29" s="21"/>
     </row>
     <row r="30" ht="15" spans="1:3">
       <c r="A30" s="31"/>
@@ -4159,12 +4162,12 @@
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
-      <c r="D75" s="30" t="s">
+      <c r="D75" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="76" ht="15.75" spans="1:3">
-      <c r="A76" s="15" t="s">
+      <c r="A76" s="16" t="s">
         <v>89</v>
       </c>
       <c r="B76" s="3" t="s">
@@ -4175,12 +4178,12 @@
       </c>
     </row>
     <row r="77" ht="15.75" spans="1:3">
-      <c r="A77" s="15"/>
+      <c r="A77" s="16"/>
       <c r="B77" s="3"/>
       <c r="C77" s="4"/>
     </row>
     <row r="78" ht="15" spans="1:3">
-      <c r="A78" s="15"/>
+      <c r="A78" s="16"/>
       <c r="B78" s="6" t="s">
         <v>90</v>
       </c>
@@ -4189,40 +4192,40 @@
       </c>
     </row>
     <row r="79" ht="15" spans="1:3">
-      <c r="A79" s="15"/>
+      <c r="A79" s="16"/>
       <c r="B79" s="6"/>
       <c r="C79" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="80" ht="15" spans="1:3">
-      <c r="A80" s="15"/>
+      <c r="A80" s="16"/>
       <c r="B80" s="6"/>
       <c r="C80" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="81" ht="15" spans="1:3">
-      <c r="A81" s="15"/>
+      <c r="A81" s="16"/>
       <c r="B81" s="6"/>
       <c r="C81" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="82" ht="15" spans="1:3">
-      <c r="A82" s="15"/>
+      <c r="A82" s="16"/>
       <c r="B82" s="6"/>
       <c r="C82" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="83" ht="15.75" spans="1:3">
-      <c r="A83" s="15"/>
+      <c r="A83" s="16"/>
       <c r="B83" s="6"/>
       <c r="C83" s="4"/>
     </row>
     <row r="84" ht="15" spans="1:3">
-      <c r="A84" s="15"/>
+      <c r="A84" s="16"/>
       <c r="B84" s="6" t="s">
         <v>96</v>
       </c>
@@ -4231,61 +4234,61 @@
       </c>
     </row>
     <row r="85" ht="15" spans="1:3">
-      <c r="A85" s="15"/>
+      <c r="A85" s="16"/>
       <c r="B85" s="6"/>
       <c r="C85" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="86" ht="15" spans="1:3">
-      <c r="A86" s="15"/>
+      <c r="A86" s="16"/>
       <c r="B86" s="6"/>
       <c r="C86" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="87" ht="15" spans="1:3">
-      <c r="A87" s="15"/>
+      <c r="A87" s="16"/>
       <c r="B87" s="6"/>
       <c r="C87" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="88" ht="15" spans="1:3">
-      <c r="A88" s="15"/>
+      <c r="A88" s="16"/>
       <c r="B88" s="6"/>
       <c r="C88" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="89" ht="15" spans="1:3">
-      <c r="A89" s="15"/>
+      <c r="A89" s="16"/>
       <c r="B89" s="6"/>
       <c r="C89" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="90" ht="15" spans="1:3">
-      <c r="A90" s="15"/>
+      <c r="A90" s="16"/>
       <c r="B90" s="6"/>
       <c r="C90" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="91" ht="15" spans="1:3">
-      <c r="A91" s="15"/>
+      <c r="A91" s="16"/>
       <c r="B91" s="6"/>
       <c r="C91" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="92" ht="18.75" spans="1:3">
-      <c r="A92" s="15"/>
+      <c r="A92" s="16"/>
       <c r="B92" s="6"/>
       <c r="C92" s="35"/>
     </row>
     <row r="93" ht="15" spans="1:3">
-      <c r="A93" s="15"/>
+      <c r="A93" s="16"/>
       <c r="B93" s="6" t="s">
         <v>104</v>
       </c>
@@ -4294,54 +4297,54 @@
       </c>
     </row>
     <row r="94" ht="15" spans="1:3">
-      <c r="A94" s="15"/>
+      <c r="A94" s="16"/>
       <c r="B94" s="6"/>
       <c r="C94" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="95" ht="15" spans="1:3">
-      <c r="A95" s="15"/>
+      <c r="A95" s="16"/>
       <c r="B95" s="6"/>
       <c r="C95" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="96" ht="15" spans="1:3">
-      <c r="A96" s="15"/>
+      <c r="A96" s="16"/>
       <c r="B96" s="6"/>
       <c r="C96" s="4" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="97" ht="15" spans="1:3">
-      <c r="A97" s="15"/>
+      <c r="A97" s="16"/>
       <c r="B97" s="6"/>
       <c r="C97" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="98" ht="15" spans="1:3">
-      <c r="A98" s="15"/>
+      <c r="A98" s="16"/>
       <c r="B98" s="6"/>
       <c r="C98" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="99" ht="15" spans="1:3">
-      <c r="A99" s="15"/>
+      <c r="A99" s="16"/>
       <c r="B99" s="6"/>
       <c r="C99" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="100" ht="15.75" spans="1:3">
-      <c r="A100" s="15"/>
+      <c r="A100" s="16"/>
       <c r="B100" s="8"/>
       <c r="C100" s="4"/>
     </row>
     <row r="101" ht="15" spans="1:3">
-      <c r="A101" s="15"/>
+      <c r="A101" s="16"/>
       <c r="B101" s="6" t="s">
         <v>111</v>
       </c>
@@ -4350,47 +4353,47 @@
       </c>
     </row>
     <row r="102" ht="15" spans="1:3">
-      <c r="A102" s="15"/>
+      <c r="A102" s="16"/>
       <c r="B102" s="6"/>
       <c r="C102" s="4" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="103" ht="15" spans="1:3">
-      <c r="A103" s="15"/>
+      <c r="A103" s="16"/>
       <c r="B103" s="6"/>
       <c r="C103" s="4" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="104" ht="15" spans="1:3">
-      <c r="A104" s="15"/>
+      <c r="A104" s="16"/>
       <c r="B104" s="6"/>
       <c r="C104" s="4" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="105" ht="15" spans="1:3">
-      <c r="A105" s="15"/>
+      <c r="A105" s="16"/>
       <c r="B105" s="6"/>
       <c r="C105" s="4" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="106" ht="15" spans="1:3">
-      <c r="A106" s="15"/>
+      <c r="A106" s="16"/>
       <c r="B106" s="6"/>
       <c r="C106" s="4" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="107" ht="15" spans="1:3">
-      <c r="A107" s="15"/>
+      <c r="A107" s="16"/>
       <c r="B107" s="36"/>
-      <c r="C107" s="20"/>
+      <c r="C107" s="21"/>
     </row>
     <row r="108" ht="15" spans="1:3">
-      <c r="A108" s="15"/>
+      <c r="A108" s="16"/>
       <c r="B108" s="6" t="s">
         <v>117</v>
       </c>
@@ -4399,61 +4402,61 @@
       </c>
     </row>
     <row r="109" ht="15" spans="1:3">
-      <c r="A109" s="15"/>
+      <c r="A109" s="16"/>
       <c r="B109" s="6"/>
       <c r="C109" s="4" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="110" ht="15" spans="1:3">
-      <c r="A110" s="15"/>
+      <c r="A110" s="16"/>
       <c r="B110" s="6"/>
       <c r="C110" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="111" ht="15" spans="1:3">
-      <c r="A111" s="15"/>
+      <c r="A111" s="16"/>
       <c r="B111" s="6"/>
       <c r="C111" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="112" ht="15" spans="1:3">
-      <c r="A112" s="15"/>
+      <c r="A112" s="16"/>
       <c r="B112" s="6"/>
       <c r="C112" s="4" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="113" ht="15" spans="1:3">
-      <c r="A113" s="15"/>
+      <c r="A113" s="16"/>
       <c r="B113" s="6"/>
       <c r="C113" s="4" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="114" ht="15" spans="1:3">
-      <c r="A114" s="15"/>
+      <c r="A114" s="16"/>
       <c r="B114" s="6"/>
       <c r="C114" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="115" ht="15" spans="1:3">
-      <c r="A115" s="15"/>
+      <c r="A115" s="16"/>
       <c r="B115" s="6"/>
       <c r="C115" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="116" ht="15" spans="1:3">
-      <c r="A116" s="15"/>
+      <c r="A116" s="16"/>
       <c r="B116" s="36"/>
-      <c r="C116" s="20"/>
+      <c r="C116" s="21"/>
     </row>
     <row r="117" ht="15" spans="1:3">
-      <c r="A117" s="15"/>
+      <c r="A117" s="16"/>
       <c r="B117" s="6" t="s">
         <v>124</v>
       </c>
@@ -4462,33 +4465,33 @@
       </c>
     </row>
     <row r="118" ht="15" spans="1:3">
-      <c r="A118" s="15"/>
+      <c r="A118" s="16"/>
       <c r="B118" s="6"/>
       <c r="C118" s="4" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="119" ht="15" spans="1:3">
-      <c r="A119" s="15"/>
+      <c r="A119" s="16"/>
       <c r="B119" s="6"/>
       <c r="C119" s="4" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="120" ht="15" spans="1:3">
-      <c r="A120" s="15"/>
+      <c r="A120" s="16"/>
       <c r="B120" s="6"/>
       <c r="C120" s="4" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="121" ht="15" spans="1:3">
-      <c r="A121" s="15"/>
+      <c r="A121" s="16"/>
       <c r="B121" s="36"/>
-      <c r="C121" s="20"/>
+      <c r="C121" s="21"/>
     </row>
     <row r="122" ht="15" spans="1:3">
-      <c r="A122" s="15"/>
+      <c r="A122" s="16"/>
       <c r="B122" s="6" t="s">
         <v>128</v>
       </c>
@@ -4497,40 +4500,40 @@
       </c>
     </row>
     <row r="123" ht="15" spans="1:3">
-      <c r="A123" s="15"/>
+      <c r="A123" s="16"/>
       <c r="B123" s="6"/>
       <c r="C123" s="4" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="124" ht="15" spans="1:3">
-      <c r="A124" s="15"/>
+      <c r="A124" s="16"/>
       <c r="B124" s="6"/>
       <c r="C124" s="4" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="125" ht="15" spans="1:3">
-      <c r="A125" s="15"/>
+      <c r="A125" s="16"/>
       <c r="B125" s="6"/>
       <c r="C125" s="4" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="126" ht="15" spans="1:3">
-      <c r="A126" s="15"/>
+      <c r="A126" s="16"/>
       <c r="B126" s="6"/>
       <c r="C126" s="4" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="127" ht="12" customHeight="1" spans="1:3">
-      <c r="A127" s="15"/>
-      <c r="B127" s="20"/>
-      <c r="C127" s="20"/>
+      <c r="A127" s="16"/>
+      <c r="B127" s="21"/>
+      <c r="C127" s="21"/>
     </row>
     <row r="128" ht="33" customHeight="1" spans="1:3">
-      <c r="A128" s="15"/>
+      <c r="A128" s="16"/>
       <c r="B128" s="6" t="s">
         <v>134</v>
       </c>
@@ -4539,47 +4542,47 @@
       </c>
     </row>
     <row r="129" ht="33" customHeight="1" spans="1:3">
-      <c r="A129" s="15"/>
+      <c r="A129" s="16"/>
       <c r="B129" s="6"/>
       <c r="C129" s="4" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="130" ht="33" customHeight="1" spans="1:3">
-      <c r="A130" s="15"/>
+      <c r="A130" s="16"/>
       <c r="B130" s="6"/>
       <c r="C130" s="4" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="131" ht="33" customHeight="1" spans="1:3">
-      <c r="A131" s="15"/>
+      <c r="A131" s="16"/>
       <c r="B131" s="6"/>
       <c r="C131" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="132" ht="33" customHeight="1" spans="1:3">
-      <c r="A132" s="15"/>
+      <c r="A132" s="16"/>
       <c r="B132" s="6"/>
       <c r="C132" s="4" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="133" ht="33" customHeight="1" spans="1:3">
-      <c r="A133" s="15"/>
+      <c r="A133" s="16"/>
       <c r="B133" s="6"/>
       <c r="C133" s="4" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="134" ht="12" customHeight="1" spans="1:3">
-      <c r="A134" s="15"/>
+      <c r="A134" s="16"/>
       <c r="B134" s="6"/>
       <c r="C134" s="4"/>
     </row>
     <row r="135" ht="15" spans="1:3">
-      <c r="A135" s="15"/>
+      <c r="A135" s="16"/>
       <c r="B135" s="9" t="s">
         <v>82</v>
       </c>
@@ -4588,14 +4591,14 @@
       </c>
     </row>
     <row r="136" ht="15" spans="1:3">
-      <c r="A136" s="15"/>
+      <c r="A136" s="16"/>
       <c r="B136" s="9"/>
       <c r="C136" s="11" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="137" ht="15" spans="1:3">
-      <c r="A137" s="15"/>
+      <c r="A137" s="16"/>
       <c r="B137" s="9"/>
       <c r="C137" s="4" t="s">
         <v>141</v>
@@ -4613,12 +4616,12 @@
       </c>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
-      <c r="D139" s="30" t="s">
+      <c r="D139" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="140" ht="15.75" spans="1:3">
-      <c r="A140" s="15" t="s">
+      <c r="A140" s="16" t="s">
         <v>143</v>
       </c>
       <c r="B140" s="3" t="s">
@@ -4629,12 +4632,12 @@
       </c>
     </row>
     <row r="141" ht="15.75" spans="1:3">
-      <c r="A141" s="15"/>
+      <c r="A141" s="16"/>
       <c r="B141" s="3"/>
       <c r="C141" s="4"/>
     </row>
     <row r="142" ht="15" spans="1:3">
-      <c r="A142" s="15"/>
+      <c r="A142" s="16"/>
       <c r="B142" s="6" t="s">
         <v>144</v>
       </c>
@@ -4643,47 +4646,47 @@
       </c>
     </row>
     <row r="143" ht="15" spans="1:3">
-      <c r="A143" s="15"/>
+      <c r="A143" s="16"/>
       <c r="B143" s="6"/>
       <c r="C143" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="144" ht="15" spans="1:3">
-      <c r="A144" s="15"/>
+      <c r="A144" s="16"/>
       <c r="B144" s="6"/>
       <c r="C144" s="4" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="145" ht="15" spans="1:3">
-      <c r="A145" s="15"/>
+      <c r="A145" s="16"/>
       <c r="B145" s="6"/>
       <c r="C145" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="146" ht="15" spans="1:3">
-      <c r="A146" s="15"/>
+      <c r="A146" s="16"/>
       <c r="B146" s="6"/>
       <c r="C146" s="4" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="147" ht="15" spans="1:3">
-      <c r="A147" s="15"/>
+      <c r="A147" s="16"/>
       <c r="B147" s="6"/>
       <c r="C147" s="4" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="148" ht="15.75" spans="1:3">
-      <c r="A148" s="15"/>
+      <c r="A148" s="16"/>
       <c r="B148" s="6"/>
       <c r="C148" s="4"/>
     </row>
     <row r="149" ht="15" spans="1:3">
-      <c r="A149" s="15"/>
+      <c r="A149" s="16"/>
       <c r="B149" s="6" t="s">
         <v>149</v>
       </c>
@@ -4692,53 +4695,53 @@
       </c>
     </row>
     <row r="150" ht="15" spans="1:3">
-      <c r="A150" s="15"/>
+      <c r="A150" s="16"/>
       <c r="B150" s="6"/>
       <c r="C150" s="4" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="151" ht="15" spans="1:3">
-      <c r="A151" s="15"/>
+      <c r="A151" s="16"/>
       <c r="B151" s="6"/>
       <c r="C151" s="4" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="152" ht="15" spans="1:3">
-      <c r="A152" s="15"/>
+      <c r="A152" s="16"/>
       <c r="B152" s="6"/>
       <c r="C152" s="4" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="153" ht="15" spans="1:3">
-      <c r="A153" s="15"/>
+      <c r="A153" s="16"/>
       <c r="B153" s="6"/>
       <c r="C153" s="4" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="154" ht="15" spans="1:3">
-      <c r="A154" s="15"/>
+      <c r="A154" s="16"/>
       <c r="B154" s="6"/>
       <c r="C154" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="155" ht="15" spans="1:3">
-      <c r="A155" s="15"/>
+      <c r="A155" s="16"/>
       <c r="B155" s="6"/>
       <c r="C155" s="4" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="15"/>
-      <c r="C156" s="20"/>
+      <c r="A156" s="16"/>
+      <c r="C156" s="21"/>
     </row>
     <row r="157" ht="15" spans="1:3">
-      <c r="A157" s="15"/>
+      <c r="A157" s="16"/>
       <c r="B157" s="6" t="s">
         <v>156</v>
       </c>
@@ -4747,40 +4750,40 @@
       </c>
     </row>
     <row r="158" ht="15" spans="1:3">
-      <c r="A158" s="15"/>
+      <c r="A158" s="16"/>
       <c r="B158" s="6"/>
       <c r="C158" s="4" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="159" ht="15" spans="1:3">
-      <c r="A159" s="15"/>
+      <c r="A159" s="16"/>
       <c r="B159" s="6"/>
       <c r="C159" s="4" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="160" ht="15" spans="1:3">
-      <c r="A160" s="15"/>
+      <c r="A160" s="16"/>
       <c r="B160" s="6"/>
       <c r="C160" s="4" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="161" ht="15" spans="1:3">
-      <c r="A161" s="15"/>
+      <c r="A161" s="16"/>
       <c r="B161" s="6"/>
       <c r="C161" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="162" ht="15" spans="1:3">
-      <c r="A162" s="15"/>
+      <c r="A162" s="16"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
     </row>
     <row r="163" ht="15" spans="1:3">
-      <c r="A163" s="15"/>
+      <c r="A163" s="16"/>
       <c r="B163" s="6" t="s">
         <v>160</v>
       </c>
@@ -4789,54 +4792,54 @@
       </c>
     </row>
     <row r="164" ht="15" spans="1:3">
-      <c r="A164" s="15"/>
+      <c r="A164" s="16"/>
       <c r="B164" s="6"/>
       <c r="C164" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="165" ht="15" spans="1:3">
-      <c r="A165" s="15"/>
+      <c r="A165" s="16"/>
       <c r="B165" s="6"/>
       <c r="C165" s="4" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="166" ht="15" spans="1:3">
-      <c r="A166" s="15"/>
+      <c r="A166" s="16"/>
       <c r="B166" s="6"/>
       <c r="C166" s="4" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="167" ht="15" spans="1:3">
-      <c r="A167" s="15"/>
+      <c r="A167" s="16"/>
       <c r="B167" s="6"/>
       <c r="C167" s="4" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="168" ht="15" spans="1:3">
-      <c r="A168" s="15"/>
+      <c r="A168" s="16"/>
       <c r="B168" s="6"/>
       <c r="C168" s="4" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="169" ht="15" spans="1:3">
-      <c r="A169" s="15"/>
+      <c r="A169" s="16"/>
       <c r="B169" s="6"/>
       <c r="C169" s="4" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="170" ht="15" spans="1:3">
-      <c r="A170" s="15"/>
+      <c r="A170" s="16"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
     </row>
     <row r="171" ht="15" spans="1:3">
-      <c r="A171" s="15"/>
+      <c r="A171" s="16"/>
       <c r="B171" s="6" t="s">
         <v>166</v>
       </c>
@@ -4845,46 +4848,46 @@
       </c>
     </row>
     <row r="172" ht="15" spans="1:3">
-      <c r="A172" s="15"/>
+      <c r="A172" s="16"/>
       <c r="B172" s="6"/>
       <c r="C172" s="4" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="173" ht="15" spans="1:3">
-      <c r="A173" s="15"/>
+      <c r="A173" s="16"/>
       <c r="B173" s="6"/>
       <c r="C173" s="4" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="174" ht="15" spans="1:3">
-      <c r="A174" s="15"/>
+      <c r="A174" s="16"/>
       <c r="B174" s="6"/>
       <c r="C174" s="4" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="175" ht="15" spans="1:3">
-      <c r="A175" s="15"/>
+      <c r="A175" s="16"/>
       <c r="B175" s="6"/>
       <c r="C175" s="4" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="176" ht="15" spans="1:3">
-      <c r="A176" s="15"/>
+      <c r="A176" s="16"/>
       <c r="B176" s="6"/>
       <c r="C176" s="4" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" s="15"/>
-      <c r="C177" s="20"/>
+      <c r="A177" s="16"/>
+      <c r="C177" s="21"/>
     </row>
     <row r="178" ht="15" spans="1:3">
-      <c r="A178" s="15"/>
+      <c r="A178" s="16"/>
       <c r="B178" s="6" t="s">
         <v>171</v>
       </c>
@@ -4893,40 +4896,40 @@
       </c>
     </row>
     <row r="179" ht="15" spans="1:3">
-      <c r="A179" s="15"/>
+      <c r="A179" s="16"/>
       <c r="B179" s="6"/>
       <c r="C179" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="180" ht="15" spans="1:3">
-      <c r="A180" s="15"/>
+      <c r="A180" s="16"/>
       <c r="B180" s="6"/>
       <c r="C180" s="4" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="181" ht="15" spans="1:3">
-      <c r="A181" s="15"/>
+      <c r="A181" s="16"/>
       <c r="B181" s="6"/>
       <c r="C181" s="4" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="182" ht="15" spans="1:3">
-      <c r="A182" s="15"/>
+      <c r="A182" s="16"/>
       <c r="B182" s="6"/>
       <c r="C182" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="183" ht="18" spans="1:3">
-      <c r="A183" s="15"/>
-      <c r="B183" s="18"/>
+      <c r="A183" s="16"/>
+      <c r="B183" s="19"/>
       <c r="C183" s="4"/>
     </row>
     <row r="184" ht="15" spans="1:3">
-      <c r="A184" s="15"/>
+      <c r="A184" s="16"/>
       <c r="B184" s="6" t="s">
         <v>175</v>
       </c>
@@ -4935,47 +4938,47 @@
       </c>
     </row>
     <row r="185" ht="15" spans="1:3">
-      <c r="A185" s="15"/>
+      <c r="A185" s="16"/>
       <c r="B185" s="6"/>
       <c r="C185" s="4" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="186" ht="15" spans="1:3">
-      <c r="A186" s="15"/>
+      <c r="A186" s="16"/>
       <c r="B186" s="6"/>
       <c r="C186" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="187" ht="15" spans="1:3">
-      <c r="A187" s="15"/>
+      <c r="A187" s="16"/>
       <c r="B187" s="6"/>
       <c r="C187" s="4" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="188" ht="15" spans="1:3">
-      <c r="A188" s="15"/>
+      <c r="A188" s="16"/>
       <c r="B188" s="6"/>
       <c r="C188" s="4" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="189" ht="15" spans="1:3">
-      <c r="A189" s="15"/>
+      <c r="A189" s="16"/>
       <c r="B189" s="6"/>
       <c r="C189" s="4" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="190" ht="15.75" spans="1:3">
-      <c r="A190" s="15"/>
+      <c r="A190" s="16"/>
       <c r="B190" s="6"/>
       <c r="C190" s="4"/>
     </row>
     <row r="191" ht="15" spans="1:3">
-      <c r="A191" s="15"/>
+      <c r="A191" s="16"/>
       <c r="B191" s="6" t="s">
         <v>180</v>
       </c>
@@ -4984,47 +4987,47 @@
       </c>
     </row>
     <row r="192" ht="15" spans="1:3">
-      <c r="A192" s="15"/>
+      <c r="A192" s="16"/>
       <c r="B192" s="6"/>
       <c r="C192" s="4" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="193" ht="15" spans="1:3">
-      <c r="A193" s="15"/>
+      <c r="A193" s="16"/>
       <c r="B193" s="6"/>
       <c r="C193" s="4" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="194" ht="15" spans="1:3">
-      <c r="A194" s="15"/>
+      <c r="A194" s="16"/>
       <c r="B194" s="6"/>
       <c r="C194" s="4" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="195" ht="15" spans="1:3">
-      <c r="A195" s="15"/>
+      <c r="A195" s="16"/>
       <c r="B195" s="6"/>
       <c r="C195" s="4" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="196" ht="15" spans="1:3">
-      <c r="A196" s="15"/>
+      <c r="A196" s="16"/>
       <c r="B196" s="6"/>
       <c r="C196" s="4" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="197" ht="18" spans="1:3">
-      <c r="A197" s="15"/>
-      <c r="B197" s="16"/>
+      <c r="A197" s="16"/>
+      <c r="B197" s="17"/>
       <c r="C197" s="4"/>
     </row>
     <row r="198" ht="15" spans="1:3">
-      <c r="A198" s="15"/>
+      <c r="A198" s="16"/>
       <c r="B198" s="9" t="s">
         <v>82</v>
       </c>
@@ -5033,34 +5036,38 @@
       </c>
     </row>
     <row r="199" ht="15" spans="1:3">
-      <c r="A199" s="15"/>
+      <c r="A199" s="16"/>
       <c r="B199" s="9"/>
       <c r="C199" s="11" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="200" ht="25.5" spans="1:3">
-      <c r="A200" s="15"/>
+      <c r="A200" s="16"/>
       <c r="B200" s="9"/>
       <c r="C200" s="38" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="201" ht="15" customHeight="1" spans="1:3">
+    <row r="201" ht="15" customHeight="1" spans="1:4">
       <c r="A201" s="12"/>
       <c r="B201" s="12"/>
       <c r="C201" s="12"/>
-    </row>
-    <row r="202" ht="27" customHeight="1" spans="1:3">
+      <c r="D201" s="12"/>
+    </row>
+    <row r="202" ht="27" customHeight="1" spans="1:4">
       <c r="A202" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
+      <c r="D202" s="15" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="203" ht="15.75" spans="1:3">
-      <c r="A203" s="15" t="s">
-        <v>188</v>
+      <c r="A203" s="16" t="s">
+        <v>189</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>24</v>
@@ -5070,864 +5077,869 @@
       </c>
     </row>
     <row r="204" ht="15.75" spans="1:3">
-      <c r="A204" s="15"/>
+      <c r="A204" s="16"/>
       <c r="B204" s="3"/>
       <c r="C204" s="4"/>
     </row>
     <row r="205" ht="15" spans="1:3">
-      <c r="A205" s="15"/>
+      <c r="A205" s="16"/>
       <c r="B205" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="206" ht="15" spans="1:3">
-      <c r="A206" s="15"/>
+      <c r="A206" s="16"/>
       <c r="B206" s="6"/>
       <c r="C206" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="207" ht="15" spans="1:3">
-      <c r="A207" s="15"/>
+      <c r="A207" s="16"/>
       <c r="B207" s="6"/>
       <c r="C207" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="208" ht="15" spans="1:3">
-      <c r="A208" s="15"/>
+      <c r="A208" s="16"/>
       <c r="B208" s="6"/>
       <c r="C208" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="209" ht="15" spans="1:3">
-      <c r="A209" s="15"/>
+      <c r="A209" s="16"/>
       <c r="B209" s="6"/>
       <c r="C209" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="210" ht="15" spans="1:3">
-      <c r="A210" s="15"/>
+      <c r="A210" s="16"/>
       <c r="B210" s="6"/>
       <c r="C210" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="211" ht="15" spans="1:3">
-      <c r="A211" s="15"/>
+      <c r="A211" s="16"/>
       <c r="B211" s="6"/>
       <c r="C211" s="4" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="212" ht="15.75" spans="1:3">
-      <c r="A212" s="15"/>
+      <c r="A212" s="16"/>
       <c r="B212" s="6"/>
       <c r="C212" s="4"/>
     </row>
     <row r="213" ht="18.75" spans="1:3">
-      <c r="A213" s="15"/>
+      <c r="A213" s="16"/>
       <c r="B213" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C213" s="35" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="214" ht="15" spans="1:3">
-      <c r="A214" s="15"/>
+      <c r="A214" s="16"/>
       <c r="B214" s="6"/>
       <c r="C214" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="215" ht="18.75" spans="1:3">
-      <c r="A215" s="15"/>
+      <c r="A215" s="16"/>
       <c r="B215" s="6"/>
       <c r="C215" s="35" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="216" ht="18.75" spans="1:3">
-      <c r="A216" s="15"/>
+      <c r="A216" s="16"/>
       <c r="B216" s="6"/>
       <c r="C216" s="35" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="217" ht="18.75" spans="1:3">
-      <c r="A217" s="15"/>
+      <c r="A217" s="16"/>
       <c r="B217" s="6"/>
       <c r="C217" s="35" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="218" ht="18.75" spans="1:3">
-      <c r="A218" s="15"/>
+      <c r="A218" s="16"/>
       <c r="B218" s="6"/>
       <c r="C218" s="35" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="219" ht="18.75" spans="1:3">
-      <c r="A219" s="15"/>
+      <c r="A219" s="16"/>
       <c r="B219" s="6"/>
       <c r="C219" s="35" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="220" ht="18.75" spans="1:3">
-      <c r="A220" s="15"/>
+      <c r="A220" s="16"/>
       <c r="B220" s="6"/>
       <c r="C220" s="35" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="221" ht="18.75" spans="1:3">
-      <c r="A221" s="15"/>
+      <c r="A221" s="16"/>
       <c r="B221" s="6"/>
       <c r="C221" s="35" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="222" spans="1:3">
-      <c r="A222" s="15"/>
-      <c r="C222" s="20"/>
+      <c r="A222" s="16"/>
+      <c r="C222" s="21"/>
     </row>
     <row r="223" ht="18.75" spans="1:3">
-      <c r="A223" s="15"/>
+      <c r="A223" s="16"/>
       <c r="B223" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C223" s="35" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="224" ht="18.75" spans="1:3">
-      <c r="A224" s="15"/>
+      <c r="A224" s="16"/>
       <c r="B224" s="6"/>
       <c r="C224" s="35" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="225" ht="18.75" spans="1:3">
-      <c r="A225" s="15"/>
+      <c r="A225" s="16"/>
       <c r="B225" s="6"/>
       <c r="C225" s="35" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="226" ht="18.75" spans="1:3">
-      <c r="A226" s="15"/>
+      <c r="A226" s="16"/>
       <c r="B226" s="6"/>
       <c r="C226" s="35" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="227" ht="18.75" spans="1:3">
-      <c r="A227" s="15"/>
+      <c r="A227" s="16"/>
       <c r="B227" s="6"/>
       <c r="C227" s="35" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="228" ht="18.75" spans="1:3">
-      <c r="A228" s="15"/>
+      <c r="A228" s="16"/>
       <c r="B228" s="6"/>
       <c r="C228" s="35" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="229" ht="18.75" spans="1:3">
-      <c r="A229" s="15"/>
+      <c r="A229" s="16"/>
       <c r="B229" s="6"/>
       <c r="C229" s="35" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="230" ht="18.75" spans="1:3">
-      <c r="A230" s="15"/>
+      <c r="A230" s="16"/>
       <c r="B230" s="6"/>
       <c r="C230" s="35" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="231" ht="18.75" spans="1:3">
-      <c r="A231" s="15"/>
+      <c r="A231" s="16"/>
       <c r="B231" s="6"/>
       <c r="C231" s="35" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="232" spans="1:3">
-      <c r="A232" s="15"/>
+      <c r="A232" s="16"/>
       <c r="B232" s="6"/>
-      <c r="C232" s="20"/>
+      <c r="C232" s="21"/>
     </row>
     <row r="233" ht="18.75" spans="1:3">
-      <c r="A233" s="15"/>
+      <c r="A233" s="16"/>
       <c r="B233" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C233" s="35" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="234" ht="18.75" spans="1:3">
-      <c r="A234" s="15"/>
+      <c r="A234" s="16"/>
       <c r="B234" s="6"/>
       <c r="C234" s="35" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="235" ht="18.75" spans="1:3">
-      <c r="A235" s="15"/>
+      <c r="A235" s="16"/>
       <c r="B235" s="6"/>
       <c r="C235" s="35" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="236" ht="18.75" spans="1:3">
-      <c r="A236" s="15"/>
+      <c r="A236" s="16"/>
       <c r="B236" s="6"/>
       <c r="C236" s="35" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="237" ht="18.75" spans="1:3">
-      <c r="A237" s="15"/>
+      <c r="A237" s="16"/>
       <c r="B237" s="6"/>
       <c r="C237" s="35" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="238" ht="18.75" spans="1:3">
-      <c r="A238" s="15"/>
+      <c r="A238" s="16"/>
       <c r="B238" s="6"/>
       <c r="C238" s="35" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="239" ht="18.75" spans="1:3">
-      <c r="A239" s="15"/>
+      <c r="A239" s="16"/>
       <c r="B239" s="6"/>
       <c r="C239" s="35" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="240" ht="18.75" spans="1:3">
-      <c r="A240" s="15"/>
+      <c r="A240" s="16"/>
       <c r="B240" s="6"/>
       <c r="C240" s="35" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="241" ht="18.75" spans="1:3">
-      <c r="A241" s="15"/>
+      <c r="A241" s="16"/>
       <c r="B241" s="6"/>
       <c r="C241" s="35" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="242" ht="18.75" spans="1:3">
-      <c r="A242" s="15"/>
+      <c r="A242" s="16"/>
       <c r="B242" s="6"/>
       <c r="C242" s="35" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="243" ht="18.75" spans="1:3">
-      <c r="A243" s="15"/>
+      <c r="A243" s="16"/>
       <c r="B243" s="6"/>
       <c r="C243" s="35" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="244" ht="18.75" spans="1:3">
-      <c r="A244" s="15"/>
+      <c r="A244" s="16"/>
       <c r="B244" s="6"/>
       <c r="C244" s="35" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="245" spans="1:3">
-      <c r="A245" s="15"/>
-      <c r="C245" s="20"/>
+      <c r="A245" s="16"/>
+      <c r="C245" s="21"/>
     </row>
     <row r="246" ht="18.75" spans="1:3">
-      <c r="A246" s="15"/>
+      <c r="A246" s="16"/>
       <c r="B246" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C246" s="35" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="247" ht="18.75" spans="1:3">
-      <c r="A247" s="15"/>
+      <c r="A247" s="16"/>
       <c r="B247" s="6"/>
       <c r="C247" s="35" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="248" ht="18.75" spans="1:3">
-      <c r="A248" s="15"/>
+      <c r="A248" s="16"/>
       <c r="B248" s="6"/>
       <c r="C248" s="35" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="249" ht="18.75" spans="1:3">
-      <c r="A249" s="15"/>
+      <c r="A249" s="16"/>
       <c r="B249" s="6"/>
       <c r="C249" s="35" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="250" ht="18.75" spans="1:3">
-      <c r="A250" s="15"/>
+      <c r="A250" s="16"/>
       <c r="B250" s="6"/>
       <c r="C250" s="35" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="251" ht="18.75" spans="1:3">
-      <c r="A251" s="15"/>
+      <c r="A251" s="16"/>
       <c r="B251" s="6"/>
       <c r="C251" s="35" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="252" ht="18.75" spans="1:3">
-      <c r="A252" s="15"/>
+      <c r="A252" s="16"/>
       <c r="B252" s="6"/>
       <c r="C252" s="35" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="253" ht="18.75" spans="1:3">
-      <c r="A253" s="15"/>
+      <c r="A253" s="16"/>
       <c r="B253" s="6"/>
       <c r="C253" s="35" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="254" ht="18.75" spans="1:3">
-      <c r="A254" s="15"/>
+      <c r="A254" s="16"/>
       <c r="B254" s="6"/>
       <c r="C254" s="35" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="255" ht="18.75" spans="1:3">
-      <c r="A255" s="15"/>
+      <c r="A255" s="16"/>
       <c r="B255" s="6"/>
       <c r="C255" s="35" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="256" ht="18.75" spans="1:3">
-      <c r="A256" s="15"/>
+      <c r="A256" s="16"/>
       <c r="B256" s="6"/>
       <c r="C256" s="35" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="257" ht="18.75" spans="1:3">
-      <c r="A257" s="15"/>
+      <c r="A257" s="16"/>
       <c r="B257" s="6"/>
       <c r="C257" s="35" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="258" ht="18.75" spans="1:3">
-      <c r="A258" s="15"/>
+      <c r="A258" s="16"/>
       <c r="B258" s="6"/>
       <c r="C258" s="35" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="259" ht="18.75" spans="1:3">
-      <c r="A259" s="15"/>
+      <c r="A259" s="16"/>
       <c r="B259" s="6"/>
       <c r="C259" s="35" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="260" ht="18.75" spans="1:3">
-      <c r="A260" s="15"/>
+      <c r="A260" s="16"/>
       <c r="B260" s="6"/>
       <c r="C260" s="35" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="261" ht="18.75" spans="1:3">
-      <c r="A261" s="15"/>
+      <c r="A261" s="16"/>
       <c r="B261" s="6"/>
       <c r="C261" s="35" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="262" ht="18.75" spans="1:3">
-      <c r="A262" s="15"/>
+      <c r="A262" s="16"/>
       <c r="B262" s="6"/>
       <c r="C262" s="35" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="263" ht="18.75" spans="1:3">
-      <c r="A263" s="15"/>
+      <c r="A263" s="16"/>
       <c r="B263" s="6"/>
       <c r="C263" s="35" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="264" spans="1:3">
-      <c r="A264" s="15"/>
-      <c r="C264" s="20"/>
+      <c r="A264" s="16"/>
+      <c r="C264" s="21"/>
     </row>
     <row r="265" ht="18.75" spans="1:3">
-      <c r="A265" s="15"/>
+      <c r="A265" s="16"/>
       <c r="B265" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C265" s="35" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="266" ht="18.75" spans="1:3">
-      <c r="A266" s="15"/>
+      <c r="A266" s="16"/>
       <c r="B266" s="6"/>
       <c r="C266" s="35" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="267" ht="18.75" spans="1:3">
-      <c r="A267" s="15"/>
+      <c r="A267" s="16"/>
       <c r="B267" s="6"/>
       <c r="C267" s="35" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="268" ht="18.75" spans="1:3">
-      <c r="A268" s="15"/>
+      <c r="A268" s="16"/>
       <c r="B268" s="6"/>
       <c r="C268" s="35" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="269" ht="18.75" spans="1:3">
-      <c r="A269" s="15"/>
+      <c r="A269" s="16"/>
       <c r="B269" s="6"/>
       <c r="C269" s="35" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="270" ht="18.75" spans="1:3">
-      <c r="A270" s="15"/>
+      <c r="A270" s="16"/>
       <c r="B270" s="6"/>
       <c r="C270" s="35" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="271" ht="18.75" spans="1:3">
-      <c r="A271" s="15"/>
+      <c r="A271" s="16"/>
       <c r="B271" s="6"/>
       <c r="C271" s="35" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="272" ht="18.75" spans="1:3">
-      <c r="A272" s="15"/>
+      <c r="A272" s="16"/>
       <c r="B272" s="6"/>
       <c r="C272" s="35" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="273" ht="18.75" spans="1:3">
-      <c r="A273" s="15"/>
+      <c r="A273" s="16"/>
       <c r="B273" s="6"/>
       <c r="C273" s="35" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="274" ht="18.75" spans="1:3">
-      <c r="A274" s="15"/>
+      <c r="A274" s="16"/>
       <c r="B274" s="6"/>
       <c r="C274" s="35" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="275" spans="1:3">
-      <c r="A275" s="15"/>
-      <c r="C275" s="20"/>
+      <c r="A275" s="16"/>
+      <c r="C275" s="21"/>
     </row>
     <row r="276" ht="18.75" spans="1:3">
-      <c r="A276" s="15"/>
+      <c r="A276" s="16"/>
       <c r="B276" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C276" s="35" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="277" ht="18.75" spans="1:3">
-      <c r="A277" s="15"/>
+      <c r="A277" s="16"/>
       <c r="B277" s="6"/>
       <c r="C277" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="278" ht="18.75" spans="1:3">
-      <c r="A278" s="15"/>
+      <c r="A278" s="16"/>
       <c r="B278" s="6"/>
       <c r="C278" s="35" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="279" ht="18.75" spans="1:3">
-      <c r="A279" s="15"/>
+      <c r="A279" s="16"/>
       <c r="B279" s="6"/>
       <c r="C279" s="35" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="280" ht="18.75" spans="1:3">
-      <c r="A280" s="15"/>
+      <c r="A280" s="16"/>
       <c r="B280" s="6"/>
       <c r="C280" s="35" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="281" ht="18.75" spans="1:3">
-      <c r="A281" s="15"/>
+      <c r="A281" s="16"/>
       <c r="B281" s="6"/>
       <c r="C281" s="35" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="282" ht="18.75" spans="1:3">
-      <c r="A282" s="15"/>
+      <c r="A282" s="16"/>
       <c r="B282" s="6"/>
       <c r="C282" s="35" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="283" ht="18.75" spans="1:3">
-      <c r="A283" s="15"/>
+      <c r="A283" s="16"/>
       <c r="B283" s="6"/>
       <c r="C283" s="35" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="284" ht="18.75" spans="1:3">
-      <c r="A284" s="15"/>
+      <c r="A284" s="16"/>
       <c r="B284" s="6"/>
       <c r="C284" s="35" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="285" ht="18.75" spans="1:3">
-      <c r="A285" s="15"/>
+      <c r="A285" s="16"/>
       <c r="B285" s="6"/>
       <c r="C285" s="35" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="286" ht="18.75" spans="1:3">
-      <c r="A286" s="15"/>
+      <c r="A286" s="16"/>
       <c r="B286" s="6"/>
       <c r="C286" s="35" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="287" ht="18.75" spans="1:3">
-      <c r="A287" s="15"/>
+      <c r="A287" s="16"/>
       <c r="B287" s="6"/>
       <c r="C287" s="35" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="288" ht="18.75" spans="1:3">
-      <c r="A288" s="15"/>
+      <c r="A288" s="16"/>
       <c r="B288" s="6"/>
       <c r="C288" s="35" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="289" ht="18.75" spans="1:3">
-      <c r="A289" s="15"/>
+      <c r="A289" s="16"/>
       <c r="B289" s="6"/>
       <c r="C289" s="35" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="290" ht="18.75" spans="1:3">
-      <c r="A290" s="15"/>
+      <c r="A290" s="16"/>
       <c r="B290" s="6"/>
       <c r="C290" s="35" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="291" ht="18.75" spans="1:3">
-      <c r="A291" s="15"/>
+      <c r="A291" s="16"/>
       <c r="B291" s="6"/>
       <c r="C291" s="35" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="292" ht="18.75" spans="1:3">
-      <c r="A292" s="15"/>
+      <c r="A292" s="16"/>
       <c r="B292" s="6"/>
       <c r="C292" s="35" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="293" ht="18.75" spans="1:3">
-      <c r="A293" s="15"/>
+      <c r="A293" s="16"/>
       <c r="B293" s="6"/>
       <c r="C293" s="35"/>
     </row>
     <row r="294" ht="17" customHeight="1" spans="1:3">
-      <c r="A294" s="15"/>
+      <c r="A294" s="16"/>
       <c r="B294" s="9" t="s">
         <v>82</v>
       </c>
       <c r="C294" s="39" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="295" ht="18.75" spans="1:3">
-      <c r="A295" s="15"/>
+      <c r="A295" s="16"/>
       <c r="B295" s="9"/>
       <c r="C295" s="35" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="296" ht="18.75" spans="1:3">
-      <c r="A296" s="15"/>
+      <c r="A296" s="16"/>
       <c r="B296" s="9"/>
       <c r="C296" s="35" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
       <c r="A297" s="12"/>
       <c r="B297" s="12"/>
       <c r="C297" s="12"/>
-    </row>
-    <row r="298" ht="24.75" spans="1:3">
+      <c r="D297" s="12"/>
+    </row>
+    <row r="298" ht="24.75" spans="1:4">
       <c r="A298" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
+      <c r="D298" s="15" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="299" ht="18.75" spans="1:3">
-      <c r="A299" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="B299" s="16" t="s">
+      <c r="A299" s="16" t="s">
         <v>269</v>
       </c>
+      <c r="B299" s="17" t="s">
+        <v>270</v>
+      </c>
       <c r="C299" s="35" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="300" ht="18.75" spans="1:3">
-      <c r="A300" s="15"/>
-      <c r="B300" s="16"/>
+      <c r="A300" s="16"/>
+      <c r="B300" s="17"/>
       <c r="C300" s="35" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="301" ht="18.75" spans="1:3">
-      <c r="A301" s="15"/>
-      <c r="B301" s="16"/>
+      <c r="A301" s="16"/>
+      <c r="B301" s="17"/>
       <c r="C301" s="35" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="302" ht="18.75" spans="1:3">
-      <c r="A302" s="15"/>
-      <c r="B302" s="16"/>
+      <c r="A302" s="16"/>
+      <c r="B302" s="17"/>
       <c r="C302" s="35" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="303" ht="18.75" spans="1:3">
-      <c r="A303" s="15"/>
-      <c r="B303" s="16"/>
+      <c r="A303" s="16"/>
+      <c r="B303" s="17"/>
       <c r="C303" s="35" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="304" ht="18.75" spans="1:3">
-      <c r="A304" s="15"/>
-      <c r="B304" s="16"/>
+      <c r="A304" s="16"/>
+      <c r="B304" s="17"/>
       <c r="C304" s="35" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="305" ht="18.75" spans="1:3">
-      <c r="A305" s="15"/>
-      <c r="B305" s="16"/>
+      <c r="A305" s="16"/>
+      <c r="B305" s="17"/>
       <c r="C305" s="35" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="306" ht="18.75" spans="1:3">
-      <c r="A306" s="15"/>
-      <c r="B306" s="16"/>
+      <c r="A306" s="16"/>
+      <c r="B306" s="17"/>
       <c r="C306" s="35" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="307" spans="1:3">
-      <c r="A307" s="15"/>
-      <c r="C307" s="20"/>
+      <c r="A307" s="16"/>
+      <c r="C307" s="21"/>
     </row>
     <row r="308" ht="18.75" spans="1:3">
-      <c r="A308" s="15"/>
-      <c r="B308" s="16" t="s">
-        <v>278</v>
+      <c r="A308" s="16"/>
+      <c r="B308" s="17" t="s">
+        <v>279</v>
       </c>
       <c r="C308" s="35" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="309" ht="18.75" spans="1:3">
-      <c r="A309" s="15"/>
-      <c r="B309" s="16"/>
+      <c r="A309" s="16"/>
+      <c r="B309" s="17"/>
       <c r="C309" s="35" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="310" ht="18.75" spans="1:3">
-      <c r="A310" s="15"/>
-      <c r="B310" s="16"/>
+      <c r="A310" s="16"/>
+      <c r="B310" s="17"/>
       <c r="C310" s="35" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="311" ht="18.75" spans="1:3">
-      <c r="A311" s="15"/>
-      <c r="B311" s="16"/>
+      <c r="A311" s="16"/>
+      <c r="B311" s="17"/>
       <c r="C311" s="35" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="312" ht="18.75" spans="1:3">
-      <c r="A312" s="15"/>
-      <c r="B312" s="16"/>
+      <c r="A312" s="16"/>
+      <c r="B312" s="17"/>
       <c r="C312" s="35" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="313" ht="18.75" spans="1:3">
-      <c r="A313" s="15"/>
-      <c r="B313" s="16"/>
+      <c r="A313" s="16"/>
+      <c r="B313" s="17"/>
       <c r="C313" s="35" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="314" ht="18.75" spans="1:3">
-      <c r="A314" s="15"/>
-      <c r="B314" s="16"/>
+      <c r="A314" s="16"/>
+      <c r="B314" s="17"/>
       <c r="C314" s="35" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="315" ht="18.75" spans="1:3">
-      <c r="A315" s="15"/>
-      <c r="B315" s="16"/>
+      <c r="A315" s="16"/>
+      <c r="B315" s="17"/>
       <c r="C315" s="35" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="316" ht="18.75" spans="1:3">
-      <c r="A316" s="15"/>
-      <c r="B316" s="16"/>
+      <c r="A316" s="16"/>
+      <c r="B316" s="17"/>
       <c r="C316" s="35" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="317" ht="18.75" spans="1:3">
-      <c r="A317" s="15"/>
-      <c r="B317" s="16"/>
+      <c r="A317" s="16"/>
+      <c r="B317" s="17"/>
       <c r="C317" s="35" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="318" ht="18.75" spans="1:3">
-      <c r="A318" s="15"/>
-      <c r="B318" s="16"/>
+      <c r="A318" s="16"/>
+      <c r="B318" s="17"/>
       <c r="C318" s="35" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="319" ht="37.5" spans="1:3">
-      <c r="A319" s="15"/>
-      <c r="B319" s="16"/>
+      <c r="A319" s="16"/>
+      <c r="B319" s="17"/>
       <c r="C319" s="35" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="320" ht="18.75" spans="1:3">
-      <c r="A320" s="15"/>
-      <c r="B320" s="16"/>
+      <c r="A320" s="16"/>
+      <c r="B320" s="17"/>
       <c r="C320" s="35" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="321" ht="18.75" spans="1:3">
-      <c r="A321" s="15"/>
-      <c r="B321" s="16"/>
+      <c r="A321" s="16"/>
+      <c r="B321" s="17"/>
       <c r="C321" s="35" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="322" ht="18.75" spans="1:3">
-      <c r="A322" s="15"/>
-      <c r="B322" s="16"/>
+      <c r="A322" s="16"/>
+      <c r="B322" s="17"/>
       <c r="C322" s="35" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="323" spans="1:3">
-      <c r="A323" s="15"/>
-      <c r="B323" s="20"/>
-      <c r="C323" s="20"/>
+      <c r="A323" s="16"/>
+      <c r="B323" s="21"/>
+      <c r="C323" s="21"/>
     </row>
     <row r="324" ht="37.5" spans="1:3">
-      <c r="A324" s="15"/>
-      <c r="B324" s="27" t="s">
-        <v>293</v>
+      <c r="A324" s="16"/>
+      <c r="B324" s="28" t="s">
+        <v>294</v>
       </c>
       <c r="C324" s="35" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="325" ht="18.75" spans="1:3">
-      <c r="A325" s="15"/>
-      <c r="B325" s="27"/>
+      <c r="A325" s="16"/>
+      <c r="B325" s="28"/>
       <c r="C325" s="35" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
       <c r="A326" s="12"/>
       <c r="B326" s="12"/>
       <c r="C326" s="12"/>
+      <c r="D326" s="12"/>
     </row>
     <row r="330" ht="18.75" spans="1:2">
       <c r="A330" s="13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B330" s="14">
         <v>5</v>
@@ -5935,7 +5947,7 @@
     </row>
     <row r="331" ht="18.75" spans="1:2">
       <c r="A331" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B331" s="14">
         <v>40</v>
@@ -6001,10 +6013,10 @@
   <sheetPr/>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5:B8"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="3"/>
@@ -6015,7 +6027,7 @@
     <col min="4" max="4" width="42.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:3">
+    <row r="1" ht="16.5" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -6025,18 +6037,23 @@
       <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" ht="24.75" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="D2" s="15" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="3" ht="24.75" spans="1:4">
-      <c r="A3" s="15" t="s">
-        <v>299</v>
+      <c r="A3" s="16" t="s">
+        <v>300</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>24</v>
@@ -6047,544 +6064,544 @@
       <c r="D3" s="2"/>
     </row>
     <row r="4" ht="14" customHeight="1" spans="1:4">
-      <c r="A4" s="15"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="23"/>
+      <c r="D4" s="24"/>
     </row>
     <row r="5" ht="15" spans="1:4">
-      <c r="A5" s="15"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="D5" s="23"/>
+        <v>302</v>
+      </c>
+      <c r="D5" s="24"/>
     </row>
     <row r="6" ht="15" spans="1:4">
-      <c r="A6" s="15"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="6"/>
       <c r="C6" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="D6" s="23"/>
+        <v>303</v>
+      </c>
+      <c r="D6" s="24"/>
     </row>
     <row r="7" ht="15" spans="1:4">
-      <c r="A7" s="15"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="6"/>
       <c r="C7" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="D7" s="23"/>
+        <v>304</v>
+      </c>
+      <c r="D7" s="24"/>
     </row>
     <row r="8" ht="15" spans="1:4">
-      <c r="A8" s="15"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="6"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="23"/>
+      <c r="D8" s="24"/>
     </row>
     <row r="9" ht="15.75" spans="1:4">
-      <c r="A9" s="15"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="6"/>
       <c r="C9" s="11"/>
-      <c r="D9" s="23"/>
+      <c r="D9" s="24"/>
     </row>
     <row r="10" ht="15" spans="1:4">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="23"/>
+      <c r="D10" s="24"/>
     </row>
     <row r="11" ht="15" spans="1:4">
-      <c r="A11" s="15"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="6"/>
       <c r="C11" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="D11" s="23"/>
+        <v>306</v>
+      </c>
+      <c r="D11" s="24"/>
     </row>
     <row r="12" ht="15" spans="1:4">
-      <c r="A12" s="15"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="6"/>
       <c r="C12" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="D12" s="23"/>
+        <v>307</v>
+      </c>
+      <c r="D12" s="24"/>
     </row>
     <row r="13" ht="15" spans="1:4">
-      <c r="A13" s="15"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="6"/>
       <c r="C13" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="D13" s="23"/>
+        <v>308</v>
+      </c>
+      <c r="D13" s="24"/>
     </row>
     <row r="14" ht="15" spans="1:4">
-      <c r="A14" s="15"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="6"/>
       <c r="C14" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="D14" s="23"/>
+        <v>309</v>
+      </c>
+      <c r="D14" s="24"/>
     </row>
     <row r="15" ht="15" spans="1:4">
-      <c r="A15" s="15"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="6"/>
       <c r="C15" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="D15" s="23"/>
+        <v>310</v>
+      </c>
+      <c r="D15" s="24"/>
     </row>
     <row r="16" ht="15" spans="1:4">
-      <c r="A16" s="15"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="6"/>
       <c r="C16" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="D16" s="23"/>
+        <v>311</v>
+      </c>
+      <c r="D16" s="24"/>
     </row>
     <row r="17" ht="15" spans="1:4">
-      <c r="A17" s="15"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="6"/>
       <c r="C17" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="D17" s="23"/>
+        <v>312</v>
+      </c>
+      <c r="D17" s="24"/>
     </row>
     <row r="18" ht="15" spans="1:4">
-      <c r="A18" s="15"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="6"/>
       <c r="C18" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="D18" s="23"/>
+        <v>313</v>
+      </c>
+      <c r="D18" s="24"/>
     </row>
     <row r="19" ht="15" spans="1:4">
-      <c r="A19" s="15"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="6"/>
       <c r="C19" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="D19" s="23"/>
+        <v>314</v>
+      </c>
+      <c r="D19" s="24"/>
     </row>
     <row r="20" ht="15" spans="1:4">
-      <c r="A20" s="15"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="6"/>
       <c r="C20" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="D20" s="23"/>
+        <v>315</v>
+      </c>
+      <c r="D20" s="24"/>
     </row>
     <row r="21" ht="15.75" spans="1:4">
-      <c r="A21" s="15"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="6"/>
       <c r="C21" s="11"/>
-      <c r="D21" s="23"/>
+      <c r="D21" s="24"/>
     </row>
     <row r="22" ht="15" spans="1:4">
-      <c r="A22" s="15"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="23"/>
+      <c r="D22" s="24"/>
     </row>
     <row r="23" ht="15" spans="1:4">
-      <c r="A23" s="15"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="6"/>
       <c r="C23" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="D23" s="23"/>
+        <v>317</v>
+      </c>
+      <c r="D23" s="24"/>
     </row>
     <row r="24" ht="15" spans="1:4">
-      <c r="A24" s="15"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="6"/>
       <c r="C24" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="D24" s="23"/>
+        <v>318</v>
+      </c>
+      <c r="D24" s="24"/>
     </row>
     <row r="25" ht="15" spans="1:4">
-      <c r="A25" s="15"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="6"/>
       <c r="C25" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="D25" s="23"/>
+        <v>319</v>
+      </c>
+      <c r="D25" s="24"/>
     </row>
     <row r="26" ht="15" spans="1:4">
-      <c r="A26" s="15"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="6"/>
       <c r="C26" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="D26" s="23"/>
+        <v>320</v>
+      </c>
+      <c r="D26" s="24"/>
     </row>
     <row r="27" ht="15" spans="1:4">
-      <c r="A27" s="15"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="6"/>
       <c r="C27" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="D27" s="23"/>
+        <v>321</v>
+      </c>
+      <c r="D27" s="24"/>
     </row>
     <row r="28" ht="15" spans="1:4">
-      <c r="A28" s="15"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="6"/>
       <c r="C28" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="D28" s="23"/>
+        <v>322</v>
+      </c>
+      <c r="D28" s="24"/>
     </row>
     <row r="29" ht="15" customHeight="1" spans="1:4">
-      <c r="A29" s="15"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="6"/>
       <c r="C29" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="D29" s="23"/>
+        <v>323</v>
+      </c>
+      <c r="D29" s="24"/>
     </row>
     <row r="30" ht="15" spans="1:4">
-      <c r="A30" s="15"/>
+      <c r="A30" s="16"/>
       <c r="B30" s="6"/>
       <c r="C30" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="23"/>
+      <c r="D30" s="24"/>
     </row>
     <row r="31" ht="15.75" spans="1:4">
-      <c r="A31" s="15"/>
+      <c r="A31" s="16"/>
       <c r="B31" s="6"/>
       <c r="C31" s="11"/>
-      <c r="D31" s="23"/>
+      <c r="D31" s="24"/>
     </row>
     <row r="32" ht="15" spans="1:4">
-      <c r="A32" s="15"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="23"/>
+      <c r="D32" s="24"/>
     </row>
     <row r="33" ht="15" spans="1:4">
-      <c r="A33" s="15"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="6"/>
       <c r="C33" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="D33" s="23"/>
+        <v>325</v>
+      </c>
+      <c r="D33" s="24"/>
     </row>
     <row r="34" ht="15" spans="1:4">
-      <c r="A34" s="15"/>
+      <c r="A34" s="16"/>
       <c r="B34" s="6"/>
       <c r="C34" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="D34" s="23"/>
+        <v>326</v>
+      </c>
+      <c r="D34" s="24"/>
     </row>
     <row r="35" ht="15" spans="1:4">
-      <c r="A35" s="15"/>
+      <c r="A35" s="16"/>
       <c r="B35" s="6"/>
       <c r="C35" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="D35" s="23"/>
+        <v>327</v>
+      </c>
+      <c r="D35" s="24"/>
     </row>
     <row r="36" ht="15" spans="1:4">
-      <c r="A36" s="15"/>
+      <c r="A36" s="16"/>
       <c r="B36" s="6"/>
       <c r="C36" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="D36" s="23"/>
+        <v>328</v>
+      </c>
+      <c r="D36" s="24"/>
     </row>
     <row r="37" ht="15" spans="1:4">
-      <c r="A37" s="15"/>
+      <c r="A37" s="16"/>
       <c r="B37" s="6"/>
       <c r="C37" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="D37" s="23"/>
+        <v>329</v>
+      </c>
+      <c r="D37" s="24"/>
     </row>
     <row r="38" ht="15" spans="1:4">
-      <c r="A38" s="15"/>
+      <c r="A38" s="16"/>
       <c r="B38" s="6"/>
       <c r="C38" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="D38" s="23"/>
+        <v>330</v>
+      </c>
+      <c r="D38" s="24"/>
     </row>
     <row r="39" ht="15" spans="1:4">
-      <c r="A39" s="15"/>
+      <c r="A39" s="16"/>
       <c r="B39" s="6"/>
       <c r="C39" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="D39" s="23"/>
+        <v>331</v>
+      </c>
+      <c r="D39" s="24"/>
     </row>
     <row r="40" ht="15" spans="1:4">
-      <c r="A40" s="15"/>
+      <c r="A40" s="16"/>
       <c r="B40" s="6"/>
       <c r="C40" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="D40" s="23"/>
+        <v>332</v>
+      </c>
+      <c r="D40" s="24"/>
     </row>
     <row r="41" ht="15" spans="1:4">
-      <c r="A41" s="15"/>
+      <c r="A41" s="16"/>
       <c r="B41" s="6"/>
       <c r="C41" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="D41" s="23"/>
+        <v>333</v>
+      </c>
+      <c r="D41" s="24"/>
     </row>
     <row r="42" ht="15" spans="1:4">
-      <c r="A42" s="15"/>
+      <c r="A42" s="16"/>
       <c r="B42" s="6"/>
       <c r="C42" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="D42" s="23"/>
+        <v>315</v>
+      </c>
+      <c r="D42" s="24"/>
     </row>
     <row r="43" ht="15.75" spans="1:4">
-      <c r="A43" s="15"/>
+      <c r="A43" s="16"/>
       <c r="B43" s="6"/>
       <c r="C43" s="4"/>
-      <c r="D43" s="23"/>
+      <c r="D43" s="24"/>
     </row>
     <row r="44" ht="15" spans="1:4">
-      <c r="A44" s="15"/>
+      <c r="A44" s="16"/>
       <c r="B44" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D44" s="23"/>
+      <c r="D44" s="24"/>
     </row>
     <row r="45" ht="15" spans="1:4">
-      <c r="A45" s="15"/>
+      <c r="A45" s="16"/>
       <c r="B45" s="6"/>
       <c r="C45" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="D45" s="23"/>
+        <v>335</v>
+      </c>
+      <c r="D45" s="24"/>
     </row>
     <row r="46" ht="15" spans="1:4">
-      <c r="A46" s="15"/>
+      <c r="A46" s="16"/>
       <c r="B46" s="6"/>
       <c r="C46" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="D46" s="23"/>
+        <v>336</v>
+      </c>
+      <c r="D46" s="24"/>
     </row>
     <row r="47" ht="15" spans="1:4">
-      <c r="A47" s="15"/>
+      <c r="A47" s="16"/>
       <c r="B47" s="6"/>
       <c r="C47" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="D47" s="23"/>
+        <v>337</v>
+      </c>
+      <c r="D47" s="24"/>
     </row>
     <row r="48" ht="15" spans="1:4">
-      <c r="A48" s="15"/>
+      <c r="A48" s="16"/>
       <c r="B48" s="6"/>
       <c r="C48" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="D48" s="23"/>
+        <v>338</v>
+      </c>
+      <c r="D48" s="24"/>
     </row>
     <row r="49" ht="15" spans="1:4">
-      <c r="A49" s="15"/>
+      <c r="A49" s="16"/>
       <c r="B49" s="6"/>
       <c r="C49" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="D49" s="23"/>
+        <v>339</v>
+      </c>
+      <c r="D49" s="24"/>
     </row>
     <row r="50" ht="15" spans="1:4">
-      <c r="A50" s="15"/>
+      <c r="A50" s="16"/>
       <c r="B50" s="6"/>
       <c r="C50" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="D50" s="23"/>
+      <c r="D50" s="24"/>
     </row>
     <row r="51" ht="15.75" spans="1:4">
-      <c r="A51" s="15"/>
+      <c r="A51" s="16"/>
       <c r="B51" s="6"/>
       <c r="C51" s="11"/>
-      <c r="D51" s="23"/>
+      <c r="D51" s="24"/>
     </row>
     <row r="52" ht="15" spans="1:4">
-      <c r="A52" s="15"/>
+      <c r="A52" s="16"/>
       <c r="B52" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="23"/>
+      <c r="D52" s="24"/>
     </row>
     <row r="53" ht="15" spans="1:4">
-      <c r="A53" s="15"/>
+      <c r="A53" s="16"/>
       <c r="B53" s="6"/>
       <c r="C53" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="D53" s="23"/>
+        <v>341</v>
+      </c>
+      <c r="D53" s="24"/>
     </row>
     <row r="54" ht="15" spans="1:4">
-      <c r="A54" s="15"/>
+      <c r="A54" s="16"/>
       <c r="B54" s="6"/>
       <c r="C54" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="D54" s="23"/>
+        <v>342</v>
+      </c>
+      <c r="D54" s="24"/>
     </row>
     <row r="55" ht="15" spans="1:4">
-      <c r="A55" s="15"/>
+      <c r="A55" s="16"/>
       <c r="B55" s="6"/>
       <c r="C55" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="D55" s="23"/>
+        <v>343</v>
+      </c>
+      <c r="D55" s="24"/>
     </row>
     <row r="56" ht="15" spans="1:4">
-      <c r="A56" s="15"/>
+      <c r="A56" s="16"/>
       <c r="B56" s="6"/>
       <c r="C56" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="D56" s="23"/>
+        <v>344</v>
+      </c>
+      <c r="D56" s="24"/>
     </row>
     <row r="57" ht="15" spans="1:4">
-      <c r="A57" s="15"/>
+      <c r="A57" s="16"/>
       <c r="B57" s="6"/>
       <c r="C57" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="D57" s="23"/>
+        <v>345</v>
+      </c>
+      <c r="D57" s="24"/>
     </row>
     <row r="58" ht="15" spans="1:4">
-      <c r="A58" s="15"/>
+      <c r="A58" s="16"/>
       <c r="B58" s="6"/>
       <c r="C58" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="D58" s="23"/>
+        <v>346</v>
+      </c>
+      <c r="D58" s="24"/>
     </row>
     <row r="59" ht="15" spans="1:4">
-      <c r="A59" s="15"/>
+      <c r="A59" s="16"/>
       <c r="B59" s="6"/>
       <c r="C59" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D59" s="23"/>
+      <c r="D59" s="24"/>
     </row>
     <row r="60" ht="15.75" spans="1:4">
-      <c r="A60" s="15"/>
+      <c r="A60" s="16"/>
       <c r="B60" s="6"/>
       <c r="C60" s="11"/>
-      <c r="D60" s="23"/>
+      <c r="D60" s="24"/>
     </row>
     <row r="61" ht="18" customHeight="1" spans="1:4">
-      <c r="A61" s="15"/>
+      <c r="A61" s="16"/>
       <c r="B61" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D61" s="23"/>
+      <c r="D61" s="24"/>
     </row>
     <row r="62" ht="15" spans="1:4">
-      <c r="A62" s="15"/>
+      <c r="A62" s="16"/>
       <c r="B62" s="6"/>
       <c r="C62" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="D62" s="23"/>
+        <v>348</v>
+      </c>
+      <c r="D62" s="24"/>
     </row>
     <row r="63" ht="15" spans="1:4">
-      <c r="A63" s="15"/>
+      <c r="A63" s="16"/>
       <c r="B63" s="6"/>
       <c r="C63" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="D63" s="23"/>
+        <v>349</v>
+      </c>
+      <c r="D63" s="24"/>
     </row>
     <row r="64" ht="15" spans="1:4">
-      <c r="A64" s="15"/>
+      <c r="A64" s="16"/>
       <c r="B64" s="6"/>
       <c r="C64" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="D64" s="23"/>
+        <v>350</v>
+      </c>
+      <c r="D64" s="24"/>
     </row>
     <row r="65" ht="15" spans="1:4">
-      <c r="A65" s="15"/>
+      <c r="A65" s="16"/>
       <c r="B65" s="6"/>
       <c r="C65" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="D65" s="23"/>
+        <v>351</v>
+      </c>
+      <c r="D65" s="24"/>
     </row>
     <row r="66" ht="15" spans="1:4">
-      <c r="A66" s="15"/>
+      <c r="A66" s="16"/>
       <c r="B66" s="6"/>
       <c r="C66" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="D66" s="23"/>
+        <v>352</v>
+      </c>
+      <c r="D66" s="24"/>
     </row>
     <row r="67" ht="15" spans="1:4">
-      <c r="A67" s="15"/>
+      <c r="A67" s="16"/>
       <c r="B67" s="6"/>
       <c r="C67" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="D67" s="23"/>
+        <v>353</v>
+      </c>
+      <c r="D67" s="24"/>
     </row>
     <row r="68" ht="15" spans="1:4">
-      <c r="A68" s="15"/>
+      <c r="A68" s="16"/>
       <c r="B68" s="6"/>
       <c r="C68" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D68" s="23"/>
+      <c r="D68" s="24"/>
     </row>
     <row r="69" ht="15.75" spans="1:4">
-      <c r="A69" s="15"/>
+      <c r="A69" s="16"/>
       <c r="B69" s="6"/>
       <c r="C69" s="11"/>
-      <c r="D69" s="23"/>
+      <c r="D69" s="24"/>
     </row>
     <row r="70" ht="24.75" spans="1:4">
-      <c r="A70" s="15"/>
+      <c r="A70" s="16"/>
       <c r="B70" s="9" t="s">
         <v>82</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D70" s="2"/>
     </row>
     <row r="71" ht="24.75" spans="1:4">
-      <c r="A71" s="15"/>
+      <c r="A71" s="16"/>
       <c r="B71" s="9"/>
       <c r="C71" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D71" s="2"/>
     </row>
@@ -6594,304 +6611,310 @@
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
     </row>
-    <row r="73" ht="24.75" spans="2:4">
-      <c r="B73" s="2" t="s">
-        <v>355</v>
-      </c>
+    <row r="73" ht="24.75" spans="1:4">
+      <c r="A73" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B73" s="2"/>
       <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
+      <c r="D73" s="15" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="74" ht="15" spans="1:4">
-      <c r="A74" s="24" t="s">
-        <v>356</v>
-      </c>
-      <c r="B74" s="16" t="s">
+      <c r="A74" s="25" t="s">
         <v>357</v>
       </c>
+      <c r="B74" s="17" t="s">
+        <v>358</v>
+      </c>
       <c r="C74" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D74" s="4"/>
     </row>
     <row r="75" ht="15" spans="1:4">
-      <c r="A75" s="24"/>
-      <c r="B75" s="16"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="17"/>
       <c r="C75" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D75" s="4"/>
     </row>
     <row r="76" ht="18.75" spans="1:4">
-      <c r="A76" s="24"/>
-      <c r="B76" s="16"/>
+      <c r="A76" s="25"/>
+      <c r="B76" s="17"/>
       <c r="C76" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D76" s="4"/>
     </row>
     <row r="77" ht="15" spans="1:4">
-      <c r="A77" s="24"/>
-      <c r="B77" s="16"/>
+      <c r="A77" s="25"/>
+      <c r="B77" s="17"/>
       <c r="C77" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D77" s="4"/>
     </row>
     <row r="78" ht="15" spans="1:4">
-      <c r="A78" s="24"/>
-      <c r="B78" s="16"/>
+      <c r="A78" s="25"/>
+      <c r="B78" s="17"/>
       <c r="C78" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D78" s="4"/>
     </row>
     <row r="79" ht="15" spans="1:4">
-      <c r="A79" s="24"/>
-      <c r="B79" s="16"/>
+      <c r="A79" s="25"/>
+      <c r="B79" s="17"/>
       <c r="C79" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D79" s="4"/>
     </row>
     <row r="80" ht="15" spans="1:4">
-      <c r="A80" s="24"/>
-      <c r="B80" s="16"/>
+      <c r="A80" s="25"/>
+      <c r="B80" s="17"/>
       <c r="C80" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D80" s="4"/>
     </row>
     <row r="81" ht="15" spans="1:4">
-      <c r="A81" s="24"/>
-      <c r="B81" s="16"/>
+      <c r="A81" s="25"/>
+      <c r="B81" s="17"/>
       <c r="C81" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D81" s="4"/>
     </row>
     <row r="82" ht="18.75" spans="1:4">
-      <c r="A82" s="24"/>
-      <c r="B82" s="17"/>
+      <c r="A82" s="25"/>
+      <c r="B82" s="18"/>
       <c r="D82" s="4"/>
     </row>
     <row r="83" ht="15" spans="1:3">
-      <c r="A83" s="24"/>
-      <c r="B83" s="16" t="s">
-        <v>365</v>
+      <c r="A83" s="25"/>
+      <c r="B83" s="17" t="s">
+        <v>366</v>
       </c>
       <c r="C83" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="84" ht="15" spans="1:3">
-      <c r="A84" s="24"/>
-      <c r="B84" s="16"/>
+      <c r="A84" s="25"/>
+      <c r="B84" s="17"/>
       <c r="C84" s="11" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="85" ht="15" spans="1:3">
-      <c r="A85" s="24"/>
-      <c r="B85" s="16"/>
+      <c r="A85" s="25"/>
+      <c r="B85" s="17"/>
       <c r="C85" s="11" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="86" ht="15" spans="1:3">
-      <c r="A86" s="24"/>
-      <c r="B86" s="16"/>
+      <c r="A86" s="25"/>
+      <c r="B86" s="17"/>
       <c r="C86" s="11" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="87" ht="15" spans="1:3">
-      <c r="A87" s="24"/>
-      <c r="B87" s="16"/>
+      <c r="A87" s="25"/>
+      <c r="B87" s="17"/>
       <c r="C87" s="11" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="88" ht="18.75" spans="1:4">
-      <c r="A88" s="24"/>
-      <c r="B88" s="17"/>
+      <c r="A88" s="25"/>
+      <c r="B88" s="18"/>
       <c r="D88" s="4"/>
     </row>
     <row r="89" ht="15" spans="1:3">
-      <c r="A89" s="24"/>
-      <c r="B89" s="16" t="s">
-        <v>369</v>
+      <c r="A89" s="25"/>
+      <c r="B89" s="17" t="s">
+        <v>370</v>
       </c>
       <c r="C89" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="90" ht="15" spans="1:3">
-      <c r="A90" s="24"/>
-      <c r="B90" s="16"/>
+      <c r="A90" s="25"/>
+      <c r="B90" s="17"/>
       <c r="C90" s="11" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="91" ht="15" spans="1:3">
-      <c r="A91" s="24"/>
-      <c r="B91" s="16"/>
+      <c r="A91" s="25"/>
+      <c r="B91" s="17"/>
       <c r="C91" s="11" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="92" ht="15" spans="1:3">
-      <c r="A92" s="24"/>
-      <c r="B92" s="16"/>
+      <c r="A92" s="25"/>
+      <c r="B92" s="17"/>
       <c r="C92" s="11" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="93" ht="15" spans="1:3">
-      <c r="A93" s="24"/>
-      <c r="B93" s="16"/>
+      <c r="A93" s="25"/>
+      <c r="B93" s="17"/>
       <c r="C93" s="11" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="94" ht="15" spans="1:3">
-      <c r="A94" s="24"/>
-      <c r="B94" s="16"/>
+      <c r="A94" s="25"/>
+      <c r="B94" s="17"/>
       <c r="C94" s="4" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="95" ht="18.75" spans="1:4">
-      <c r="A95" s="24"/>
-      <c r="B95" s="17"/>
-      <c r="C95" s="25"/>
+      <c r="A95" s="25"/>
+      <c r="B95" s="18"/>
+      <c r="C95" s="26"/>
       <c r="D95" s="4"/>
     </row>
     <row r="96" ht="15" spans="1:3">
-      <c r="A96" s="24"/>
-      <c r="B96" s="16" t="s">
-        <v>374</v>
+      <c r="A96" s="25"/>
+      <c r="B96" s="17" t="s">
+        <v>375</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="97" ht="15" spans="1:3">
-      <c r="A97" s="24"/>
-      <c r="B97" s="16"/>
+      <c r="A97" s="25"/>
+      <c r="B97" s="17"/>
       <c r="C97" s="11" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="98" ht="15" spans="1:3">
-      <c r="A98" s="24"/>
-      <c r="B98" s="16"/>
+      <c r="A98" s="25"/>
+      <c r="B98" s="17"/>
       <c r="C98" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="99" ht="15" spans="1:3">
-      <c r="A99" s="24"/>
-      <c r="B99" s="16"/>
+      <c r="A99" s="25"/>
+      <c r="B99" s="17"/>
       <c r="C99" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="100" ht="15" spans="1:3">
-      <c r="A100" s="24"/>
-      <c r="B100" s="16"/>
+      <c r="A100" s="25"/>
+      <c r="B100" s="17"/>
       <c r="C100" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="101" ht="15" spans="1:3">
-      <c r="A101" s="24"/>
-      <c r="B101" s="16"/>
+      <c r="A101" s="25"/>
+      <c r="B101" s="17"/>
       <c r="C101" s="4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="102" ht="15" spans="1:4">
-      <c r="A102" s="24"/>
-      <c r="B102" s="16"/>
+      <c r="A102" s="25"/>
+      <c r="B102" s="17"/>
       <c r="C102" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D102" s="4"/>
     </row>
     <row r="103" ht="8" customHeight="1" spans="1:4">
-      <c r="A103" s="21"/>
-      <c r="B103" s="21"/>
-      <c r="C103" s="21"/>
+      <c r="A103" s="22"/>
+      <c r="B103" s="22"/>
+      <c r="C103" s="22"/>
       <c r="D103" s="12"/>
     </row>
-    <row r="104" ht="24.75" spans="2:4">
-      <c r="B104" s="2" t="s">
-        <v>381</v>
-      </c>
+    <row r="104" ht="24.75" spans="1:4">
+      <c r="A104" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B104" s="2"/>
       <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
+      <c r="D104" s="15" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="105" ht="15" spans="1:4">
-      <c r="A105" s="26" t="s">
-        <v>382</v>
-      </c>
-      <c r="B105" s="16" t="s">
+      <c r="A105" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="B105" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D105" s="4"/>
     </row>
     <row r="106" ht="15" spans="1:4">
-      <c r="A106" s="26"/>
-      <c r="B106" s="16"/>
+      <c r="A106" s="27"/>
+      <c r="B106" s="17"/>
       <c r="C106" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D106" s="4"/>
     </row>
     <row r="107" ht="18" spans="1:4">
-      <c r="A107" s="26"/>
-      <c r="B107" s="16"/>
+      <c r="A107" s="27"/>
+      <c r="B107" s="17"/>
       <c r="C107" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D107" s="4"/>
     </row>
     <row r="108" ht="15" spans="1:4">
-      <c r="A108" s="26"/>
-      <c r="B108" s="16"/>
+      <c r="A108" s="27"/>
+      <c r="B108" s="17"/>
       <c r="C108" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D108" s="4"/>
     </row>
     <row r="109" ht="15" spans="1:4">
-      <c r="A109" s="26"/>
-      <c r="B109" s="16"/>
+      <c r="A109" s="27"/>
+      <c r="B109" s="17"/>
       <c r="C109" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D109" s="4"/>
     </row>
     <row r="110" ht="15" spans="1:4">
-      <c r="A110" s="26"/>
-      <c r="B110" s="16"/>
+      <c r="A110" s="27"/>
+      <c r="B110" s="17"/>
       <c r="C110" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D110" s="4"/>
     </row>
     <row r="111" ht="15" spans="1:4">
-      <c r="A111" s="26"/>
+      <c r="A111" s="27"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
     </row>
     <row r="112" ht="15" spans="1:4">
-      <c r="A112" s="26"/>
-      <c r="B112" s="16" t="s">
-        <v>389</v>
+      <c r="A112" s="27"/>
+      <c r="B112" s="17" t="s">
+        <v>390</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>26</v>
@@ -6899,134 +6922,134 @@
       <c r="D112" s="4"/>
     </row>
     <row r="113" ht="18" spans="1:4">
-      <c r="A113" s="26"/>
-      <c r="B113" s="16"/>
+      <c r="A113" s="27"/>
+      <c r="B113" s="17"/>
       <c r="C113" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D113" s="4"/>
     </row>
     <row r="114" ht="15" spans="1:4">
-      <c r="A114" s="26"/>
-      <c r="B114" s="16"/>
+      <c r="A114" s="27"/>
+      <c r="B114" s="17"/>
       <c r="C114" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D114" s="4"/>
     </row>
     <row r="115" ht="15" spans="1:4">
-      <c r="A115" s="26"/>
-      <c r="B115" s="16"/>
+      <c r="A115" s="27"/>
+      <c r="B115" s="17"/>
       <c r="C115" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D115" s="4"/>
     </row>
     <row r="116" ht="15" spans="1:4">
-      <c r="A116" s="26"/>
-      <c r="B116" s="16"/>
+      <c r="A116" s="27"/>
+      <c r="B116" s="17"/>
       <c r="C116" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D116" s="4"/>
     </row>
     <row r="117" ht="15" spans="1:4">
-      <c r="A117" s="26"/>
-      <c r="B117" s="16"/>
+      <c r="A117" s="27"/>
+      <c r="B117" s="17"/>
       <c r="C117" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D117" s="4"/>
     </row>
     <row r="118" ht="15" spans="1:4">
-      <c r="A118" s="26"/>
-      <c r="B118" s="16"/>
+      <c r="A118" s="27"/>
+      <c r="B118" s="17"/>
       <c r="C118" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D118" s="4"/>
     </row>
     <row r="119" ht="15" spans="1:4">
-      <c r="A119" s="26"/>
-      <c r="B119" s="16"/>
+      <c r="A119" s="27"/>
+      <c r="B119" s="17"/>
       <c r="C119" s="4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D119" s="4"/>
     </row>
     <row r="120" ht="15" spans="1:4">
-      <c r="A120" s="26"/>
-      <c r="B120" s="16"/>
+      <c r="A120" s="27"/>
+      <c r="B120" s="17"/>
       <c r="C120" s="4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D120" s="4"/>
     </row>
     <row r="121" ht="15" spans="1:4">
-      <c r="A121" s="26"/>
+      <c r="A121" s="27"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
     </row>
     <row r="122" ht="15" spans="1:4">
-      <c r="A122" s="26"/>
-      <c r="B122" s="16" t="s">
-        <v>398</v>
+      <c r="A122" s="27"/>
+      <c r="B122" s="17" t="s">
+        <v>399</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D122" s="4"/>
     </row>
     <row r="123" ht="18" spans="1:4">
-      <c r="A123" s="26"/>
-      <c r="B123" s="16"/>
+      <c r="A123" s="27"/>
+      <c r="B123" s="17"/>
       <c r="C123" s="4" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D123" s="4"/>
     </row>
     <row r="124" ht="15" spans="1:4">
-      <c r="A124" s="26"/>
-      <c r="B124" s="16"/>
+      <c r="A124" s="27"/>
+      <c r="B124" s="17"/>
       <c r="C124" s="4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D124" s="4"/>
     </row>
     <row r="125" ht="15" spans="1:4">
-      <c r="A125" s="26"/>
-      <c r="B125" s="16"/>
+      <c r="A125" s="27"/>
+      <c r="B125" s="17"/>
       <c r="C125" s="4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D125" s="4"/>
     </row>
     <row r="126" ht="15" spans="1:4">
-      <c r="A126" s="26"/>
-      <c r="B126" s="16"/>
+      <c r="A126" s="27"/>
+      <c r="B126" s="17"/>
       <c r="C126" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D126" s="4"/>
     </row>
     <row r="127" ht="15" spans="1:4">
-      <c r="A127" s="26"/>
-      <c r="B127" s="16"/>
+      <c r="A127" s="27"/>
+      <c r="B127" s="17"/>
       <c r="C127" s="4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D127" s="4"/>
     </row>
     <row r="128" ht="18" spans="1:4">
-      <c r="A128" s="26"/>
-      <c r="B128" s="25"/>
+      <c r="A128" s="27"/>
+      <c r="B128" s="26"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
     </row>
     <row r="129" ht="15" spans="1:4">
-      <c r="A129" s="26"/>
-      <c r="B129" s="16" t="s">
-        <v>405</v>
+      <c r="A129" s="27"/>
+      <c r="B129" s="17" t="s">
+        <v>406</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>26</v>
@@ -7034,105 +7057,105 @@
       <c r="D129" s="4"/>
     </row>
     <row r="130" ht="18" spans="1:4">
-      <c r="A130" s="26"/>
-      <c r="B130" s="16"/>
+      <c r="A130" s="27"/>
+      <c r="B130" s="17"/>
       <c r="C130" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D130" s="4"/>
     </row>
     <row r="131" ht="15" spans="1:4">
-      <c r="A131" s="26"/>
-      <c r="B131" s="16"/>
+      <c r="A131" s="27"/>
+      <c r="B131" s="17"/>
       <c r="C131" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D131" s="4"/>
     </row>
     <row r="132" ht="15" spans="1:4">
-      <c r="A132" s="26"/>
-      <c r="B132" s="16"/>
+      <c r="A132" s="27"/>
+      <c r="B132" s="17"/>
       <c r="C132" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D132" s="4"/>
     </row>
     <row r="133" ht="15" spans="1:4">
-      <c r="A133" s="26"/>
-      <c r="B133" s="16"/>
+      <c r="A133" s="27"/>
+      <c r="B133" s="17"/>
       <c r="C133" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D133" s="4"/>
     </row>
     <row r="134" ht="15" spans="1:4">
-      <c r="A134" s="26"/>
-      <c r="B134" s="16"/>
+      <c r="A134" s="27"/>
+      <c r="B134" s="17"/>
       <c r="C134" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D134" s="4"/>
     </row>
     <row r="135" ht="18" spans="1:4">
-      <c r="A135" s="26"/>
-      <c r="B135" s="16"/>
+      <c r="A135" s="27"/>
+      <c r="B135" s="17"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
     </row>
     <row r="136" ht="15" spans="1:4">
-      <c r="A136" s="26"/>
-      <c r="B136" s="27" t="s">
+      <c r="A136" s="27"/>
+      <c r="B136" s="28" t="s">
         <v>82</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D136" s="10"/>
     </row>
     <row r="137" ht="15" spans="1:4">
-      <c r="A137" s="26"/>
-      <c r="B137" s="27"/>
+      <c r="A137" s="27"/>
+      <c r="B137" s="28"/>
       <c r="C137" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D137" s="4"/>
     </row>
     <row r="138" ht="15" spans="1:4">
-      <c r="A138" s="26"/>
-      <c r="B138" s="27"/>
+      <c r="A138" s="27"/>
+      <c r="B138" s="28"/>
       <c r="C138" s="4" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D138" s="4"/>
     </row>
     <row r="139" ht="8" customHeight="1" spans="1:4">
-      <c r="A139" s="21"/>
-      <c r="B139" s="21"/>
-      <c r="C139" s="21"/>
+      <c r="A139" s="22"/>
+      <c r="B139" s="22"/>
+      <c r="C139" s="22"/>
       <c r="D139" s="12"/>
     </row>
     <row r="142" ht="37.5" spans="1:2">
-      <c r="A142" s="28" t="s">
-        <v>414</v>
+      <c r="A142" s="29" t="s">
+        <v>415</v>
       </c>
       <c r="B142" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="143" ht="37.5" spans="1:2">
-      <c r="A143" s="28" t="s">
-        <v>415</v>
-      </c>
-      <c r="B143" s="29">
+      <c r="A143" s="29" t="s">
+        <v>416</v>
+      </c>
+      <c r="B143" s="30">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A73:C73"/>
     <mergeCell ref="A103:C103"/>
-    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="A104:C104"/>
     <mergeCell ref="A139:C139"/>
     <mergeCell ref="A3:A71"/>
     <mergeCell ref="A74:A102"/>
@@ -7163,22 +7186,23 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C219"/>
+  <dimension ref="A1:D219"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F168" sqref="F168"/>
+      <selection pane="bottomLeft" activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="32.875" customWidth="1"/>
     <col min="2" max="2" width="35.125" customWidth="1"/>
     <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:3">
+    <row r="1" ht="16.5" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -7188,17 +7212,23 @@
       <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" ht="33" customHeight="1" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" ht="33" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
+      <c r="D2" s="15" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="15" t="s">
-        <v>417</v>
+      <c r="A3" s="16" t="s">
+        <v>418</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>24</v>
@@ -7208,501 +7238,505 @@
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:3">
-      <c r="A4" s="15"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
     </row>
     <row r="5" ht="15" spans="1:3">
-      <c r="A5" s="15"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:3">
-      <c r="A6" s="15"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="6"/>
       <c r="C6" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
-      <c r="A7" s="15"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="6"/>
       <c r="C7" s="4" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
-      <c r="A8" s="15"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="6"/>
       <c r="C8" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
-      <c r="A9" s="15"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="6"/>
       <c r="C9" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" ht="13" customHeight="1" spans="1:3">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="6"/>
       <c r="C10" s="4"/>
     </row>
     <row r="11" ht="15" spans="1:3">
-      <c r="A11" s="15"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
-      <c r="A12" s="15"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="6"/>
       <c r="C12" s="4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
-      <c r="A13" s="15"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="6"/>
       <c r="C13" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
-      <c r="A14" s="15"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="6"/>
       <c r="C14" s="4" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:3">
-      <c r="A15" s="15"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="6"/>
       <c r="C15" s="4" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:3">
-      <c r="A16" s="15"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="6"/>
       <c r="C16" s="4" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
-      <c r="A17" s="15"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="6"/>
       <c r="C17" s="4" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
-      <c r="A18" s="15"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="6"/>
       <c r="C18" s="4" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:3">
-      <c r="A19" s="15"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="6"/>
       <c r="C19" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="20" ht="18.75" spans="1:3">
-      <c r="A20" s="15"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="6"/>
       <c r="C20" s="4"/>
     </row>
     <row r="21" ht="15" spans="1:3">
-      <c r="A21" s="15"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="6" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
-      <c r="A22" s="15"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="6"/>
       <c r="C22" s="4" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:3">
-      <c r="A23" s="15"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="6"/>
       <c r="C23" s="4" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:3">
-      <c r="A24" s="15"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="6"/>
       <c r="C24" s="4" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:3">
-      <c r="A25" s="15"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="6"/>
       <c r="C25" s="4" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="26" ht="15" spans="1:3">
-      <c r="A26" s="15"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="6"/>
       <c r="C26" s="4" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:3">
-      <c r="A27" s="15"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="6"/>
       <c r="C27" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:3">
-      <c r="A28" s="15"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="6"/>
       <c r="C28" s="4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:3">
-      <c r="A29" s="15"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="6"/>
       <c r="C29" s="4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:3">
-      <c r="A30" s="15"/>
+      <c r="A30" s="16"/>
       <c r="B30" s="6"/>
       <c r="C30" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="31" ht="18.75" spans="1:3">
-      <c r="A31" s="15"/>
+      <c r="A31" s="16"/>
       <c r="B31" s="6"/>
       <c r="C31" s="4"/>
     </row>
     <row r="32" ht="15" spans="1:3">
-      <c r="A32" s="15" t="s">
-        <v>441</v>
+      <c r="A32" s="16" t="s">
+        <v>442</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:3">
-      <c r="A33" s="15"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="6"/>
       <c r="C33" s="4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:3">
-      <c r="A34" s="15"/>
+      <c r="A34" s="16"/>
       <c r="B34" s="6"/>
       <c r="C34" s="4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:3">
-      <c r="A35" s="15"/>
+      <c r="A35" s="16"/>
       <c r="B35" s="6"/>
       <c r="C35" s="4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:3">
-      <c r="A36" s="15"/>
+      <c r="A36" s="16"/>
       <c r="B36" s="6"/>
       <c r="C36" s="4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="37" ht="15" spans="1:3">
-      <c r="A37" s="15"/>
+      <c r="A37" s="16"/>
       <c r="B37" s="6"/>
       <c r="C37" s="4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="38" ht="15" spans="1:3">
-      <c r="A38" s="15"/>
+      <c r="A38" s="16"/>
       <c r="B38" s="6"/>
       <c r="C38" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:3">
-      <c r="A39" s="15"/>
+      <c r="A39" s="16"/>
       <c r="B39" s="6"/>
       <c r="C39" s="4" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="40" ht="18.75" spans="1:3">
-      <c r="A40" s="15"/>
-      <c r="B40" s="16"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="17"/>
       <c r="C40" s="4"/>
     </row>
     <row r="41" ht="15" spans="1:3">
-      <c r="A41" s="15" t="s">
-        <v>450</v>
+      <c r="A41" s="16" t="s">
+        <v>451</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:3">
-      <c r="A42" s="15"/>
+      <c r="A42" s="16"/>
       <c r="B42" s="6"/>
       <c r="C42" s="4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:3">
-      <c r="A43" s="15"/>
+      <c r="A43" s="16"/>
       <c r="B43" s="6"/>
       <c r="C43" s="4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:3">
-      <c r="A44" s="15"/>
+      <c r="A44" s="16"/>
       <c r="B44" s="6"/>
       <c r="C44" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:3">
-      <c r="A45" s="15"/>
+      <c r="A45" s="16"/>
       <c r="B45" s="6"/>
       <c r="C45" s="4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:3">
-      <c r="A46" s="15"/>
+      <c r="A46" s="16"/>
       <c r="B46" s="6"/>
       <c r="C46" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="47" ht="15" spans="1:3">
-      <c r="A47" s="15"/>
+      <c r="A47" s="16"/>
       <c r="B47" s="6"/>
       <c r="C47" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="48" customFormat="1" ht="18.75" spans="1:3">
-      <c r="A48" s="17"/>
+      <c r="A48" s="18"/>
       <c r="B48" s="6"/>
       <c r="C48" s="4"/>
     </row>
     <row r="49" customFormat="1" ht="15" spans="1:3">
-      <c r="A49" s="15"/>
+      <c r="A49" s="16"/>
       <c r="B49" s="9" t="s">
         <v>82</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="50" customFormat="1" ht="15" spans="1:3">
-      <c r="A50" s="15"/>
+      <c r="A50" s="16"/>
       <c r="B50" s="9"/>
       <c r="C50" s="4" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="51" customFormat="1" ht="9" customHeight="1" spans="1:3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" ht="9" customHeight="1" spans="1:4">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
-    </row>
-    <row r="52" ht="24.75" spans="1:3">
+      <c r="D51" s="12"/>
+    </row>
+    <row r="52" ht="24.75" spans="1:4">
       <c r="A52" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
+      <c r="D52" s="15" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="53" ht="15" spans="1:3">
-      <c r="A53" s="15" t="s">
-        <v>461</v>
+      <c r="A53" s="16" t="s">
+        <v>462</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="54" ht="15" spans="1:3">
-      <c r="A54" s="15"/>
+      <c r="A54" s="16"/>
       <c r="B54" s="6"/>
       <c r="C54" s="4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="55" ht="15" spans="1:3">
-      <c r="A55" s="15"/>
+      <c r="A55" s="16"/>
       <c r="B55" s="6"/>
       <c r="C55" s="4" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="56" ht="15" spans="1:3">
-      <c r="A56" s="15"/>
+      <c r="A56" s="16"/>
       <c r="B56" s="6"/>
       <c r="C56" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="57" ht="15" spans="1:3">
-      <c r="A57" s="15"/>
+      <c r="A57" s="16"/>
       <c r="B57" s="6"/>
       <c r="C57" s="4" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="58" ht="15" spans="1:3">
-      <c r="A58" s="15"/>
+      <c r="A58" s="16"/>
       <c r="B58" s="6"/>
       <c r="C58" s="4" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="59" ht="15" spans="1:3">
-      <c r="A59" s="15"/>
+      <c r="A59" s="16"/>
       <c r="B59" s="6"/>
       <c r="C59" s="4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="60" ht="15" spans="1:3">
-      <c r="A60" s="15"/>
+      <c r="A60" s="16"/>
       <c r="B60" s="6"/>
       <c r="C60" s="4" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="61" ht="18.75" spans="1:3">
-      <c r="A61" s="15"/>
-      <c r="B61" s="16"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="17"/>
       <c r="C61" s="4"/>
     </row>
     <row r="62" ht="15" spans="1:3">
-      <c r="A62" s="15" t="s">
-        <v>469</v>
+      <c r="A62" s="16" t="s">
+        <v>470</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="63" ht="15" spans="1:3">
-      <c r="A63" s="15"/>
+      <c r="A63" s="16"/>
       <c r="B63" s="6"/>
       <c r="C63" s="4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="64" ht="15" spans="1:3">
-      <c r="A64" s="15"/>
+      <c r="A64" s="16"/>
       <c r="B64" s="6"/>
       <c r="C64" s="4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="65" ht="15" spans="1:3">
-      <c r="A65" s="15"/>
+      <c r="A65" s="16"/>
       <c r="B65" s="6"/>
       <c r="C65" s="4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="66" ht="15" spans="1:3">
-      <c r="A66" s="15"/>
+      <c r="A66" s="16"/>
       <c r="B66" s="6"/>
       <c r="C66" s="4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="67" ht="15" spans="1:3">
-      <c r="A67" s="15"/>
+      <c r="A67" s="16"/>
       <c r="B67" s="6"/>
       <c r="C67" s="4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="68" ht="15" spans="1:3">
-      <c r="A68" s="15"/>
+      <c r="A68" s="16"/>
       <c r="B68" s="6"/>
       <c r="C68" s="4" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="69" ht="15" spans="1:3">
-      <c r="A69" s="15"/>
+      <c r="A69" s="16"/>
       <c r="B69" s="6"/>
       <c r="C69" s="4" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="70" ht="15" spans="1:3">
-      <c r="A70" s="15"/>
+      <c r="A70" s="16"/>
       <c r="B70" s="6"/>
       <c r="C70" s="4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="71" ht="15" spans="1:3">
-      <c r="A71" s="15"/>
+      <c r="A71" s="16"/>
       <c r="B71" s="6"/>
       <c r="C71" s="4" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="72" ht="15" spans="1:3">
-      <c r="A72" s="15"/>
+      <c r="A72" s="16"/>
       <c r="B72" s="6"/>
       <c r="C72" s="4" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="73" ht="15" spans="1:3">
-      <c r="A73" s="15"/>
+      <c r="A73" s="16"/>
       <c r="B73" s="6"/>
       <c r="C73" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="74" ht="9" customHeight="1" spans="1:3">
@@ -7711,283 +7745,283 @@
       <c r="C74" s="2"/>
     </row>
     <row r="75" ht="15" spans="1:3">
-      <c r="A75" s="15" t="s">
-        <v>482</v>
+      <c r="A75" s="16" t="s">
+        <v>483</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="76" ht="15" spans="1:3">
-      <c r="A76" s="15"/>
+      <c r="A76" s="16"/>
       <c r="B76" s="6"/>
       <c r="C76" s="4" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="77" ht="15" spans="1:3">
-      <c r="A77" s="15"/>
+      <c r="A77" s="16"/>
       <c r="B77" s="6"/>
       <c r="C77" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="78" ht="15" spans="1:3">
-      <c r="A78" s="15"/>
+      <c r="A78" s="16"/>
       <c r="B78" s="6"/>
       <c r="C78" s="4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="79" ht="15" spans="1:3">
-      <c r="A79" s="15"/>
+      <c r="A79" s="16"/>
       <c r="B79" s="6"/>
       <c r="C79" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="80" ht="15" spans="1:3">
-      <c r="A80" s="15"/>
+      <c r="A80" s="16"/>
       <c r="B80" s="6"/>
       <c r="C80" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="81" ht="15" spans="1:3">
-      <c r="A81" s="15"/>
+      <c r="A81" s="16"/>
       <c r="B81" s="6"/>
       <c r="C81" s="4" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="82" ht="18.75" spans="1:1">
-      <c r="A82" s="15"/>
+      <c r="A82" s="16"/>
     </row>
     <row r="83" ht="15" spans="1:3">
-      <c r="A83" s="15" t="s">
-        <v>490</v>
+      <c r="A83" s="16" t="s">
+        <v>491</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="84" ht="15" spans="1:3">
-      <c r="A84" s="15"/>
+      <c r="A84" s="16"/>
       <c r="B84" s="6"/>
       <c r="C84" s="4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="85" ht="15" spans="1:3">
-      <c r="A85" s="15"/>
+      <c r="A85" s="16"/>
       <c r="B85" s="6"/>
       <c r="C85" s="4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="86" ht="15" spans="1:3">
-      <c r="A86" s="15"/>
+      <c r="A86" s="16"/>
       <c r="B86" s="6"/>
       <c r="C86" s="4" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="87" ht="15" spans="1:3">
-      <c r="A87" s="15"/>
+      <c r="A87" s="16"/>
       <c r="B87" s="6"/>
       <c r="C87" s="4" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="88" ht="15" spans="1:3">
-      <c r="A88" s="15"/>
+      <c r="A88" s="16"/>
       <c r="B88" s="6"/>
       <c r="C88" s="4" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="89" ht="15" spans="1:3">
-      <c r="A89" s="15"/>
+      <c r="A89" s="16"/>
       <c r="B89" s="6"/>
       <c r="C89" s="4" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="90" ht="15" spans="1:3">
-      <c r="A90" s="15"/>
+      <c r="A90" s="16"/>
       <c r="B90" s="6"/>
       <c r="C90" s="4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="91" ht="15" spans="1:3">
-      <c r="A91" s="15"/>
+      <c r="A91" s="16"/>
       <c r="B91" s="6"/>
       <c r="C91" s="4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="92" ht="18.75" spans="1:3">
-      <c r="A92" s="15"/>
-      <c r="B92" s="16"/>
+      <c r="A92" s="16"/>
+      <c r="B92" s="17"/>
       <c r="C92" s="4"/>
     </row>
     <row r="93" ht="15" spans="1:3">
-      <c r="A93" s="15" t="s">
-        <v>500</v>
+      <c r="A93" s="16" t="s">
+        <v>501</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="94" ht="15" spans="1:3">
-      <c r="A94" s="15"/>
+      <c r="A94" s="16"/>
       <c r="B94" s="6"/>
       <c r="C94" s="4" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="95" ht="15" spans="1:3">
-      <c r="A95" s="15"/>
+      <c r="A95" s="16"/>
       <c r="B95" s="6"/>
       <c r="C95" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="96" ht="15" spans="1:3">
-      <c r="A96" s="15"/>
+      <c r="A96" s="16"/>
       <c r="B96" s="6"/>
       <c r="C96" s="4" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="97" ht="15" spans="1:3">
-      <c r="A97" s="15"/>
+      <c r="A97" s="16"/>
       <c r="B97" s="6"/>
       <c r="C97" s="4" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="98" ht="15" spans="1:3">
-      <c r="A98" s="15"/>
+      <c r="A98" s="16"/>
       <c r="B98" s="6"/>
       <c r="C98" s="4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="99" ht="15" spans="1:3">
-      <c r="A99" s="15"/>
+      <c r="A99" s="16"/>
       <c r="B99" s="6"/>
       <c r="C99" s="4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="100" ht="15" spans="1:3">
-      <c r="A100" s="15"/>
+      <c r="A100" s="16"/>
       <c r="B100" s="6"/>
       <c r="C100" s="4" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="101" ht="18.75" spans="1:3">
-      <c r="A101" s="15"/>
+      <c r="A101" s="16"/>
       <c r="C101" s="4"/>
     </row>
     <row r="102" ht="15" spans="1:3">
-      <c r="A102" s="15" t="s">
-        <v>508</v>
+      <c r="A102" s="16" t="s">
+        <v>509</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="103" ht="15" spans="1:3">
-      <c r="A103" s="15"/>
+      <c r="A103" s="16"/>
       <c r="B103" s="3"/>
       <c r="C103" s="4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="104" ht="15" spans="1:3">
-      <c r="A104" s="15"/>
+      <c r="A104" s="16"/>
       <c r="B104" s="3"/>
       <c r="C104" s="4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="105" ht="15" spans="1:3">
-      <c r="A105" s="15"/>
+      <c r="A105" s="16"/>
       <c r="B105" s="3"/>
       <c r="C105" s="4" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="106" ht="15" spans="1:3">
-      <c r="A106" s="15"/>
+      <c r="A106" s="16"/>
       <c r="B106" s="3"/>
       <c r="C106" s="4" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="107" ht="15" spans="1:3">
-      <c r="A107" s="15"/>
+      <c r="A107" s="16"/>
       <c r="B107" s="3"/>
       <c r="C107" s="4" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="108" ht="15" spans="1:3">
-      <c r="A108" s="15"/>
+      <c r="A108" s="16"/>
       <c r="B108" s="3"/>
       <c r="C108" s="4" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="109" ht="15" spans="1:3">
-      <c r="A109" s="15"/>
+      <c r="A109" s="16"/>
       <c r="B109" s="3"/>
       <c r="C109" s="4" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="110" ht="15" spans="1:3">
-      <c r="A110" s="15"/>
+      <c r="A110" s="16"/>
       <c r="B110" s="3"/>
       <c r="C110" s="4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="111" ht="18.75" spans="1:3">
-      <c r="A111" s="15"/>
-      <c r="B111" s="18"/>
+      <c r="A111" s="16"/>
+      <c r="B111" s="19"/>
       <c r="C111" s="4"/>
     </row>
     <row r="112" ht="15" spans="1:3">
-      <c r="A112" s="15"/>
+      <c r="A112" s="16"/>
       <c r="B112" s="9" t="s">
         <v>82</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="113" ht="15" spans="1:3">
-      <c r="A113" s="15"/>
+      <c r="A113" s="16"/>
       <c r="B113" s="9"/>
       <c r="C113" s="4" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="114" customFormat="1" ht="9" customHeight="1" spans="1:3">
@@ -7997,714 +8031,714 @@
     </row>
     <row r="115" ht="24.75" spans="1:3">
       <c r="A115" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
     </row>
     <row r="116" ht="15" spans="1:3">
-      <c r="A116" s="15" t="s">
-        <v>520</v>
+      <c r="A116" s="16" t="s">
+        <v>521</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="117" ht="15" spans="1:3">
-      <c r="A117" s="19"/>
+      <c r="A117" s="20"/>
       <c r="B117" s="6"/>
       <c r="C117" s="4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="118" ht="15" spans="1:3">
-      <c r="A118" s="19"/>
+      <c r="A118" s="20"/>
       <c r="B118" s="6"/>
       <c r="C118" s="4" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="119" ht="15" spans="1:3">
-      <c r="A119" s="19"/>
+      <c r="A119" s="20"/>
       <c r="B119" s="6"/>
       <c r="C119" s="4" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="120" ht="15" spans="1:3">
-      <c r="A120" s="19"/>
+      <c r="A120" s="20"/>
       <c r="B120" s="6"/>
       <c r="C120" s="4" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="121" ht="15" spans="1:3">
-      <c r="A121" s="19"/>
+      <c r="A121" s="20"/>
       <c r="B121" s="6"/>
       <c r="C121" s="4" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="122" ht="15" spans="1:3">
-      <c r="A122" s="19"/>
+      <c r="A122" s="20"/>
       <c r="B122" s="6"/>
       <c r="C122" s="4" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="123" ht="15" spans="1:3">
-      <c r="A123" s="19"/>
+      <c r="A123" s="20"/>
       <c r="B123" s="6"/>
       <c r="C123" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="124" ht="15" spans="1:3">
-      <c r="A124" s="19"/>
+      <c r="A124" s="20"/>
       <c r="B124" s="6"/>
       <c r="C124" s="4" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1" spans="1:3">
-      <c r="A125" s="19"/>
+      <c r="A125" s="20"/>
       <c r="B125" s="6"/>
       <c r="C125" s="4" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1" spans="1:3">
-      <c r="A126" s="19"/>
+      <c r="A126" s="20"/>
       <c r="B126" s="6"/>
       <c r="C126" s="4" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1" spans="1:3">
-      <c r="A127" s="19"/>
+      <c r="A127" s="20"/>
       <c r="B127" s="6"/>
       <c r="C127" s="4" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="128" ht="15" spans="1:3">
-      <c r="A128" s="19"/>
+      <c r="A128" s="20"/>
       <c r="B128" s="6"/>
       <c r="C128" s="4" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="129" ht="15" spans="1:3">
-      <c r="A129" s="19"/>
+      <c r="A129" s="20"/>
       <c r="B129" s="6"/>
       <c r="C129" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="130" ht="18.75" spans="1:3">
-      <c r="A130" s="15"/>
-      <c r="B130" s="16"/>
+      <c r="A130" s="16"/>
+      <c r="B130" s="17"/>
       <c r="C130" s="4"/>
     </row>
     <row r="131" ht="15" spans="1:3">
-      <c r="A131" s="15" t="s">
-        <v>534</v>
+      <c r="A131" s="16" t="s">
+        <v>535</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="132" ht="15" spans="1:3">
-      <c r="A132" s="15"/>
+      <c r="A132" s="16"/>
       <c r="B132" s="6"/>
       <c r="C132" s="4" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="133" ht="15" spans="1:3">
-      <c r="A133" s="15"/>
+      <c r="A133" s="16"/>
       <c r="B133" s="6"/>
       <c r="C133" s="4" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="134" ht="15" spans="1:3">
-      <c r="A134" s="15"/>
+      <c r="A134" s="16"/>
       <c r="B134" s="6"/>
       <c r="C134" s="4" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="135" ht="15" spans="1:3">
-      <c r="A135" s="15"/>
+      <c r="A135" s="16"/>
       <c r="B135" s="6"/>
       <c r="C135" s="4" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="136" ht="15" spans="1:3">
-      <c r="A136" s="15"/>
+      <c r="A136" s="16"/>
       <c r="B136" s="6"/>
       <c r="C136" s="4" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="137" ht="15" spans="1:3">
-      <c r="A137" s="15"/>
+      <c r="A137" s="16"/>
       <c r="B137" s="6"/>
       <c r="C137" s="4" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="138" ht="18.75" spans="1:3">
-      <c r="A138" s="15"/>
-      <c r="B138" s="16"/>
+      <c r="A138" s="16"/>
+      <c r="B138" s="17"/>
       <c r="C138" s="4"/>
     </row>
     <row r="139" ht="15" spans="1:3">
-      <c r="A139" s="15" t="s">
-        <v>541</v>
+      <c r="A139" s="16" t="s">
+        <v>542</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="140" ht="15" spans="1:3">
-      <c r="A140" s="15"/>
+      <c r="A140" s="16"/>
       <c r="B140" s="6"/>
       <c r="C140" s="4" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="141" ht="15" spans="1:3">
-      <c r="A141" s="15"/>
+      <c r="A141" s="16"/>
       <c r="B141" s="6"/>
       <c r="C141" s="4" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="142" ht="15" spans="1:3">
-      <c r="A142" s="15"/>
+      <c r="A142" s="16"/>
       <c r="B142" s="6"/>
       <c r="C142" s="4" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="143" ht="18" spans="1:3">
-      <c r="A143" s="15"/>
-      <c r="B143" s="16"/>
+      <c r="A143" s="16"/>
+      <c r="B143" s="17"/>
       <c r="C143" s="4"/>
     </row>
     <row r="144" ht="15" spans="1:3">
-      <c r="A144" s="15"/>
+      <c r="A144" s="16"/>
       <c r="B144" s="6" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="145" ht="15" spans="1:3">
-      <c r="A145" s="15"/>
+      <c r="A145" s="16"/>
       <c r="B145" s="6"/>
       <c r="C145" s="4" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="146" ht="15" spans="1:3">
-      <c r="A146" s="15"/>
+      <c r="A146" s="16"/>
       <c r="B146" s="6"/>
       <c r="C146" s="4" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="147" ht="15" spans="1:3">
-      <c r="A147" s="15"/>
+      <c r="A147" s="16"/>
       <c r="B147" s="6"/>
       <c r="C147" s="4" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="148" ht="15" spans="1:3">
-      <c r="A148" s="15"/>
+      <c r="A148" s="16"/>
       <c r="B148" s="6"/>
       <c r="C148" s="4" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="149" ht="15" spans="1:3">
-      <c r="A149" s="15"/>
+      <c r="A149" s="16"/>
       <c r="B149" s="6"/>
       <c r="C149" s="4" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="150" ht="15" spans="1:3">
-      <c r="A150" s="15"/>
+      <c r="A150" s="16"/>
       <c r="B150" s="6"/>
       <c r="C150" s="4" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="151" ht="15" spans="1:3">
-      <c r="A151" s="15"/>
+      <c r="A151" s="16"/>
       <c r="B151" s="6"/>
       <c r="C151" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="152" ht="15" spans="2:3">
-      <c r="B152" s="20"/>
+      <c r="B152" s="21"/>
       <c r="C152" s="4"/>
     </row>
     <row r="153" ht="15" spans="1:3">
-      <c r="A153" s="15" t="s">
-        <v>554</v>
+      <c r="A153" s="16" t="s">
+        <v>555</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="154" ht="15" spans="1:3">
-      <c r="A154" s="15"/>
+      <c r="A154" s="16"/>
       <c r="B154" s="6"/>
       <c r="C154" s="4" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="155" ht="15" spans="1:3">
-      <c r="A155" s="15"/>
+      <c r="A155" s="16"/>
       <c r="B155" s="6"/>
       <c r="C155" s="4" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="156" ht="15" spans="1:3">
-      <c r="A156" s="15"/>
+      <c r="A156" s="16"/>
       <c r="B156" s="6"/>
       <c r="C156" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="157" ht="15" spans="1:3">
-      <c r="A157" s="15"/>
+      <c r="A157" s="16"/>
       <c r="B157" s="6"/>
       <c r="C157" s="4" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="158" ht="15" spans="1:3">
-      <c r="A158" s="15"/>
+      <c r="A158" s="16"/>
       <c r="B158" s="6"/>
       <c r="C158" s="4" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="159" ht="15" spans="1:3">
-      <c r="A159" s="15"/>
+      <c r="A159" s="16"/>
       <c r="B159" s="6"/>
       <c r="C159" s="4" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="160" ht="15" spans="1:3">
-      <c r="A160" s="15"/>
+      <c r="A160" s="16"/>
       <c r="B160" s="6"/>
       <c r="C160" s="4" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="161" ht="15" spans="1:3">
-      <c r="A161" s="15"/>
+      <c r="A161" s="16"/>
       <c r="B161" s="6"/>
       <c r="C161" s="4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="162" ht="18.75" spans="1:3">
-      <c r="A162" s="15"/>
-      <c r="B162" s="16"/>
+      <c r="A162" s="16"/>
+      <c r="B162" s="17"/>
       <c r="C162" s="4"/>
     </row>
     <row r="163" ht="15" spans="1:3">
-      <c r="A163" s="15"/>
+      <c r="A163" s="16"/>
       <c r="B163" s="9" t="s">
         <v>82</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="164" ht="15" spans="1:3">
-      <c r="A164" s="15"/>
+      <c r="A164" s="16"/>
       <c r="B164" s="9"/>
       <c r="C164" s="4" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="165" ht="13" customHeight="1" spans="1:3">
-      <c r="A165" s="21"/>
-      <c r="B165" s="21"/>
-      <c r="C165" s="21"/>
+      <c r="A165" s="22"/>
+      <c r="B165" s="22"/>
+      <c r="C165" s="22"/>
     </row>
     <row r="166" ht="24.75" spans="1:3">
       <c r="A166" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
     </row>
     <row r="167" ht="15" spans="1:3">
-      <c r="A167" s="15" t="s">
-        <v>566</v>
+      <c r="A167" s="16" t="s">
+        <v>567</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="168" ht="15" spans="1:3">
-      <c r="A168" s="15"/>
+      <c r="A168" s="16"/>
       <c r="B168" s="6"/>
       <c r="C168" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="169" ht="15" spans="1:3">
-      <c r="A169" s="15"/>
+      <c r="A169" s="16"/>
       <c r="B169" s="6"/>
       <c r="C169" s="4" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="170" ht="15" spans="1:3">
-      <c r="A170" s="15"/>
+      <c r="A170" s="16"/>
       <c r="B170" s="6"/>
       <c r="C170" s="4" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="171" ht="15" spans="1:3">
-      <c r="A171" s="15"/>
+      <c r="A171" s="16"/>
       <c r="B171" s="6"/>
       <c r="C171" s="4" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="172" ht="15" spans="1:3">
-      <c r="A172" s="15"/>
+      <c r="A172" s="16"/>
       <c r="B172" s="6"/>
       <c r="C172" s="4" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="173" ht="15" spans="1:3">
-      <c r="A173" s="15"/>
+      <c r="A173" s="16"/>
       <c r="B173" s="6"/>
       <c r="C173" s="4" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="174" ht="15" spans="1:3">
-      <c r="A174" s="15"/>
+      <c r="A174" s="16"/>
       <c r="B174" s="6"/>
       <c r="C174" s="4" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" s="15"/>
-      <c r="C175" s="20"/>
+      <c r="A175" s="16"/>
+      <c r="C175" s="21"/>
     </row>
     <row r="176" ht="23" customHeight="1" spans="1:3">
-      <c r="A176" s="15"/>
+      <c r="A176" s="16"/>
       <c r="B176" s="6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="177" ht="15" spans="1:3">
-      <c r="A177" s="15"/>
+      <c r="A177" s="16"/>
       <c r="B177" s="6"/>
       <c r="C177" s="4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="178" ht="15" spans="1:3">
-      <c r="A178" s="15"/>
+      <c r="A178" s="16"/>
       <c r="B178" s="6"/>
       <c r="C178" s="4" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="179" ht="15" spans="1:3">
-      <c r="A179" s="15"/>
+      <c r="A179" s="16"/>
       <c r="B179" s="6"/>
       <c r="C179" s="4" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="180" ht="15" spans="1:3">
-      <c r="A180" s="15"/>
+      <c r="A180" s="16"/>
       <c r="B180" s="6"/>
       <c r="C180" s="4" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="181" ht="15" spans="1:3">
-      <c r="A181" s="15"/>
+      <c r="A181" s="16"/>
       <c r="B181" s="6"/>
       <c r="C181" s="4" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="182" ht="15" spans="1:3">
-      <c r="A182" s="15"/>
+      <c r="A182" s="16"/>
       <c r="B182" s="6"/>
       <c r="C182" s="4" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="183" ht="15" spans="1:3">
-      <c r="A183" s="15"/>
+      <c r="A183" s="16"/>
       <c r="B183" s="6"/>
       <c r="C183" s="4" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="184" ht="15" spans="1:3">
-      <c r="A184" s="15"/>
+      <c r="A184" s="16"/>
       <c r="B184" s="6"/>
       <c r="C184" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="185" ht="15" spans="1:3">
-      <c r="A185" s="15"/>
+      <c r="A185" s="16"/>
       <c r="B185" s="6"/>
       <c r="C185" s="4" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="186" ht="15" spans="1:3">
-      <c r="A186" s="15"/>
+      <c r="A186" s="16"/>
       <c r="B186" s="6"/>
       <c r="C186" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="187" ht="15" spans="1:3">
-      <c r="A187" s="15"/>
+      <c r="A187" s="16"/>
       <c r="B187" s="6"/>
       <c r="C187" s="4" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="188" ht="15" spans="1:3">
-      <c r="A188" s="15"/>
+      <c r="A188" s="16"/>
       <c r="B188" s="6"/>
       <c r="C188" s="4" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="189" ht="15" spans="1:3">
-      <c r="A189" s="15"/>
+      <c r="A189" s="16"/>
       <c r="B189" s="6"/>
       <c r="C189" s="4" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="190" ht="15" spans="3:3">
       <c r="C190" s="4"/>
     </row>
     <row r="191" ht="15" spans="1:3">
-      <c r="A191" s="15" t="s">
-        <v>588</v>
+      <c r="A191" s="16" t="s">
+        <v>589</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="192" ht="15" spans="1:3">
-      <c r="A192" s="15"/>
+      <c r="A192" s="16"/>
       <c r="B192" s="6"/>
       <c r="C192" s="4" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="193" ht="15" spans="1:3">
-      <c r="A193" s="15"/>
+      <c r="A193" s="16"/>
       <c r="B193" s="6"/>
       <c r="C193" s="4" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="194" ht="15" spans="1:3">
-      <c r="A194" s="15"/>
+      <c r="A194" s="16"/>
       <c r="B194" s="6"/>
       <c r="C194" s="4" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="195" ht="15" spans="1:3">
-      <c r="A195" s="15"/>
+      <c r="A195" s="16"/>
       <c r="B195" s="6"/>
       <c r="C195" s="4" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="196" ht="15" spans="1:3">
-      <c r="A196" s="15"/>
+      <c r="A196" s="16"/>
       <c r="B196" s="6"/>
       <c r="C196" s="4" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="197" ht="15" spans="1:3">
-      <c r="A197" s="15"/>
+      <c r="A197" s="16"/>
       <c r="B197" s="6"/>
       <c r="C197" s="4" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="198" ht="15" spans="3:3">
       <c r="C198" s="4"/>
     </row>
     <row r="199" ht="15" spans="1:3">
-      <c r="A199" s="15" t="s">
-        <v>597</v>
+      <c r="A199" s="16" t="s">
+        <v>598</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="200" ht="15" spans="1:3">
-      <c r="A200" s="15"/>
+      <c r="A200" s="16"/>
       <c r="B200" s="6"/>
       <c r="C200" s="4" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="201" ht="15" spans="1:3">
-      <c r="A201" s="15"/>
+      <c r="A201" s="16"/>
       <c r="B201" s="6"/>
       <c r="C201" s="4" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="202" ht="15" spans="1:3">
-      <c r="A202" s="15"/>
+      <c r="A202" s="16"/>
       <c r="B202" s="6"/>
       <c r="C202" s="4" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="203" ht="15" spans="1:3">
-      <c r="A203" s="15"/>
+      <c r="A203" s="16"/>
       <c r="B203" s="6"/>
       <c r="C203" s="4" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="204" ht="15" spans="1:3">
-      <c r="A204" s="15"/>
+      <c r="A204" s="16"/>
       <c r="B204" s="6"/>
       <c r="C204" s="4" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="205" ht="15" spans="1:3">
-      <c r="A205" s="15"/>
+      <c r="A205" s="16"/>
       <c r="B205" s="6"/>
       <c r="C205" s="4" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="206" ht="15" spans="1:3">
-      <c r="A206" s="15"/>
+      <c r="A206" s="16"/>
       <c r="B206" s="6"/>
       <c r="C206" s="4" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="207" ht="15" spans="1:3">
-      <c r="A207" s="15"/>
+      <c r="A207" s="16"/>
       <c r="B207" s="6"/>
       <c r="C207" s="4" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="208" ht="15" spans="1:3">
-      <c r="A208" s="15"/>
+      <c r="A208" s="16"/>
       <c r="B208" s="6"/>
       <c r="C208" s="4" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="209" ht="15" spans="1:3">
-      <c r="A209" s="15"/>
+      <c r="A209" s="16"/>
       <c r="B209" s="6"/>
       <c r="C209" s="4" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="210" ht="15" spans="3:3">
       <c r="C210" s="4"/>
     </row>
     <row r="211" ht="15" spans="1:3">
-      <c r="A211" s="15"/>
+      <c r="A211" s="16"/>
       <c r="B211" s="9" t="s">
         <v>82</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="212" ht="15" spans="1:3">
-      <c r="A212" s="15"/>
+      <c r="A212" s="16"/>
       <c r="B212" s="9"/>
       <c r="C212" s="4" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="213" ht="11" customHeight="1" spans="1:3">
-      <c r="A213" s="21"/>
-      <c r="B213" s="21"/>
-      <c r="C213" s="21"/>
+      <c r="A213" s="22"/>
+      <c r="B213" s="22"/>
+      <c r="C213" s="22"/>
     </row>
     <row r="218" ht="18.75" spans="1:2">
-      <c r="A218" s="22" t="s">
-        <v>612</v>
+      <c r="A218" s="23" t="s">
+        <v>613</v>
       </c>
       <c r="B218" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="219" ht="18.75" spans="1:2">
-      <c r="A219" s="22" t="s">
-        <v>613</v>
+      <c r="A219" s="23" t="s">
+        <v>614</v>
       </c>
       <c r="B219" s="14">
         <v>32</v>
@@ -8776,9 +8810,9 @@
   <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -8802,7 +8836,7 @@
     </row>
     <row r="2" ht="24.75" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -8823,10 +8857,10 @@
     </row>
     <row r="5" ht="15" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>26</v>
@@ -8836,49 +8870,49 @@
       <c r="A6" s="7"/>
       <c r="B6" s="6"/>
       <c r="C6" s="4" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
       <c r="A7" s="7"/>
       <c r="B7" s="6"/>
       <c r="C7" s="4" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
       <c r="A8" s="7"/>
       <c r="B8" s="6"/>
       <c r="C8" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
       <c r="A9" s="7"/>
       <c r="B9" s="6"/>
       <c r="C9" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
       <c r="A10" s="7"/>
       <c r="B10" s="6"/>
       <c r="C10" s="4" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:3">
       <c r="A11" s="7"/>
       <c r="B11" s="6"/>
       <c r="C11" s="4" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
       <c r="A12" s="7"/>
       <c r="B12" s="6"/>
       <c r="C12" s="4" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
@@ -8894,7 +8928,7 @@
     <row r="15" ht="15" spans="1:3">
       <c r="A15" s="7"/>
       <c r="B15" s="6" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>26</v>
@@ -8904,56 +8938,56 @@
       <c r="A16" s="7"/>
       <c r="B16" s="6"/>
       <c r="C16" s="4" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
       <c r="A17" s="7"/>
       <c r="B17" s="6"/>
       <c r="C17" s="4" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
       <c r="A18" s="7"/>
       <c r="B18" s="6"/>
       <c r="C18" s="4" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:3">
       <c r="A19" s="7"/>
       <c r="B19" s="6"/>
       <c r="C19" s="4" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:3">
       <c r="A20" s="7"/>
       <c r="B20" s="6"/>
       <c r="C20" s="4" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
       <c r="A21" s="7"/>
       <c r="B21" s="6"/>
       <c r="C21" s="4" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
       <c r="A22" s="7"/>
       <c r="B22" s="6"/>
       <c r="C22" s="4" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:3">
       <c r="A23" s="7"/>
       <c r="B23" s="6"/>
       <c r="C23" s="4" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:3">
@@ -8971,7 +9005,7 @@
     <row r="26" ht="15" spans="1:3">
       <c r="A26" s="7"/>
       <c r="B26" s="6" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>26</v>
@@ -8981,56 +9015,56 @@
       <c r="A27" s="7"/>
       <c r="B27" s="6"/>
       <c r="C27" s="4" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:3">
       <c r="A28" s="7"/>
       <c r="B28" s="6"/>
       <c r="C28" s="4" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:3">
       <c r="A29" s="7"/>
       <c r="B29" s="6"/>
       <c r="C29" s="4" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:3">
       <c r="A30" s="7"/>
       <c r="B30" s="6"/>
       <c r="C30" s="4" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:3">
       <c r="A31" s="7"/>
       <c r="B31" s="6"/>
       <c r="C31" s="4" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:3">
       <c r="A32" s="7"/>
       <c r="B32" s="6"/>
       <c r="C32" s="4" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:3">
       <c r="A33" s="7"/>
       <c r="B33" s="6"/>
       <c r="C33" s="4" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:3">
       <c r="A34" s="7"/>
       <c r="B34" s="6"/>
       <c r="C34" s="4" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:3">
@@ -9048,7 +9082,7 @@
     <row r="37" ht="15" spans="1:3">
       <c r="A37" s="7"/>
       <c r="B37" s="6" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>26</v>
@@ -9058,56 +9092,56 @@
       <c r="A38" s="7"/>
       <c r="B38" s="6"/>
       <c r="C38" s="4" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:3">
       <c r="A39" s="7"/>
       <c r="B39" s="6"/>
       <c r="C39" s="4" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:3">
       <c r="A40" s="7"/>
       <c r="B40" s="6"/>
       <c r="C40" s="4" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="41" ht="15" spans="1:3">
       <c r="A41" s="7"/>
       <c r="B41" s="6"/>
       <c r="C41" s="4" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:3">
       <c r="A42" s="7"/>
       <c r="B42" s="6"/>
       <c r="C42" s="4" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:3">
       <c r="A43" s="7"/>
       <c r="B43" s="6"/>
       <c r="C43" s="4" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:3">
       <c r="A44" s="7"/>
       <c r="B44" s="6"/>
       <c r="C44" s="4" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:3">
       <c r="A45" s="7"/>
       <c r="B45" s="6"/>
       <c r="C45" s="4" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:3">
@@ -9125,17 +9159,17 @@
     <row r="48" ht="15" spans="1:3">
       <c r="A48" s="7"/>
       <c r="B48" s="9" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="49" ht="30" spans="1:3">
       <c r="A49" s="7"/>
       <c r="B49" s="9"/>
       <c r="C49" s="11" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="50" customFormat="1" ht="9" customHeight="1" spans="1:3">
@@ -9145,7 +9179,7 @@
     </row>
     <row r="55" ht="18.75" spans="1:2">
       <c r="A55" s="13" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B55" s="14">
         <v>1</v>
@@ -9153,7 +9187,7 @@
     </row>
     <row r="56" ht="18.75" spans="1:2">
       <c r="A56" s="13" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B56" s="14">
         <v>8</v>

--- a/Java Apps @ DXC - Track 2 - TOC.xlsx
+++ b/Java Apps @ DXC - Track 2 - TOC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" activeTab="3"/>
+    <workbookView windowWidth="20490" windowHeight="7815" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="7" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="657">
   <si>
     <t>Track 2</t>
   </si>
@@ -80,841 +80,844 @@
     <t>Sections</t>
   </si>
   <si>
+    <t>MCQs</t>
+  </si>
+  <si>
+    <t>Day 11</t>
+  </si>
+  <si>
+    <t>Weekly MCQs 3</t>
+  </si>
+  <si>
+    <t>Spring Framework:                           Spring Fundamentals</t>
+  </si>
+  <si>
+    <t>1. Course Overview</t>
+  </si>
+  <si>
+    <t>2. What Is Spring?</t>
+  </si>
+  <si>
+    <t>1. Introduction</t>
+  </si>
+  <si>
+    <t>3. Update</t>
+  </si>
+  <si>
+    <t>4. The Problem</t>
+  </si>
+  <si>
+    <t>5. Business Focus</t>
+  </si>
+  <si>
+    <t>6. The Solution</t>
+  </si>
+  <si>
+    <t>7. Business Focus Revisited</t>
+  </si>
+  <si>
+    <t>8. How It Works</t>
+  </si>
+  <si>
+    <t>9. Demo: What We Are Building</t>
+  </si>
+  <si>
+    <t>10. Summary</t>
+  </si>
+  <si>
+    <t>3. Architecture and Project Setup</t>
+  </si>
+  <si>
+    <t>1. Sample App Intro</t>
+  </si>
+  <si>
+    <t>2. Architecture</t>
+  </si>
+  <si>
+    <t>3. Prerequisites</t>
+  </si>
+  <si>
+    <t>4. Sample App Setup</t>
+  </si>
+  <si>
+    <t>5. Demo: Sample App Add Model</t>
+  </si>
+  <si>
+    <t>6. Demo: Sample App Add Repository</t>
+  </si>
+  <si>
+    <t>7. Demo: Sample App Add Service</t>
+  </si>
+  <si>
+    <t>8. Demo: Sample App Run Application</t>
+  </si>
+  <si>
+    <t>9. Configuration</t>
+  </si>
+  <si>
+    <t>10. Demo: Pain Points Walkthrough</t>
+  </si>
+  <si>
+    <t>11. Spring Download</t>
+  </si>
+  <si>
+    <t>12. Demo: Spring Download Maven</t>
+  </si>
+  <si>
+    <t>13. Summary</t>
+  </si>
+  <si>
+    <t>4. Spring Configuration Using Java</t>
+  </si>
+  <si>
+    <t>1. Java Configuration Introduction</t>
+  </si>
+  <si>
+    <t>2. Demo: Copy Project</t>
+  </si>
+  <si>
+    <t>3. Demo: App Config</t>
+  </si>
+  <si>
+    <t>4. Demo: @Configuration</t>
+  </si>
+  <si>
+    <t>5. Setter Injection</t>
+  </si>
+  <si>
+    <t>6. Demo: Setter Injection</t>
+  </si>
+  <si>
+    <t>7. Constructor Injection</t>
+  </si>
+  <si>
+    <t>5. Spring Scopes and Autowiring</t>
+  </si>
+  <si>
+    <t>1. Bean Scope Introduction</t>
+  </si>
+  <si>
+    <t>2. Scopes</t>
+  </si>
+  <si>
+    <t>3. Singleton Java Config</t>
+  </si>
+  <si>
+    <t>4. Prototype Java Config</t>
+  </si>
+  <si>
+    <t>5. Web Scopes</t>
+  </si>
+  <si>
+    <t>6. Autowired</t>
+  </si>
+  <si>
+    <t>7. Demo: Autowired</t>
+  </si>
+  <si>
+    <t>8. Stereotype Annotations</t>
+  </si>
+  <si>
+    <t>9. Summary</t>
+  </si>
+  <si>
+    <t>6. Spring Configuration Using XML</t>
+  </si>
+  <si>
+    <t>1. XML Config Introduction</t>
+  </si>
+  <si>
+    <t>3. applicationContext.xml</t>
+  </si>
+  <si>
+    <t>4. Bean Definition</t>
+  </si>
+  <si>
+    <t>5. Demo: Add Bean</t>
+  </si>
+  <si>
+    <t>8. Autowiring</t>
+  </si>
+  <si>
+    <t>9. Demo: Autowired</t>
+  </si>
+  <si>
+    <t>7. Advanced Bean Configuration</t>
+  </si>
+  <si>
+    <t>1. Advanced Bean Configuration Introduction</t>
+  </si>
+  <si>
+    <t>2. Bean Lifecycle</t>
+  </si>
+  <si>
+    <t>3. FactoryBean</t>
+  </si>
+  <si>
+    <t>5. SpEL</t>
+  </si>
+  <si>
+    <t>6. Proxies</t>
+  </si>
+  <si>
+    <t>7. Bean Profiles</t>
+  </si>
+  <si>
+    <t>8. Summary</t>
+  </si>
+  <si>
+    <t>Hands On Assignments</t>
+  </si>
+  <si>
+    <t>Spring Framework : Spring Fundamentals</t>
+  </si>
+  <si>
+    <t>Hands On Lab 1 -  Spring Basics</t>
+  </si>
+  <si>
+    <t>Hands On Lab 2 -  Spring Basics</t>
+  </si>
+  <si>
+    <t>Hands On Lab 3 -Spring Inversion Of Control</t>
+  </si>
+  <si>
+    <t>Hands On Lab 4 -Spring Inversion Of Control</t>
+  </si>
+  <si>
+    <t>Day 12</t>
+  </si>
+  <si>
+    <t>Spring Boot Fundamentals            REST Fundamentals             Components of RESTful Web Services                                         Spring Boot CLI                        Initializing a Spring Boot Project                                                                    Spring Boot Actuator                                                    Spring Boot Developer Tools Spring Boot Testing</t>
+  </si>
+  <si>
+    <t>2. Introducing Spring Boot and Its Benefits</t>
+  </si>
+  <si>
+    <t>1. Getting Started</t>
+  </si>
+  <si>
+    <t>2. Setup and Installation</t>
+  </si>
+  <si>
+    <t>3. Spring Boot Overview</t>
+  </si>
+  <si>
+    <t>4. Features of Spring Boot</t>
+  </si>
+  <si>
+    <t>5. Summary</t>
+  </si>
+  <si>
+    <t>3. Bootstrapping a Simple Application</t>
+  </si>
+  <si>
+    <t>1. Overview</t>
+  </si>
+  <si>
+    <t>2. Demo: Spring Initializr</t>
+  </si>
+  <si>
+    <t>3. Demo: Spring Boot CLI</t>
+  </si>
+  <si>
+    <t>4. Demo: Auto Configuration</t>
+  </si>
+  <si>
+    <t>5. Spring Boot Annotations</t>
+  </si>
+  <si>
+    <t>6. Spring Boot Properties</t>
+  </si>
+  <si>
+    <t>7. Spring Boot Profiles</t>
+  </si>
+  <si>
+    <t>4. Accessing Data with Spring Boot and H2</t>
+  </si>
+  <si>
+    <t>2. H2 Database</t>
+  </si>
+  <si>
+    <t>3. ORM with JPA</t>
+  </si>
+  <si>
+    <t>4. Entities</t>
+  </si>
+  <si>
+    <t>5. Demo: H2 Integration</t>
+  </si>
+  <si>
+    <t>6. Demo: H2 Console</t>
+  </si>
+  <si>
+    <t>7.Summary</t>
+  </si>
+  <si>
+    <t>5. Configuring REST Controllers in a Spring MVC Application with Spring Boot</t>
+  </si>
+  <si>
+    <t>2. MVC Design Pattern</t>
+  </si>
+  <si>
+    <t>3. Demo: MVC in Action</t>
+  </si>
+  <si>
+    <t>4. Packaging and Deployment</t>
+  </si>
+  <si>
+    <t>5. Demo: Uber Jar</t>
+  </si>
+  <si>
+    <t>6. Summary</t>
+  </si>
+  <si>
+    <t>6. Building a RESTful Web Application with Spring Boot</t>
+  </si>
+  <si>
+    <t>2. REST Architecture</t>
+  </si>
+  <si>
+    <t>3.Demo: RESTful Web Application</t>
+  </si>
+  <si>
+    <t>4.Demo: Testing with cURL</t>
+  </si>
+  <si>
+    <t>5.Response Formats</t>
+  </si>
+  <si>
+    <t>6.Exception Handling</t>
+  </si>
+  <si>
+    <t>7. Demo: Exception Handling</t>
+  </si>
+  <si>
+    <t>7. Enabling Actuators, Metrics, and Health Indicators</t>
+  </si>
+  <si>
+    <t>2. Actuator</t>
+  </si>
+  <si>
+    <t>3. Custom Endpoints</t>
+  </si>
+  <si>
+    <t>4. Summary</t>
+  </si>
+  <si>
+    <t>8. Spring Boot Dev Tools</t>
+  </si>
+  <si>
+    <t>1. Property defaults</t>
+  </si>
+  <si>
+    <t>2. Automatic Restart</t>
+  </si>
+  <si>
+    <t>3. Live Reload</t>
+  </si>
+  <si>
+    <t>4. Global settings</t>
+  </si>
+  <si>
+    <t>5. Remote applications</t>
+  </si>
+  <si>
+    <t>9. Testing with Spring Boot</t>
+  </si>
+  <si>
+    <t>2. Testing Overview</t>
+  </si>
+  <si>
+    <t>3. Unit Testing</t>
+  </si>
+  <si>
+    <t>4. Integration Tests</t>
+  </si>
+  <si>
+    <t>5. Course Recap</t>
+  </si>
+  <si>
+    <t>Spring Boot</t>
+  </si>
+  <si>
+    <t>Hands On Lab 1 -  A Simple RESTful API in Spring Boot</t>
+  </si>
+  <si>
+    <t>Hands On Lab 2 -  Spring Boot with H2 Database</t>
+  </si>
+  <si>
+    <t>Day 13</t>
+  </si>
+  <si>
+    <t>Spring MVC</t>
+  </si>
+  <si>
+    <t>2. What Is Spring MVC?</t>
+  </si>
+  <si>
+    <t>2. Course Update</t>
+  </si>
+  <si>
+    <t>3. Request / Response Lifecycle</t>
+  </si>
+  <si>
+    <t>4. Vocabulary</t>
+  </si>
+  <si>
+    <t>5.What Are We Going to Build?</t>
+  </si>
+  <si>
+    <t>3. Creating Your First Spring MVC Application</t>
+  </si>
+  <si>
+    <t>2. Getting Spring</t>
+  </si>
+  <si>
+    <t>3. Demo: Project Setup</t>
+  </si>
+  <si>
+    <t>4. Demo: Tomcat Configuration</t>
+  </si>
+  <si>
+    <t>5. Spring MVC Configuration</t>
+  </si>
+  <si>
+    <t>6. Demo: Greeting Controller</t>
+  </si>
+  <si>
+    <t>7. Summary</t>
+  </si>
+  <si>
+    <t>4. Understanding the Structure of Spring MVC Applications</t>
+  </si>
+  <si>
+    <t>2. Model-View-Controller</t>
+  </si>
+  <si>
+    <t>3. Application Layers</t>
+  </si>
+  <si>
+    <t>4. Spring Components</t>
+  </si>
+  <si>
+    <t>5. Creating Controllers in Spring MVC</t>
+  </si>
+  <si>
+    <t>2. What Is a Controller?</t>
+  </si>
+  <si>
+    <t>3. @Controller</t>
+  </si>
+  <si>
+    <t>4. Demo: Registration Controller</t>
+  </si>
+  <si>
+    <t>5. @ModelAttribute</t>
+  </si>
+  <si>
+    <t>6. Demo: Passing Parameters</t>
+  </si>
+  <si>
+    <t>6. Creating Views in Spring MVC Applications</t>
+  </si>
+  <si>
+    <t>2. Demo: View Configuration</t>
+  </si>
+  <si>
+    <t>3. Demo: View Resolver</t>
+  </si>
+  <si>
+    <t>4. Resolving a View</t>
+  </si>
+  <si>
+    <t>5. Resolve Static Files</t>
+  </si>
+  <si>
+    <t>7. Using Java Server Pages with Spring MVC View</t>
+  </si>
+  <si>
+    <t>2. I18N and Interceptors</t>
+  </si>
+  <si>
+    <t>3. Demo: Adding Internationalization</t>
+  </si>
+  <si>
+    <t>4. Post-Redirect-Get</t>
+  </si>
+  <si>
+    <t>8. Validating Objects in Spring MVC Applications</t>
+  </si>
+  <si>
+    <t>2. Validator Interface</t>
+  </si>
+  <si>
+    <t>3. Demo: Validator Configuration</t>
+  </si>
+  <si>
+    <t>4. Demo: Validation</t>
+  </si>
+  <si>
+    <t>5. Custom Error Messages</t>
+  </si>
+  <si>
+    <t>9. Using Client-side JavaScript in Spring MVC Applications</t>
+  </si>
+  <si>
+    <t>2. Demo: @RestController</t>
+  </si>
+  <si>
+    <t>3. Postman</t>
+  </si>
+  <si>
+    <t>4. Demo: @PostMapping</t>
+  </si>
+  <si>
+    <t>5. Demo: jQuery Integration</t>
+  </si>
+  <si>
+    <t>Hands On Lab 1 - A Simple RESTful API in Spring Boot</t>
+  </si>
+  <si>
+    <t>Hands On Lab 2 - Creating a Web Application With Spring Boot</t>
+  </si>
+  <si>
+    <t>Day 14</t>
+  </si>
+  <si>
+    <t>Weekly MCQs 4</t>
+  </si>
+  <si>
+    <t>RESTful Web Services with Spring Data JPA and  Hibernate                             Externalized Configurations</t>
+  </si>
+  <si>
+    <t>2. Spring, the Java Persistence API (JPA), and Hibernate</t>
+  </si>
+  <si>
+    <t>2.What Is Spring?</t>
+  </si>
+  <si>
+    <t>3.History</t>
+  </si>
+  <si>
+    <t>4. What Is JPA?</t>
+  </si>
+  <si>
+    <t>5. The Problem</t>
+  </si>
+  <si>
+    <t>3.Walkthrough of the Spring MVC Java App</t>
+  </si>
+  <si>
+    <t>2. Scaffold Application</t>
+  </si>
+  <si>
+    <t>4. The Scaffold App</t>
+  </si>
+  <si>
+    <t>5. Scaffold  App Demo</t>
+  </si>
+  <si>
+    <t>6.What Is in the App?</t>
+  </si>
+  <si>
+    <t>7. Scaffold Application Walkthrough</t>
+  </si>
+  <si>
+    <t>8. Spring MVC Recap</t>
+  </si>
+  <si>
+    <t>4. Architecture Walkthrough of a Spring JPA / Hibernate Application</t>
+  </si>
+  <si>
+    <t>3. MVC Design Pattern</t>
+  </si>
+  <si>
+    <t>4.Tiers</t>
+  </si>
+  <si>
+    <t>5. Components</t>
+  </si>
+  <si>
+    <t>6. Controller</t>
+  </si>
+  <si>
+    <t>7. Service</t>
+  </si>
+  <si>
+    <t>8. Repository</t>
+  </si>
+  <si>
+    <t>5. Recap of Spring Concepts</t>
+  </si>
+  <si>
+    <t>2. Overview of Spring</t>
+  </si>
+  <si>
+    <t>3. Types of Injection</t>
+  </si>
+  <si>
+    <t>4. Setter Injection</t>
+  </si>
+  <si>
+    <t>5. Setter Pojo</t>
+  </si>
+  <si>
+    <t>6. XML and Spring Configuration</t>
+  </si>
+  <si>
+    <t>7. Autowiring Setters</t>
+  </si>
+  <si>
+    <t>8. Constructor Injection</t>
+  </si>
+  <si>
+    <t>9. Spring XML Config Constructor Injection</t>
+  </si>
+  <si>
+    <t>10. Autowiring Constructors</t>
+  </si>
+  <si>
+    <t>11. Context Files</t>
+  </si>
+  <si>
+    <t>12. Summary</t>
+  </si>
+  <si>
+    <t>6. Configuration of Spring and JPA for Development</t>
+  </si>
+  <si>
+    <t>2. Configuration Problems</t>
+  </si>
+  <si>
+    <t>3. Database Overview</t>
+  </si>
+  <si>
+    <t>4.  MySQL Setup and Installation</t>
+  </si>
+  <si>
+    <t>5. persistence.xml</t>
+  </si>
+  <si>
+    <t>6. persistence.xml Demo</t>
+  </si>
+  <si>
+    <t>7. pom.xml</t>
+  </si>
+  <si>
+    <t>8. pom.xml Demo</t>
+  </si>
+  <si>
+    <t>9. jpaContext.xml</t>
+  </si>
+  <si>
+    <t>10. jpaContext.xml Demo</t>
+  </si>
+  <si>
+    <t>11. Entity Manager Factory</t>
+  </si>
+  <si>
+    <t>12. Adding MySql Dependency</t>
+  </si>
+  <si>
+    <t>13. MySQL Maven Demo</t>
+  </si>
+  <si>
+    <t>14. application.properties Demo</t>
+  </si>
+  <si>
+    <t>15. Transactional</t>
+  </si>
+  <si>
+    <t>16. Tips and Tricks</t>
+  </si>
+  <si>
+    <t>17. Logging Configuration</t>
+  </si>
+  <si>
+    <t>18. Summary</t>
+  </si>
+  <si>
+    <t>7. Overview of JPA and Creating Your First Entity</t>
+  </si>
+  <si>
+    <t>2. Creating Your First Entity</t>
+  </si>
+  <si>
+    <t>3. @Entity Demo</t>
+  </si>
+  <si>
+    <t>4. Database Creation</t>
+  </si>
+  <si>
+    <t>5. Database Creation Demo</t>
+  </si>
+  <si>
+    <t>6. Verify Database Demo</t>
+  </si>
+  <si>
+    <t>7. MySQL Workbench Download</t>
+  </si>
+  <si>
+    <t>8. MySQL Workbench Demo</t>
+  </si>
+  <si>
+    <t>9. Run the App and Verify Tables Demo</t>
+  </si>
+  <si>
+    <t>8. JPA Annotations and How to Use Them</t>
+  </si>
+  <si>
+    <t>2. Annotations</t>
+  </si>
+  <si>
+    <t>3. Entity Annotations</t>
+  </si>
+  <si>
+    <t>4. Entity Annotations Demo</t>
+  </si>
+  <si>
+    <t>5.Uppercase Name</t>
+  </si>
+  <si>
+    <t>6. Uppercase Name Demo</t>
+  </si>
+  <si>
+    <t>7. Default Columns</t>
+  </si>
+  <si>
+    <t>8. Column Names Demo</t>
+  </si>
+  <si>
+    <t>9. How We Use It</t>
+  </si>
+  <si>
+    <t>10. Service Demo</t>
+  </si>
+  <si>
+    <t>11. Repository Demo</t>
+  </si>
+  <si>
+    <t>12. Registration end-to-end Demo</t>
+  </si>
+  <si>
+    <t>13. Recap</t>
+  </si>
+  <si>
+    <t>14. Join Types</t>
+  </si>
+  <si>
+    <t>15. @OneToMany</t>
+  </si>
+  <si>
+    <t>16. @OneToMany Demo</t>
+  </si>
+  <si>
+    <t>17. @ManyToOne Demo</t>
+  </si>
+  <si>
+    <t>Spring Data JPA</t>
+  </si>
+  <si>
+    <t>Hands On Lab 1 - Spring Data JPA</t>
+  </si>
+  <si>
+    <t>Hands On Lab 2 - Spring Data JPA</t>
+  </si>
+  <si>
+    <t>Day 15</t>
+  </si>
+  <si>
+    <t>RESTful Web Services with Spring Data JPA and  Hibernate  (contd.)</t>
+  </si>
+  <si>
+    <t>8. JPA Annotations and How to Use Them(contd.)</t>
+  </si>
+  <si>
+    <t>18. Fetch Types</t>
+  </si>
+  <si>
+    <t>19. JPQL</t>
+  </si>
+  <si>
+    <t>20. JPQL Demo</t>
+  </si>
+  <si>
+    <t>21. Projection</t>
+  </si>
+  <si>
+    <t>22. Projection Demo</t>
+  </si>
+  <si>
+    <t>23. Named Queries</t>
+  </si>
+  <si>
+    <t>24. Named Queries Demo</t>
+  </si>
+  <si>
+    <t>25. Summary</t>
+  </si>
+  <si>
+    <t>9. How to Configure and Use Spring Data JPA</t>
+  </si>
+  <si>
+    <t>2. Create vs. Update</t>
+  </si>
+  <si>
+    <t>3. Registration Repository Demo</t>
+  </si>
+  <si>
+    <t>4. Registration Service Demo</t>
+  </si>
+  <si>
+    <t>5. Registration Controller</t>
+  </si>
+  <si>
+    <t>6. Postman Registration Call Demo</t>
+  </si>
+  <si>
+    <t>7. Spring Data JPA</t>
+  </si>
+  <si>
+    <t>8. Maven Dependencies</t>
+  </si>
+  <si>
+    <t>9. UserRepository</t>
+  </si>
+  <si>
+    <t>10. UserRepository with Spring Data Demo</t>
+  </si>
+  <si>
+    <t>11. RegistrationRepository</t>
+  </si>
+  <si>
+    <t>12. RegistrationRepository with Spring Data Demo</t>
+  </si>
+  <si>
+    <t>13. NamedQueries with Spring Data Demo</t>
+  </si>
+  <si>
+    <t>14. Spring Data JPA Recap</t>
+  </si>
+  <si>
+    <t>15. Summary</t>
+  </si>
+  <si>
+    <t>Hand On Assignments</t>
+  </si>
+  <si>
+    <t>Hands On Lab 1  - Spring MVC With Data JPA</t>
+  </si>
+  <si>
+    <t>Hands On Lab 2 - Spring MVC with JSP</t>
+  </si>
+  <si>
+    <t>Total # of Days for Spring</t>
+  </si>
+  <si>
+    <t>Total # of Hours for Spring</t>
+  </si>
+  <si>
     <t xml:space="preserve">MCQs </t>
-  </si>
-  <si>
-    <t>Day 11</t>
-  </si>
-  <si>
-    <t>Weekly MCQs 3</t>
-  </si>
-  <si>
-    <t>Spring Framework:                           Spring Fundamentals</t>
-  </si>
-  <si>
-    <t>1. Course Overview</t>
-  </si>
-  <si>
-    <t>2. What Is Spring?</t>
-  </si>
-  <si>
-    <t>1. Introduction</t>
-  </si>
-  <si>
-    <t>3. Update</t>
-  </si>
-  <si>
-    <t>4. The Problem</t>
-  </si>
-  <si>
-    <t>5. Business Focus</t>
-  </si>
-  <si>
-    <t>6. The Solution</t>
-  </si>
-  <si>
-    <t>7. Business Focus Revisited</t>
-  </si>
-  <si>
-    <t>8. How It Works</t>
-  </si>
-  <si>
-    <t>9. Demo: What We Are Building</t>
-  </si>
-  <si>
-    <t>10. Summary</t>
-  </si>
-  <si>
-    <t>3. Architecture and Project Setup</t>
-  </si>
-  <si>
-    <t>1. Sample App Intro</t>
-  </si>
-  <si>
-    <t>2. Architecture</t>
-  </si>
-  <si>
-    <t>3. Prerequisites</t>
-  </si>
-  <si>
-    <t>4. Sample App Setup</t>
-  </si>
-  <si>
-    <t>5. Demo: Sample App Add Model</t>
-  </si>
-  <si>
-    <t>6. Demo: Sample App Add Repository</t>
-  </si>
-  <si>
-    <t>7. Demo: Sample App Add Service</t>
-  </si>
-  <si>
-    <t>8. Demo: Sample App Run Application</t>
-  </si>
-  <si>
-    <t>9. Configuration</t>
-  </si>
-  <si>
-    <t>10. Demo: Pain Points Walkthrough</t>
-  </si>
-  <si>
-    <t>11. Spring Download</t>
-  </si>
-  <si>
-    <t>12. Demo: Spring Download Maven</t>
-  </si>
-  <si>
-    <t>13. Summary</t>
-  </si>
-  <si>
-    <t>4. Spring Configuration Using Java</t>
-  </si>
-  <si>
-    <t>1. Java Configuration Introduction</t>
-  </si>
-  <si>
-    <t>2. Demo: Copy Project</t>
-  </si>
-  <si>
-    <t>3. Demo: App Config</t>
-  </si>
-  <si>
-    <t>4. Demo: @Configuration</t>
-  </si>
-  <si>
-    <t>5. Setter Injection</t>
-  </si>
-  <si>
-    <t>6. Demo: Setter Injection</t>
-  </si>
-  <si>
-    <t>7. Constructor Injection</t>
-  </si>
-  <si>
-    <t>5. Spring Scopes and Autowiring</t>
-  </si>
-  <si>
-    <t>1. Bean Scope Introduction</t>
-  </si>
-  <si>
-    <t>2. Scopes</t>
-  </si>
-  <si>
-    <t>3. Singleton Java Config</t>
-  </si>
-  <si>
-    <t>4. Prototype Java Config</t>
-  </si>
-  <si>
-    <t>5. Web Scopes</t>
-  </si>
-  <si>
-    <t>6. Autowired</t>
-  </si>
-  <si>
-    <t>7. Demo: Autowired</t>
-  </si>
-  <si>
-    <t>8. Stereotype Annotations</t>
-  </si>
-  <si>
-    <t>9. Summary</t>
-  </si>
-  <si>
-    <t>6. Spring Configuration Using XML</t>
-  </si>
-  <si>
-    <t>1. XML Config Introduction</t>
-  </si>
-  <si>
-    <t>3. applicationContext.xml</t>
-  </si>
-  <si>
-    <t>4. Bean Definition</t>
-  </si>
-  <si>
-    <t>5. Demo: Add Bean</t>
-  </si>
-  <si>
-    <t>8. Autowiring</t>
-  </si>
-  <si>
-    <t>9. Demo: Autowired</t>
-  </si>
-  <si>
-    <t>7. Advanced Bean Configuration</t>
-  </si>
-  <si>
-    <t>1. Advanced Bean Configuration Introduction</t>
-  </si>
-  <si>
-    <t>2. Bean Lifecycle</t>
-  </si>
-  <si>
-    <t>3. FactoryBean</t>
-  </si>
-  <si>
-    <t>5. SpEL</t>
-  </si>
-  <si>
-    <t>6. Proxies</t>
-  </si>
-  <si>
-    <t>7. Bean Profiles</t>
-  </si>
-  <si>
-    <t>8. Summary</t>
-  </si>
-  <si>
-    <t>Hands On Assignments</t>
-  </si>
-  <si>
-    <t>Spring Framework : Spring Fundamentals</t>
-  </si>
-  <si>
-    <t>Hands On Lab 1 -  Spring Basics</t>
-  </si>
-  <si>
-    <t>Hands On Lab 2 -  Spring Basics</t>
-  </si>
-  <si>
-    <t>Hands On Lab 3 -Spring Inversion Of Control</t>
-  </si>
-  <si>
-    <t>Hands On Lab 4 -Spring Inversion Of Control</t>
-  </si>
-  <si>
-    <t>Day 12</t>
-  </si>
-  <si>
-    <t>Spring Boot Fundamentals            REST Fundamentals             Components of RESTful Web Services                                         Spring Boot CLI                        Initializing a Spring Boot Project                                                                    Spring Boot Actuator                                                    Spring Boot Developer Tools Spring Boot Testing</t>
-  </si>
-  <si>
-    <t>2. Introducing Spring Boot and Its Benefits</t>
-  </si>
-  <si>
-    <t>1. Getting Started</t>
-  </si>
-  <si>
-    <t>2. Setup and Installation</t>
-  </si>
-  <si>
-    <t>3. Spring Boot Overview</t>
-  </si>
-  <si>
-    <t>4. Features of Spring Boot</t>
-  </si>
-  <si>
-    <t>5. Summary</t>
-  </si>
-  <si>
-    <t>3. Bootstrapping a Simple Application</t>
-  </si>
-  <si>
-    <t>1. Overview</t>
-  </si>
-  <si>
-    <t>2. Demo: Spring Initializr</t>
-  </si>
-  <si>
-    <t>3. Demo: Spring Boot CLI</t>
-  </si>
-  <si>
-    <t>4. Demo: Auto Configuration</t>
-  </si>
-  <si>
-    <t>5. Spring Boot Annotations</t>
-  </si>
-  <si>
-    <t>6. Spring Boot Properties</t>
-  </si>
-  <si>
-    <t>7. Spring Boot Profiles</t>
-  </si>
-  <si>
-    <t>4. Accessing Data with Spring Boot and H2</t>
-  </si>
-  <si>
-    <t>2. H2 Database</t>
-  </si>
-  <si>
-    <t>3. ORM with JPA</t>
-  </si>
-  <si>
-    <t>4. Entities</t>
-  </si>
-  <si>
-    <t>5. Demo: H2 Integration</t>
-  </si>
-  <si>
-    <t>6. Demo: H2 Console</t>
-  </si>
-  <si>
-    <t>7.Summary</t>
-  </si>
-  <si>
-    <t>5. Configuring REST Controllers in a Spring MVC Application with Spring Boot</t>
-  </si>
-  <si>
-    <t>2. MVC Design Pattern</t>
-  </si>
-  <si>
-    <t>3. Demo: MVC in Action</t>
-  </si>
-  <si>
-    <t>4. Packaging and Deployment</t>
-  </si>
-  <si>
-    <t>5. Demo: Uber Jar</t>
-  </si>
-  <si>
-    <t>6. Summary</t>
-  </si>
-  <si>
-    <t>6. Building a RESTful Web Application with Spring Boot</t>
-  </si>
-  <si>
-    <t>2. REST Architecture</t>
-  </si>
-  <si>
-    <t>3.Demo: RESTful Web Application</t>
-  </si>
-  <si>
-    <t>4.Demo: Testing with cURL</t>
-  </si>
-  <si>
-    <t>5.Response Formats</t>
-  </si>
-  <si>
-    <t>6.Exception Handling</t>
-  </si>
-  <si>
-    <t>7. Demo: Exception Handling</t>
-  </si>
-  <si>
-    <t>7. Enabling Actuators, Metrics, and Health Indicators</t>
-  </si>
-  <si>
-    <t>2. Actuator</t>
-  </si>
-  <si>
-    <t>3. Custom Endpoints</t>
-  </si>
-  <si>
-    <t>4. Summary</t>
-  </si>
-  <si>
-    <t>8. Spring Boot Dev Tools</t>
-  </si>
-  <si>
-    <t>1. Property defaults</t>
-  </si>
-  <si>
-    <t>2. Automatic Restart</t>
-  </si>
-  <si>
-    <t>3. Live Reload</t>
-  </si>
-  <si>
-    <t>4. Global settings</t>
-  </si>
-  <si>
-    <t>5. Remote applications</t>
-  </si>
-  <si>
-    <t>9. Testing with Spring Boot</t>
-  </si>
-  <si>
-    <t>2. Testing Overview</t>
-  </si>
-  <si>
-    <t>3. Unit Testing</t>
-  </si>
-  <si>
-    <t>4. Integration Tests</t>
-  </si>
-  <si>
-    <t>5. Course Recap</t>
-  </si>
-  <si>
-    <t>Spring Boot</t>
-  </si>
-  <si>
-    <t>Hands On Lab 1 -  A Simple RESTful API in Spring Boot</t>
-  </si>
-  <si>
-    <t>Hands On Lab 2 -  Spring Boot with H2 Database</t>
-  </si>
-  <si>
-    <t>Day 13</t>
-  </si>
-  <si>
-    <t>Spring MVC</t>
-  </si>
-  <si>
-    <t>2. What Is Spring MVC?</t>
-  </si>
-  <si>
-    <t>2. Course Update</t>
-  </si>
-  <si>
-    <t>3. Request / Response Lifecycle</t>
-  </si>
-  <si>
-    <t>4. Vocabulary</t>
-  </si>
-  <si>
-    <t>5.What Are We Going to Build?</t>
-  </si>
-  <si>
-    <t>3. Creating Your First Spring MVC Application</t>
-  </si>
-  <si>
-    <t>2. Getting Spring</t>
-  </si>
-  <si>
-    <t>3. Demo: Project Setup</t>
-  </si>
-  <si>
-    <t>4. Demo: Tomcat Configuration</t>
-  </si>
-  <si>
-    <t>5. Spring MVC Configuration</t>
-  </si>
-  <si>
-    <t>6. Demo: Greeting Controller</t>
-  </si>
-  <si>
-    <t>7. Summary</t>
-  </si>
-  <si>
-    <t>4. Understanding the Structure of Spring MVC Applications</t>
-  </si>
-  <si>
-    <t>2. Model-View-Controller</t>
-  </si>
-  <si>
-    <t>3. Application Layers</t>
-  </si>
-  <si>
-    <t>4. Spring Components</t>
-  </si>
-  <si>
-    <t>5. Creating Controllers in Spring MVC</t>
-  </si>
-  <si>
-    <t>2. What Is a Controller?</t>
-  </si>
-  <si>
-    <t>3. @Controller</t>
-  </si>
-  <si>
-    <t>4. Demo: Registration Controller</t>
-  </si>
-  <si>
-    <t>5. @ModelAttribute</t>
-  </si>
-  <si>
-    <t>6. Demo: Passing Parameters</t>
-  </si>
-  <si>
-    <t>6. Creating Views in Spring MVC Applications</t>
-  </si>
-  <si>
-    <t>2. Demo: View Configuration</t>
-  </si>
-  <si>
-    <t>3. Demo: View Resolver</t>
-  </si>
-  <si>
-    <t>4. Resolving a View</t>
-  </si>
-  <si>
-    <t>5. Resolve Static Files</t>
-  </si>
-  <si>
-    <t>7. Using Java Server Pages with Spring MVC View</t>
-  </si>
-  <si>
-    <t>2. I18N and Interceptors</t>
-  </si>
-  <si>
-    <t>3. Demo: Adding Internationalization</t>
-  </si>
-  <si>
-    <t>4. Post-Redirect-Get</t>
-  </si>
-  <si>
-    <t>8. Validating Objects in Spring MVC Applications</t>
-  </si>
-  <si>
-    <t>2. Validator Interface</t>
-  </si>
-  <si>
-    <t>3. Demo: Validator Configuration</t>
-  </si>
-  <si>
-    <t>4. Demo: Validation</t>
-  </si>
-  <si>
-    <t>5. Custom Error Messages</t>
-  </si>
-  <si>
-    <t>9. Using Client-side JavaScript in Spring MVC Applications</t>
-  </si>
-  <si>
-    <t>2. Demo: @RestController</t>
-  </si>
-  <si>
-    <t>3. Postman</t>
-  </si>
-  <si>
-    <t>4. Demo: @PostMapping</t>
-  </si>
-  <si>
-    <t>5. Demo: jQuery Integration</t>
-  </si>
-  <si>
-    <t>Hands On Lab 1 - A Simple RESTful API in Spring Boot</t>
-  </si>
-  <si>
-    <t>Hands On Lab 2 - Creating a Web Application With Spring Boot</t>
-  </si>
-  <si>
-    <t>Day 14</t>
-  </si>
-  <si>
-    <t>Weekly MCQs 4</t>
-  </si>
-  <si>
-    <t>RESTful Web Services with Spring Data JPA and  Hibernate                             Externalized Configurations</t>
-  </si>
-  <si>
-    <t>2. Spring, the Java Persistence API (JPA), and Hibernate</t>
-  </si>
-  <si>
-    <t>2.What Is Spring?</t>
-  </si>
-  <si>
-    <t>3.History</t>
-  </si>
-  <si>
-    <t>4. What Is JPA?</t>
-  </si>
-  <si>
-    <t>5. The Problem</t>
-  </si>
-  <si>
-    <t>3.Walkthrough of the Spring MVC Java App</t>
-  </si>
-  <si>
-    <t>2. Scaffold Application</t>
-  </si>
-  <si>
-    <t>4. The Scaffold App</t>
-  </si>
-  <si>
-    <t>5. Scaffold  App Demo</t>
-  </si>
-  <si>
-    <t>6.What Is in the App?</t>
-  </si>
-  <si>
-    <t>7. Scaffold Application Walkthrough</t>
-  </si>
-  <si>
-    <t>8. Spring MVC Recap</t>
-  </si>
-  <si>
-    <t>4. Architecture Walkthrough of a Spring JPA / Hibernate Application</t>
-  </si>
-  <si>
-    <t>3. MVC Design Pattern</t>
-  </si>
-  <si>
-    <t>4.Tiers</t>
-  </si>
-  <si>
-    <t>5. Components</t>
-  </si>
-  <si>
-    <t>6. Controller</t>
-  </si>
-  <si>
-    <t>7. Service</t>
-  </si>
-  <si>
-    <t>8. Repository</t>
-  </si>
-  <si>
-    <t>5. Recap of Spring Concepts</t>
-  </si>
-  <si>
-    <t>2. Overview of Spring</t>
-  </si>
-  <si>
-    <t>3. Types of Injection</t>
-  </si>
-  <si>
-    <t>4. Setter Injection</t>
-  </si>
-  <si>
-    <t>5. Setter Pojo</t>
-  </si>
-  <si>
-    <t>6. XML and Spring Configuration</t>
-  </si>
-  <si>
-    <t>7. Autowiring Setters</t>
-  </si>
-  <si>
-    <t>8. Constructor Injection</t>
-  </si>
-  <si>
-    <t>9. Spring XML Config Constructor Injection</t>
-  </si>
-  <si>
-    <t>10. Autowiring Constructors</t>
-  </si>
-  <si>
-    <t>11. Context Files</t>
-  </si>
-  <si>
-    <t>12. Summary</t>
-  </si>
-  <si>
-    <t>6. Configuration of Spring and JPA for Development</t>
-  </si>
-  <si>
-    <t>2. Configuration Problems</t>
-  </si>
-  <si>
-    <t>3. Database Overview</t>
-  </si>
-  <si>
-    <t>4.  MySQL Setup and Installation</t>
-  </si>
-  <si>
-    <t>5. persistence.xml</t>
-  </si>
-  <si>
-    <t>6. persistence.xml Demo</t>
-  </si>
-  <si>
-    <t>7. pom.xml</t>
-  </si>
-  <si>
-    <t>8. pom.xml Demo</t>
-  </si>
-  <si>
-    <t>9. jpaContext.xml</t>
-  </si>
-  <si>
-    <t>10. jpaContext.xml Demo</t>
-  </si>
-  <si>
-    <t>11. Entity Manager Factory</t>
-  </si>
-  <si>
-    <t>12. Adding MySql Dependency</t>
-  </si>
-  <si>
-    <t>13. MySQL Maven Demo</t>
-  </si>
-  <si>
-    <t>14. application.properties Demo</t>
-  </si>
-  <si>
-    <t>15. Transactional</t>
-  </si>
-  <si>
-    <t>16. Tips and Tricks</t>
-  </si>
-  <si>
-    <t>17. Logging Configuration</t>
-  </si>
-  <si>
-    <t>18. Summary</t>
-  </si>
-  <si>
-    <t>7. Overview of JPA and Creating Your First Entity</t>
-  </si>
-  <si>
-    <t>2. Creating Your First Entity</t>
-  </si>
-  <si>
-    <t>3. @Entity Demo</t>
-  </si>
-  <si>
-    <t>4. Database Creation</t>
-  </si>
-  <si>
-    <t>5. Database Creation Demo</t>
-  </si>
-  <si>
-    <t>6. Verify Database Demo</t>
-  </si>
-  <si>
-    <t>7. MySQL Workbench Download</t>
-  </si>
-  <si>
-    <t>8. MySQL Workbench Demo</t>
-  </si>
-  <si>
-    <t>9. Run the App and Verify Tables Demo</t>
-  </si>
-  <si>
-    <t>8. JPA Annotations and How to Use Them</t>
-  </si>
-  <si>
-    <t>2. Annotations</t>
-  </si>
-  <si>
-    <t>3. Entity Annotations</t>
-  </si>
-  <si>
-    <t>4. Entity Annotations Demo</t>
-  </si>
-  <si>
-    <t>5.Uppercase Name</t>
-  </si>
-  <si>
-    <t>6. Uppercase Name Demo</t>
-  </si>
-  <si>
-    <t>7. Default Columns</t>
-  </si>
-  <si>
-    <t>8. Column Names Demo</t>
-  </si>
-  <si>
-    <t>9. How We Use It</t>
-  </si>
-  <si>
-    <t>10. Service Demo</t>
-  </si>
-  <si>
-    <t>11. Repository Demo</t>
-  </si>
-  <si>
-    <t>12. Registration end-to-end Demo</t>
-  </si>
-  <si>
-    <t>13. Recap</t>
-  </si>
-  <si>
-    <t>14. Join Types</t>
-  </si>
-  <si>
-    <t>15. @OneToMany</t>
-  </si>
-  <si>
-    <t>16. @OneToMany Demo</t>
-  </si>
-  <si>
-    <t>17. @ManyToOne Demo</t>
-  </si>
-  <si>
-    <t>Spring Data JPA</t>
-  </si>
-  <si>
-    <t>Hands On Lab 1 - Spring Data JPA</t>
-  </si>
-  <si>
-    <t>Hands On Lab 2 - Spring Data JPA</t>
-  </si>
-  <si>
-    <t>Day 15</t>
-  </si>
-  <si>
-    <t>RESTful Web Services with Spring Data JPA and  Hibernate  (contd.)</t>
-  </si>
-  <si>
-    <t>8. JPA Annotations and How to Use Them(contd.)</t>
-  </si>
-  <si>
-    <t>18. Fetch Types</t>
-  </si>
-  <si>
-    <t>19. JPQL</t>
-  </si>
-  <si>
-    <t>20. JPQL Demo</t>
-  </si>
-  <si>
-    <t>21. Projection</t>
-  </si>
-  <si>
-    <t>22. Projection Demo</t>
-  </si>
-  <si>
-    <t>23. Named Queries</t>
-  </si>
-  <si>
-    <t>24. Named Queries Demo</t>
-  </si>
-  <si>
-    <t>25. Summary</t>
-  </si>
-  <si>
-    <t>9. How to Configure and Use Spring Data JPA</t>
-  </si>
-  <si>
-    <t>2. Create vs. Update</t>
-  </si>
-  <si>
-    <t>3. Registration Repository Demo</t>
-  </si>
-  <si>
-    <t>4. Registration Service Demo</t>
-  </si>
-  <si>
-    <t>5. Registration Controller</t>
-  </si>
-  <si>
-    <t>6. Postman Registration Call Demo</t>
-  </si>
-  <si>
-    <t>7. Spring Data JPA</t>
-  </si>
-  <si>
-    <t>8. Maven Dependencies</t>
-  </si>
-  <si>
-    <t>9. UserRepository</t>
-  </si>
-  <si>
-    <t>10. UserRepository with Spring Data Demo</t>
-  </si>
-  <si>
-    <t>11. RegistrationRepository</t>
-  </si>
-  <si>
-    <t>12. RegistrationRepository with Spring Data Demo</t>
-  </si>
-  <si>
-    <t>13. NamedQueries with Spring Data Demo</t>
-  </si>
-  <si>
-    <t>14. Spring Data JPA Recap</t>
-  </si>
-  <si>
-    <t>15. Summary</t>
-  </si>
-  <si>
-    <t>Hand On Assignments</t>
-  </si>
-  <si>
-    <t>Hands On Lab 1  - Spring MVC With Data JPA</t>
-  </si>
-  <si>
-    <t>Hands On Lab 2 - Spring MVC with JSP</t>
-  </si>
-  <si>
-    <t>Total # of Days for Spring</t>
-  </si>
-  <si>
-    <t>Total # of Hours for Spring</t>
   </si>
   <si>
     <t>Day 16</t>
@@ -2111,8 +2114,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
@@ -2268,6 +2271,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -2277,7 +2295,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2290,15 +2323,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2313,49 +2339,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2368,7 +2356,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2385,20 +2402,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2458,19 +2461,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2482,61 +2497,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2548,49 +2509,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2608,7 +2527,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2620,13 +2617,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2638,7 +2641,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2732,21 +2735,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2758,15 +2746,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2790,7 +2769,40 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2812,15 +2824,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2832,148 +2835,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3618,9 +3621,9 @@
   <dimension ref="A1:D331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="D202" sqref="D202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="3"/>
@@ -6013,8 +6016,8 @@
   <sheetPr/>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
@@ -6038,12 +6041,12 @@
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" ht="24.75" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -6053,7 +6056,7 @@
     </row>
     <row r="3" ht="24.75" spans="1:4">
       <c r="A3" s="16" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>24</v>
@@ -6072,10 +6075,10 @@
     <row r="5" ht="15" spans="1:4">
       <c r="A5" s="16"/>
       <c r="B5" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D5" s="24"/>
     </row>
@@ -6083,7 +6086,7 @@
       <c r="A6" s="16"/>
       <c r="B6" s="6"/>
       <c r="C6" s="11" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D6" s="24"/>
     </row>
@@ -6091,7 +6094,7 @@
       <c r="A7" s="16"/>
       <c r="B7" s="6"/>
       <c r="C7" s="11" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D7" s="24"/>
     </row>
@@ -6110,7 +6113,7 @@
     <row r="10" ht="15" spans="1:4">
       <c r="A10" s="16"/>
       <c r="B10" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>26</v>
@@ -6121,7 +6124,7 @@
       <c r="A11" s="16"/>
       <c r="B11" s="6"/>
       <c r="C11" s="11" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D11" s="24"/>
     </row>
@@ -6129,7 +6132,7 @@
       <c r="A12" s="16"/>
       <c r="B12" s="6"/>
       <c r="C12" s="11" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D12" s="24"/>
     </row>
@@ -6137,7 +6140,7 @@
       <c r="A13" s="16"/>
       <c r="B13" s="6"/>
       <c r="C13" s="11" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D13" s="24"/>
     </row>
@@ -6145,7 +6148,7 @@
       <c r="A14" s="16"/>
       <c r="B14" s="6"/>
       <c r="C14" s="11" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D14" s="24"/>
     </row>
@@ -6153,7 +6156,7 @@
       <c r="A15" s="16"/>
       <c r="B15" s="6"/>
       <c r="C15" s="11" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D15" s="24"/>
     </row>
@@ -6161,7 +6164,7 @@
       <c r="A16" s="16"/>
       <c r="B16" s="6"/>
       <c r="C16" s="11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D16" s="24"/>
     </row>
@@ -6169,7 +6172,7 @@
       <c r="A17" s="16"/>
       <c r="B17" s="6"/>
       <c r="C17" s="11" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -6177,7 +6180,7 @@
       <c r="A18" s="16"/>
       <c r="B18" s="6"/>
       <c r="C18" s="11" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D18" s="24"/>
     </row>
@@ -6185,7 +6188,7 @@
       <c r="A19" s="16"/>
       <c r="B19" s="6"/>
       <c r="C19" s="11" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -6193,7 +6196,7 @@
       <c r="A20" s="16"/>
       <c r="B20" s="6"/>
       <c r="C20" s="11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -6206,7 +6209,7 @@
     <row r="22" ht="15" spans="1:4">
       <c r="A22" s="16"/>
       <c r="B22" s="6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>26</v>
@@ -6217,7 +6220,7 @@
       <c r="A23" s="16"/>
       <c r="B23" s="6"/>
       <c r="C23" s="11" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D23" s="24"/>
     </row>
@@ -6225,7 +6228,7 @@
       <c r="A24" s="16"/>
       <c r="B24" s="6"/>
       <c r="C24" s="11" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D24" s="24"/>
     </row>
@@ -6233,7 +6236,7 @@
       <c r="A25" s="16"/>
       <c r="B25" s="6"/>
       <c r="C25" s="11" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D25" s="24"/>
     </row>
@@ -6241,7 +6244,7 @@
       <c r="A26" s="16"/>
       <c r="B26" s="6"/>
       <c r="C26" s="11" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D26" s="24"/>
     </row>
@@ -6249,7 +6252,7 @@
       <c r="A27" s="16"/>
       <c r="B27" s="6"/>
       <c r="C27" s="11" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D27" s="24"/>
     </row>
@@ -6257,7 +6260,7 @@
       <c r="A28" s="16"/>
       <c r="B28" s="6"/>
       <c r="C28" s="11" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D28" s="24"/>
     </row>
@@ -6265,7 +6268,7 @@
       <c r="A29" s="16"/>
       <c r="B29" s="6"/>
       <c r="C29" s="11" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D29" s="24"/>
     </row>
@@ -6286,7 +6289,7 @@
     <row r="32" ht="15" spans="1:4">
       <c r="A32" s="16"/>
       <c r="B32" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>26</v>
@@ -6297,7 +6300,7 @@
       <c r="A33" s="16"/>
       <c r="B33" s="6"/>
       <c r="C33" s="11" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D33" s="24"/>
     </row>
@@ -6305,7 +6308,7 @@
       <c r="A34" s="16"/>
       <c r="B34" s="6"/>
       <c r="C34" s="11" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D34" s="24"/>
     </row>
@@ -6313,7 +6316,7 @@
       <c r="A35" s="16"/>
       <c r="B35" s="6"/>
       <c r="C35" s="11" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D35" s="24"/>
     </row>
@@ -6321,7 +6324,7 @@
       <c r="A36" s="16"/>
       <c r="B36" s="6"/>
       <c r="C36" s="11" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D36" s="24"/>
     </row>
@@ -6329,7 +6332,7 @@
       <c r="A37" s="16"/>
       <c r="B37" s="6"/>
       <c r="C37" s="11" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D37" s="24"/>
     </row>
@@ -6337,7 +6340,7 @@
       <c r="A38" s="16"/>
       <c r="B38" s="6"/>
       <c r="C38" s="11" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D38" s="24"/>
     </row>
@@ -6345,7 +6348,7 @@
       <c r="A39" s="16"/>
       <c r="B39" s="6"/>
       <c r="C39" s="11" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D39" s="24"/>
     </row>
@@ -6353,7 +6356,7 @@
       <c r="A40" s="16"/>
       <c r="B40" s="6"/>
       <c r="C40" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D40" s="24"/>
     </row>
@@ -6361,7 +6364,7 @@
       <c r="A41" s="16"/>
       <c r="B41" s="6"/>
       <c r="C41" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D41" s="24"/>
     </row>
@@ -6369,7 +6372,7 @@
       <c r="A42" s="16"/>
       <c r="B42" s="6"/>
       <c r="C42" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D42" s="24"/>
     </row>
@@ -6382,7 +6385,7 @@
     <row r="44" ht="15" spans="1:4">
       <c r="A44" s="16"/>
       <c r="B44" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>26</v>
@@ -6393,7 +6396,7 @@
       <c r="A45" s="16"/>
       <c r="B45" s="6"/>
       <c r="C45" s="11" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D45" s="24"/>
     </row>
@@ -6401,7 +6404,7 @@
       <c r="A46" s="16"/>
       <c r="B46" s="6"/>
       <c r="C46" s="11" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D46" s="24"/>
     </row>
@@ -6409,7 +6412,7 @@
       <c r="A47" s="16"/>
       <c r="B47" s="6"/>
       <c r="C47" s="11" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D47" s="24"/>
     </row>
@@ -6417,7 +6420,7 @@
       <c r="A48" s="16"/>
       <c r="B48" s="6"/>
       <c r="C48" s="11" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D48" s="24"/>
     </row>
@@ -6425,7 +6428,7 @@
       <c r="A49" s="16"/>
       <c r="B49" s="6"/>
       <c r="C49" s="11" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D49" s="24"/>
     </row>
@@ -6446,7 +6449,7 @@
     <row r="52" ht="15" spans="1:4">
       <c r="A52" s="16"/>
       <c r="B52" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>26</v>
@@ -6457,7 +6460,7 @@
       <c r="A53" s="16"/>
       <c r="B53" s="6"/>
       <c r="C53" s="11" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D53" s="24"/>
     </row>
@@ -6465,7 +6468,7 @@
       <c r="A54" s="16"/>
       <c r="B54" s="6"/>
       <c r="C54" s="11" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D54" s="24"/>
     </row>
@@ -6473,7 +6476,7 @@
       <c r="A55" s="16"/>
       <c r="B55" s="6"/>
       <c r="C55" s="11" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D55" s="24"/>
     </row>
@@ -6481,7 +6484,7 @@
       <c r="A56" s="16"/>
       <c r="B56" s="6"/>
       <c r="C56" s="11" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D56" s="24"/>
     </row>
@@ -6489,7 +6492,7 @@
       <c r="A57" s="16"/>
       <c r="B57" s="6"/>
       <c r="C57" s="11" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D57" s="24"/>
     </row>
@@ -6497,7 +6500,7 @@
       <c r="A58" s="16"/>
       <c r="B58" s="6"/>
       <c r="C58" s="11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D58" s="24"/>
     </row>
@@ -6518,7 +6521,7 @@
     <row r="61" ht="18" customHeight="1" spans="1:4">
       <c r="A61" s="16"/>
       <c r="B61" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>26</v>
@@ -6529,7 +6532,7 @@
       <c r="A62" s="16"/>
       <c r="B62" s="6"/>
       <c r="C62" s="11" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D62" s="24"/>
     </row>
@@ -6537,7 +6540,7 @@
       <c r="A63" s="16"/>
       <c r="B63" s="6"/>
       <c r="C63" s="11" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D63" s="24"/>
     </row>
@@ -6545,7 +6548,7 @@
       <c r="A64" s="16"/>
       <c r="B64" s="6"/>
       <c r="C64" s="11" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D64" s="24"/>
     </row>
@@ -6553,7 +6556,7 @@
       <c r="A65" s="16"/>
       <c r="B65" s="6"/>
       <c r="C65" s="11" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D65" s="24"/>
     </row>
@@ -6561,7 +6564,7 @@
       <c r="A66" s="16"/>
       <c r="B66" s="6"/>
       <c r="C66" s="11" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D66" s="24"/>
     </row>
@@ -6569,7 +6572,7 @@
       <c r="A67" s="16"/>
       <c r="B67" s="6"/>
       <c r="C67" s="11" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D67" s="24"/>
     </row>
@@ -6593,7 +6596,7 @@
         <v>82</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D70" s="2"/>
     </row>
@@ -6601,7 +6604,7 @@
       <c r="A71" s="16"/>
       <c r="B71" s="9"/>
       <c r="C71" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D71" s="2"/>
     </row>
@@ -6613,7 +6616,7 @@
     </row>
     <row r="73" ht="24.75" spans="1:4">
       <c r="A73" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -6623,13 +6626,13 @@
     </row>
     <row r="74" ht="15" spans="1:4">
       <c r="A74" s="25" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D74" s="4"/>
     </row>
@@ -6637,7 +6640,7 @@
       <c r="A75" s="25"/>
       <c r="B75" s="17"/>
       <c r="C75" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D75" s="4"/>
     </row>
@@ -6645,7 +6648,7 @@
       <c r="A76" s="25"/>
       <c r="B76" s="17"/>
       <c r="C76" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D76" s="4"/>
     </row>
@@ -6653,7 +6656,7 @@
       <c r="A77" s="25"/>
       <c r="B77" s="17"/>
       <c r="C77" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D77" s="4"/>
     </row>
@@ -6661,7 +6664,7 @@
       <c r="A78" s="25"/>
       <c r="B78" s="17"/>
       <c r="C78" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D78" s="4"/>
     </row>
@@ -6669,7 +6672,7 @@
       <c r="A79" s="25"/>
       <c r="B79" s="17"/>
       <c r="C79" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D79" s="4"/>
     </row>
@@ -6677,7 +6680,7 @@
       <c r="A80" s="25"/>
       <c r="B80" s="17"/>
       <c r="C80" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D80" s="4"/>
     </row>
@@ -6697,7 +6700,7 @@
     <row r="83" ht="15" spans="1:3">
       <c r="A83" s="25"/>
       <c r="B83" s="17" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C83" s="11" t="s">
         <v>26</v>
@@ -6707,21 +6710,21 @@
       <c r="A84" s="25"/>
       <c r="B84" s="17"/>
       <c r="C84" s="11" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="85" ht="15" spans="1:3">
       <c r="A85" s="25"/>
       <c r="B85" s="17"/>
       <c r="C85" s="11" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="86" ht="15" spans="1:3">
       <c r="A86" s="25"/>
       <c r="B86" s="17"/>
       <c r="C86" s="11" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="87" ht="15" spans="1:3">
@@ -6739,7 +6742,7 @@
     <row r="89" ht="15" spans="1:3">
       <c r="A89" s="25"/>
       <c r="B89" s="17" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C89" s="11" t="s">
         <v>26</v>
@@ -6749,28 +6752,28 @@
       <c r="A90" s="25"/>
       <c r="B90" s="17"/>
       <c r="C90" s="11" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="91" ht="15" spans="1:3">
       <c r="A91" s="25"/>
       <c r="B91" s="17"/>
       <c r="C91" s="11" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="92" ht="15" spans="1:3">
       <c r="A92" s="25"/>
       <c r="B92" s="17"/>
       <c r="C92" s="11" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="93" ht="15" spans="1:3">
       <c r="A93" s="25"/>
       <c r="B93" s="17"/>
       <c r="C93" s="11" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="94" ht="15" spans="1:3">
@@ -6789,7 +6792,7 @@
     <row r="96" ht="15" spans="1:3">
       <c r="A96" s="25"/>
       <c r="B96" s="17" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>26</v>
@@ -6799,42 +6802,42 @@
       <c r="A97" s="25"/>
       <c r="B97" s="17"/>
       <c r="C97" s="11" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="98" ht="15" spans="1:3">
       <c r="A98" s="25"/>
       <c r="B98" s="17"/>
       <c r="C98" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="99" ht="15" spans="1:3">
       <c r="A99" s="25"/>
       <c r="B99" s="17"/>
       <c r="C99" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="100" ht="15" spans="1:3">
       <c r="A100" s="25"/>
       <c r="B100" s="17"/>
       <c r="C100" s="4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="101" ht="15" spans="1:3">
       <c r="A101" s="25"/>
       <c r="B101" s="17"/>
       <c r="C101" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="102" ht="15" spans="1:4">
       <c r="A102" s="25"/>
       <c r="B102" s="17"/>
       <c r="C102" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D102" s="4"/>
     </row>
@@ -6846,7 +6849,7 @@
     </row>
     <row r="104" ht="24.75" spans="1:4">
       <c r="A104" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -6856,13 +6859,13 @@
     </row>
     <row r="105" ht="15" spans="1:4">
       <c r="A105" s="27" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B105" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D105" s="4"/>
     </row>
@@ -6870,7 +6873,7 @@
       <c r="A106" s="27"/>
       <c r="B106" s="17"/>
       <c r="C106" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D106" s="4"/>
     </row>
@@ -6878,7 +6881,7 @@
       <c r="A107" s="27"/>
       <c r="B107" s="17"/>
       <c r="C107" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D107" s="4"/>
     </row>
@@ -6886,7 +6889,7 @@
       <c r="A108" s="27"/>
       <c r="B108" s="17"/>
       <c r="C108" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D108" s="4"/>
     </row>
@@ -6894,7 +6897,7 @@
       <c r="A109" s="27"/>
       <c r="B109" s="17"/>
       <c r="C109" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D109" s="4"/>
     </row>
@@ -6902,7 +6905,7 @@
       <c r="A110" s="27"/>
       <c r="B110" s="17"/>
       <c r="C110" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D110" s="4"/>
     </row>
@@ -6914,7 +6917,7 @@
     <row r="112" ht="15" spans="1:4">
       <c r="A112" s="27"/>
       <c r="B112" s="17" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>26</v>
@@ -6925,7 +6928,7 @@
       <c r="A113" s="27"/>
       <c r="B113" s="17"/>
       <c r="C113" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D113" s="4"/>
     </row>
@@ -6933,7 +6936,7 @@
       <c r="A114" s="27"/>
       <c r="B114" s="17"/>
       <c r="C114" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D114" s="4"/>
     </row>
@@ -6941,7 +6944,7 @@
       <c r="A115" s="27"/>
       <c r="B115" s="17"/>
       <c r="C115" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D115" s="4"/>
     </row>
@@ -6949,7 +6952,7 @@
       <c r="A116" s="27"/>
       <c r="B116" s="17"/>
       <c r="C116" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D116" s="4"/>
     </row>
@@ -6957,7 +6960,7 @@
       <c r="A117" s="27"/>
       <c r="B117" s="17"/>
       <c r="C117" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D117" s="4"/>
     </row>
@@ -6965,7 +6968,7 @@
       <c r="A118" s="27"/>
       <c r="B118" s="17"/>
       <c r="C118" s="4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D118" s="4"/>
     </row>
@@ -6973,7 +6976,7 @@
       <c r="A119" s="27"/>
       <c r="B119" s="17"/>
       <c r="C119" s="4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D119" s="4"/>
     </row>
@@ -6981,7 +6984,7 @@
       <c r="A120" s="27"/>
       <c r="B120" s="17"/>
       <c r="C120" s="4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D120" s="4"/>
     </row>
@@ -6993,10 +6996,10 @@
     <row r="122" ht="15" spans="1:4">
       <c r="A122" s="27"/>
       <c r="B122" s="17" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D122" s="4"/>
     </row>
@@ -7004,7 +7007,7 @@
       <c r="A123" s="27"/>
       <c r="B123" s="17"/>
       <c r="C123" s="4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D123" s="4"/>
     </row>
@@ -7012,7 +7015,7 @@
       <c r="A124" s="27"/>
       <c r="B124" s="17"/>
       <c r="C124" s="4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D124" s="4"/>
     </row>
@@ -7020,7 +7023,7 @@
       <c r="A125" s="27"/>
       <c r="B125" s="17"/>
       <c r="C125" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D125" s="4"/>
     </row>
@@ -7028,7 +7031,7 @@
       <c r="A126" s="27"/>
       <c r="B126" s="17"/>
       <c r="C126" s="4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D126" s="4"/>
     </row>
@@ -7036,7 +7039,7 @@
       <c r="A127" s="27"/>
       <c r="B127" s="17"/>
       <c r="C127" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D127" s="4"/>
     </row>
@@ -7049,7 +7052,7 @@
     <row r="129" ht="15" spans="1:4">
       <c r="A129" s="27"/>
       <c r="B129" s="17" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>26</v>
@@ -7060,7 +7063,7 @@
       <c r="A130" s="27"/>
       <c r="B130" s="17"/>
       <c r="C130" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D130" s="4"/>
     </row>
@@ -7068,7 +7071,7 @@
       <c r="A131" s="27"/>
       <c r="B131" s="17"/>
       <c r="C131" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D131" s="4"/>
     </row>
@@ -7076,7 +7079,7 @@
       <c r="A132" s="27"/>
       <c r="B132" s="17"/>
       <c r="C132" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D132" s="4"/>
     </row>
@@ -7084,7 +7087,7 @@
       <c r="A133" s="27"/>
       <c r="B133" s="17"/>
       <c r="C133" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D133" s="4"/>
     </row>
@@ -7092,7 +7095,7 @@
       <c r="A134" s="27"/>
       <c r="B134" s="17"/>
       <c r="C134" s="4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D134" s="4"/>
     </row>
@@ -7108,7 +7111,7 @@
         <v>82</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D136" s="10"/>
     </row>
@@ -7116,7 +7119,7 @@
       <c r="A137" s="27"/>
       <c r="B137" s="28"/>
       <c r="C137" s="4" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D137" s="4"/>
     </row>
@@ -7124,7 +7127,7 @@
       <c r="A138" s="27"/>
       <c r="B138" s="28"/>
       <c r="C138" s="4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D138" s="4"/>
     </row>
@@ -7136,7 +7139,7 @@
     </row>
     <row r="142" ht="37.5" spans="1:2">
       <c r="A142" s="29" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B142" s="14">
         <v>2</v>
@@ -7144,7 +7147,7 @@
     </row>
     <row r="143" ht="37.5" spans="1:2">
       <c r="A143" s="29" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B143" s="30">
         <v>16</v>
@@ -7188,8 +7191,8 @@
   <sheetPr/>
   <dimension ref="A1:D219"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D114" sqref="D114"/>
     </sheetView>
@@ -7213,12 +7216,12 @@
         <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" ht="33" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -7228,7 +7231,7 @@
     </row>
     <row r="3" ht="15.75" spans="1:3">
       <c r="A3" s="16" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>24</v>
@@ -7245,7 +7248,7 @@
     <row r="5" ht="15" spans="1:3">
       <c r="A5" s="16"/>
       <c r="B5" s="6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>26</v>
@@ -7255,28 +7258,28 @@
       <c r="A6" s="16"/>
       <c r="B6" s="6"/>
       <c r="C6" s="4" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
       <c r="A7" s="16"/>
       <c r="B7" s="6"/>
       <c r="C7" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
       <c r="A8" s="16"/>
       <c r="B8" s="6"/>
       <c r="C8" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
       <c r="A9" s="16"/>
       <c r="B9" s="6"/>
       <c r="C9" s="4" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" ht="13" customHeight="1" spans="1:3">
@@ -7287,7 +7290,7 @@
     <row r="11" ht="15" spans="1:3">
       <c r="A11" s="16"/>
       <c r="B11" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>26</v>
@@ -7297,49 +7300,49 @@
       <c r="A12" s="16"/>
       <c r="B12" s="6"/>
       <c r="C12" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
       <c r="A13" s="16"/>
       <c r="B13" s="6"/>
       <c r="C13" s="4" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
       <c r="A14" s="16"/>
       <c r="B14" s="6"/>
       <c r="C14" s="4" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:3">
       <c r="A15" s="16"/>
       <c r="B15" s="6"/>
       <c r="C15" s="4" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:3">
       <c r="A16" s="16"/>
       <c r="B16" s="6"/>
       <c r="C16" s="4" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
       <c r="A17" s="16"/>
       <c r="B17" s="6"/>
       <c r="C17" s="4" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
       <c r="A18" s="16"/>
       <c r="B18" s="6"/>
       <c r="C18" s="4" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:3">
@@ -7357,7 +7360,7 @@
     <row r="21" ht="15" spans="1:3">
       <c r="A21" s="16"/>
       <c r="B21" s="6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>26</v>
@@ -7367,63 +7370,63 @@
       <c r="A22" s="16"/>
       <c r="B22" s="6"/>
       <c r="C22" s="4" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:3">
       <c r="A23" s="16"/>
       <c r="B23" s="6"/>
       <c r="C23" s="4" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:3">
       <c r="A24" s="16"/>
       <c r="B24" s="6"/>
       <c r="C24" s="4" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:3">
       <c r="A25" s="16"/>
       <c r="B25" s="6"/>
       <c r="C25" s="4" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="26" ht="15" spans="1:3">
       <c r="A26" s="16"/>
       <c r="B26" s="6"/>
       <c r="C26" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:3">
       <c r="A27" s="16"/>
       <c r="B27" s="6"/>
       <c r="C27" s="4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:3">
       <c r="A28" s="16"/>
       <c r="B28" s="6"/>
       <c r="C28" s="4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:3">
       <c r="A29" s="16"/>
       <c r="B29" s="6"/>
       <c r="C29" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:3">
       <c r="A30" s="16"/>
       <c r="B30" s="6"/>
       <c r="C30" s="4" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="31" ht="18.75" spans="1:3">
@@ -7433,10 +7436,10 @@
     </row>
     <row r="32" ht="15" spans="1:3">
       <c r="A32" s="16" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>26</v>
@@ -7446,49 +7449,49 @@
       <c r="A33" s="16"/>
       <c r="B33" s="6"/>
       <c r="C33" s="4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:3">
       <c r="A34" s="16"/>
       <c r="B34" s="6"/>
       <c r="C34" s="4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:3">
       <c r="A35" s="16"/>
       <c r="B35" s="6"/>
       <c r="C35" s="4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:3">
       <c r="A36" s="16"/>
       <c r="B36" s="6"/>
       <c r="C36" s="4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="37" ht="15" spans="1:3">
       <c r="A37" s="16"/>
       <c r="B37" s="6"/>
       <c r="C37" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="38" ht="15" spans="1:3">
       <c r="A38" s="16"/>
       <c r="B38" s="6"/>
       <c r="C38" s="4" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:3">
       <c r="A39" s="16"/>
       <c r="B39" s="6"/>
       <c r="C39" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="40" ht="18.75" spans="1:3">
@@ -7498,10 +7501,10 @@
     </row>
     <row r="41" ht="15" spans="1:3">
       <c r="A41" s="16" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>26</v>
@@ -7511,42 +7514,42 @@
       <c r="A42" s="16"/>
       <c r="B42" s="6"/>
       <c r="C42" s="4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:3">
       <c r="A43" s="16"/>
       <c r="B43" s="6"/>
       <c r="C43" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:3">
       <c r="A44" s="16"/>
       <c r="B44" s="6"/>
       <c r="C44" s="4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:3">
       <c r="A45" s="16"/>
       <c r="B45" s="6"/>
       <c r="C45" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:3">
       <c r="A46" s="16"/>
       <c r="B46" s="6"/>
       <c r="C46" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="47" ht="15" spans="1:3">
       <c r="A47" s="16"/>
       <c r="B47" s="6"/>
       <c r="C47" s="4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="48" customFormat="1" ht="18.75" spans="1:3">
@@ -7560,14 +7563,14 @@
         <v>82</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="50" customFormat="1" ht="15" spans="1:3">
       <c r="A50" s="16"/>
       <c r="B50" s="9"/>
       <c r="C50" s="4" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="51" customFormat="1" ht="9" customHeight="1" spans="1:4">
@@ -7578,7 +7581,7 @@
     </row>
     <row r="52" ht="24.75" spans="1:4">
       <c r="A52" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -7588,10 +7591,10 @@
     </row>
     <row r="53" ht="15" spans="1:3">
       <c r="A53" s="16" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>26</v>
@@ -7601,49 +7604,49 @@
       <c r="A54" s="16"/>
       <c r="B54" s="6"/>
       <c r="C54" s="4" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="55" ht="15" spans="1:3">
       <c r="A55" s="16"/>
       <c r="B55" s="6"/>
       <c r="C55" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="56" ht="15" spans="1:3">
       <c r="A56" s="16"/>
       <c r="B56" s="6"/>
       <c r="C56" s="4" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="57" ht="15" spans="1:3">
       <c r="A57" s="16"/>
       <c r="B57" s="6"/>
       <c r="C57" s="4" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="58" ht="15" spans="1:3">
       <c r="A58" s="16"/>
       <c r="B58" s="6"/>
       <c r="C58" s="4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="59" ht="15" spans="1:3">
       <c r="A59" s="16"/>
       <c r="B59" s="6"/>
       <c r="C59" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="60" ht="15" spans="1:3">
       <c r="A60" s="16"/>
       <c r="B60" s="6"/>
       <c r="C60" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="61" ht="18.75" spans="1:3">
@@ -7653,10 +7656,10 @@
     </row>
     <row r="62" ht="15" spans="1:3">
       <c r="A62" s="16" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>26</v>
@@ -7666,77 +7669,77 @@
       <c r="A63" s="16"/>
       <c r="B63" s="6"/>
       <c r="C63" s="4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="64" ht="15" spans="1:3">
       <c r="A64" s="16"/>
       <c r="B64" s="6"/>
       <c r="C64" s="4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="65" ht="15" spans="1:3">
       <c r="A65" s="16"/>
       <c r="B65" s="6"/>
       <c r="C65" s="4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="66" ht="15" spans="1:3">
       <c r="A66" s="16"/>
       <c r="B66" s="6"/>
       <c r="C66" s="4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="67" ht="15" spans="1:3">
       <c r="A67" s="16"/>
       <c r="B67" s="6"/>
       <c r="C67" s="4" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="68" ht="15" spans="1:3">
       <c r="A68" s="16"/>
       <c r="B68" s="6"/>
       <c r="C68" s="4" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="69" ht="15" spans="1:3">
       <c r="A69" s="16"/>
       <c r="B69" s="6"/>
       <c r="C69" s="4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="70" ht="15" spans="1:3">
       <c r="A70" s="16"/>
       <c r="B70" s="6"/>
       <c r="C70" s="4" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="71" ht="15" spans="1:3">
       <c r="A71" s="16"/>
       <c r="B71" s="6"/>
       <c r="C71" s="4" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="72" ht="15" spans="1:3">
       <c r="A72" s="16"/>
       <c r="B72" s="6"/>
       <c r="C72" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="73" ht="15" spans="1:3">
       <c r="A73" s="16"/>
       <c r="B73" s="6"/>
       <c r="C73" s="4" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="74" ht="9" customHeight="1" spans="1:3">
@@ -7746,10 +7749,10 @@
     </row>
     <row r="75" ht="15" spans="1:3">
       <c r="A75" s="16" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>26</v>
@@ -7759,42 +7762,42 @@
       <c r="A76" s="16"/>
       <c r="B76" s="6"/>
       <c r="C76" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="77" ht="15" spans="1:3">
       <c r="A77" s="16"/>
       <c r="B77" s="6"/>
       <c r="C77" s="4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="78" ht="15" spans="1:3">
       <c r="A78" s="16"/>
       <c r="B78" s="6"/>
       <c r="C78" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="79" ht="15" spans="1:3">
       <c r="A79" s="16"/>
       <c r="B79" s="6"/>
       <c r="C79" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="80" ht="15" spans="1:3">
       <c r="A80" s="16"/>
       <c r="B80" s="6"/>
       <c r="C80" s="4" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="81" ht="15" spans="1:3">
       <c r="A81" s="16"/>
       <c r="B81" s="6"/>
       <c r="C81" s="4" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="82" ht="18.75" spans="1:1">
@@ -7802,10 +7805,10 @@
     </row>
     <row r="83" ht="15" spans="1:3">
       <c r="A83" s="16" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>26</v>
@@ -7815,56 +7818,56 @@
       <c r="A84" s="16"/>
       <c r="B84" s="6"/>
       <c r="C84" s="4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="85" ht="15" spans="1:3">
       <c r="A85" s="16"/>
       <c r="B85" s="6"/>
       <c r="C85" s="4" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="86" ht="15" spans="1:3">
       <c r="A86" s="16"/>
       <c r="B86" s="6"/>
       <c r="C86" s="4" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="87" ht="15" spans="1:3">
       <c r="A87" s="16"/>
       <c r="B87" s="6"/>
       <c r="C87" s="4" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="88" ht="15" spans="1:3">
       <c r="A88" s="16"/>
       <c r="B88" s="6"/>
       <c r="C88" s="4" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="89" ht="15" spans="1:3">
       <c r="A89" s="16"/>
       <c r="B89" s="6"/>
       <c r="C89" s="4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="90" ht="15" spans="1:3">
       <c r="A90" s="16"/>
       <c r="B90" s="6"/>
       <c r="C90" s="4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="91" ht="15" spans="1:3">
       <c r="A91" s="16"/>
       <c r="B91" s="6"/>
       <c r="C91" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="92" ht="18.75" spans="1:3">
@@ -7874,10 +7877,10 @@
     </row>
     <row r="93" ht="15" spans="1:3">
       <c r="A93" s="16" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>26</v>
@@ -7887,49 +7890,49 @@
       <c r="A94" s="16"/>
       <c r="B94" s="6"/>
       <c r="C94" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="95" ht="15" spans="1:3">
       <c r="A95" s="16"/>
       <c r="B95" s="6"/>
       <c r="C95" s="4" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="96" ht="15" spans="1:3">
       <c r="A96" s="16"/>
       <c r="B96" s="6"/>
       <c r="C96" s="4" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="97" ht="15" spans="1:3">
       <c r="A97" s="16"/>
       <c r="B97" s="6"/>
       <c r="C97" s="4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="98" ht="15" spans="1:3">
       <c r="A98" s="16"/>
       <c r="B98" s="6"/>
       <c r="C98" s="4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="99" ht="15" spans="1:3">
       <c r="A99" s="16"/>
       <c r="B99" s="6"/>
       <c r="C99" s="4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="100" ht="15" spans="1:3">
       <c r="A100" s="16"/>
       <c r="B100" s="6"/>
       <c r="C100" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="101" ht="18.75" spans="1:3">
@@ -7938,10 +7941,10 @@
     </row>
     <row r="102" ht="15" spans="1:3">
       <c r="A102" s="16" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>26</v>
@@ -7951,56 +7954,56 @@
       <c r="A103" s="16"/>
       <c r="B103" s="3"/>
       <c r="C103" s="4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="104" ht="15" spans="1:3">
       <c r="A104" s="16"/>
       <c r="B104" s="3"/>
       <c r="C104" s="4" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="105" ht="15" spans="1:3">
       <c r="A105" s="16"/>
       <c r="B105" s="3"/>
       <c r="C105" s="4" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="106" ht="15" spans="1:3">
       <c r="A106" s="16"/>
       <c r="B106" s="3"/>
       <c r="C106" s="4" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="107" ht="15" spans="1:3">
       <c r="A107" s="16"/>
       <c r="B107" s="3"/>
       <c r="C107" s="4" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="108" ht="15" spans="1:3">
       <c r="A108" s="16"/>
       <c r="B108" s="3"/>
       <c r="C108" s="4" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="109" ht="15" spans="1:3">
       <c r="A109" s="16"/>
       <c r="B109" s="3"/>
       <c r="C109" s="4" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="110" ht="15" spans="1:3">
       <c r="A110" s="16"/>
       <c r="B110" s="3"/>
       <c r="C110" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="111" ht="18.75" spans="1:3">
@@ -8014,14 +8017,14 @@
         <v>82</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="113" ht="15" spans="1:3">
       <c r="A113" s="16"/>
       <c r="B113" s="9"/>
       <c r="C113" s="4" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="114" customFormat="1" ht="9" customHeight="1" spans="1:3">
@@ -8031,17 +8034,17 @@
     </row>
     <row r="115" ht="24.75" spans="1:3">
       <c r="A115" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
     </row>
     <row r="116" ht="15" spans="1:3">
       <c r="A116" s="16" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>26</v>
@@ -8051,91 +8054,91 @@
       <c r="A117" s="20"/>
       <c r="B117" s="6"/>
       <c r="C117" s="4" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="118" ht="15" spans="1:3">
       <c r="A118" s="20"/>
       <c r="B118" s="6"/>
       <c r="C118" s="4" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="119" ht="15" spans="1:3">
       <c r="A119" s="20"/>
       <c r="B119" s="6"/>
       <c r="C119" s="4" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="120" ht="15" spans="1:3">
       <c r="A120" s="20"/>
       <c r="B120" s="6"/>
       <c r="C120" s="4" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="121" ht="15" spans="1:3">
       <c r="A121" s="20"/>
       <c r="B121" s="6"/>
       <c r="C121" s="4" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="122" ht="15" spans="1:3">
       <c r="A122" s="20"/>
       <c r="B122" s="6"/>
       <c r="C122" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="123" ht="15" spans="1:3">
       <c r="A123" s="20"/>
       <c r="B123" s="6"/>
       <c r="C123" s="4" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="124" ht="15" spans="1:3">
       <c r="A124" s="20"/>
       <c r="B124" s="6"/>
       <c r="C124" s="4" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1" spans="1:3">
       <c r="A125" s="20"/>
       <c r="B125" s="6"/>
       <c r="C125" s="4" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1" spans="1:3">
       <c r="A126" s="20"/>
       <c r="B126" s="6"/>
       <c r="C126" s="4" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1" spans="1:3">
       <c r="A127" s="20"/>
       <c r="B127" s="6"/>
       <c r="C127" s="4" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="128" ht="15" spans="1:3">
       <c r="A128" s="20"/>
       <c r="B128" s="6"/>
       <c r="C128" s="4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="129" ht="15" spans="1:3">
       <c r="A129" s="20"/>
       <c r="B129" s="6"/>
       <c r="C129" s="4" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="130" ht="18.75" spans="1:3">
@@ -8145,10 +8148,10 @@
     </row>
     <row r="131" ht="15" spans="1:3">
       <c r="A131" s="16" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>26</v>
@@ -8158,42 +8161,42 @@
       <c r="A132" s="16"/>
       <c r="B132" s="6"/>
       <c r="C132" s="4" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="133" ht="15" spans="1:3">
       <c r="A133" s="16"/>
       <c r="B133" s="6"/>
       <c r="C133" s="4" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="134" ht="15" spans="1:3">
       <c r="A134" s="16"/>
       <c r="B134" s="6"/>
       <c r="C134" s="4" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="135" ht="15" spans="1:3">
       <c r="A135" s="16"/>
       <c r="B135" s="6"/>
       <c r="C135" s="4" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="136" ht="15" spans="1:3">
       <c r="A136" s="16"/>
       <c r="B136" s="6"/>
       <c r="C136" s="4" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="137" ht="15" spans="1:3">
       <c r="A137" s="16"/>
       <c r="B137" s="6"/>
       <c r="C137" s="4" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="138" ht="18.75" spans="1:3">
@@ -8203,34 +8206,34 @@
     </row>
     <row r="139" ht="15" spans="1:3">
       <c r="A139" s="16" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="140" ht="15" spans="1:3">
       <c r="A140" s="16"/>
       <c r="B140" s="6"/>
       <c r="C140" s="4" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="141" ht="15" spans="1:3">
       <c r="A141" s="16"/>
       <c r="B141" s="6"/>
       <c r="C141" s="4" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="142" ht="15" spans="1:3">
       <c r="A142" s="16"/>
       <c r="B142" s="6"/>
       <c r="C142" s="4" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="143" ht="18" spans="1:3">
@@ -8241,7 +8244,7 @@
     <row r="144" ht="15" spans="1:3">
       <c r="A144" s="16"/>
       <c r="B144" s="6" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>26</v>
@@ -8251,42 +8254,42 @@
       <c r="A145" s="16"/>
       <c r="B145" s="6"/>
       <c r="C145" s="4" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="146" ht="15" spans="1:3">
       <c r="A146" s="16"/>
       <c r="B146" s="6"/>
       <c r="C146" s="4" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="147" ht="15" spans="1:3">
       <c r="A147" s="16"/>
       <c r="B147" s="6"/>
       <c r="C147" s="4" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="148" ht="15" spans="1:3">
       <c r="A148" s="16"/>
       <c r="B148" s="6"/>
       <c r="C148" s="4" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="149" ht="15" spans="1:3">
       <c r="A149" s="16"/>
       <c r="B149" s="6"/>
       <c r="C149" s="4" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="150" ht="15" spans="1:3">
       <c r="A150" s="16"/>
       <c r="B150" s="6"/>
       <c r="C150" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="151" ht="15" spans="1:3">
@@ -8302,10 +8305,10 @@
     </row>
     <row r="153" ht="15" spans="1:3">
       <c r="A153" s="16" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>26</v>
@@ -8315,56 +8318,56 @@
       <c r="A154" s="16"/>
       <c r="B154" s="6"/>
       <c r="C154" s="4" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="155" ht="15" spans="1:3">
       <c r="A155" s="16"/>
       <c r="B155" s="6"/>
       <c r="C155" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="156" ht="15" spans="1:3">
       <c r="A156" s="16"/>
       <c r="B156" s="6"/>
       <c r="C156" s="4" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="157" ht="15" spans="1:3">
       <c r="A157" s="16"/>
       <c r="B157" s="6"/>
       <c r="C157" s="4" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="158" ht="15" spans="1:3">
       <c r="A158" s="16"/>
       <c r="B158" s="6"/>
       <c r="C158" s="4" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="159" ht="15" spans="1:3">
       <c r="A159" s="16"/>
       <c r="B159" s="6"/>
       <c r="C159" s="4" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="160" ht="15" spans="1:3">
       <c r="A160" s="16"/>
       <c r="B160" s="6"/>
       <c r="C160" s="4" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="161" ht="15" spans="1:3">
       <c r="A161" s="16"/>
       <c r="B161" s="6"/>
       <c r="C161" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="162" ht="18.75" spans="1:3">
@@ -8378,14 +8381,14 @@
         <v>82</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="164" ht="15" spans="1:3">
       <c r="A164" s="16"/>
       <c r="B164" s="9"/>
       <c r="C164" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="165" ht="13" customHeight="1" spans="1:3">
@@ -8395,17 +8398,17 @@
     </row>
     <row r="166" ht="24.75" spans="1:3">
       <c r="A166" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
     </row>
     <row r="167" ht="15" spans="1:3">
       <c r="A167" s="16" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>26</v>
@@ -8415,49 +8418,49 @@
       <c r="A168" s="16"/>
       <c r="B168" s="6"/>
       <c r="C168" s="4" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="169" ht="15" spans="1:3">
       <c r="A169" s="16"/>
       <c r="B169" s="6"/>
       <c r="C169" s="4" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="170" ht="15" spans="1:3">
       <c r="A170" s="16"/>
       <c r="B170" s="6"/>
       <c r="C170" s="4" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="171" ht="15" spans="1:3">
       <c r="A171" s="16"/>
       <c r="B171" s="6"/>
       <c r="C171" s="4" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="172" ht="15" spans="1:3">
       <c r="A172" s="16"/>
       <c r="B172" s="6"/>
       <c r="C172" s="4" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="173" ht="15" spans="1:3">
       <c r="A173" s="16"/>
       <c r="B173" s="6"/>
       <c r="C173" s="4" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="174" ht="15" spans="1:3">
       <c r="A174" s="16"/>
       <c r="B174" s="6"/>
       <c r="C174" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -8467,7 +8470,7 @@
     <row r="176" ht="23" customHeight="1" spans="1:3">
       <c r="A176" s="16"/>
       <c r="B176" s="6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>26</v>
@@ -8477,91 +8480,91 @@
       <c r="A177" s="16"/>
       <c r="B177" s="6"/>
       <c r="C177" s="4" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="178" ht="15" spans="1:3">
       <c r="A178" s="16"/>
       <c r="B178" s="6"/>
       <c r="C178" s="4" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="179" ht="15" spans="1:3">
       <c r="A179" s="16"/>
       <c r="B179" s="6"/>
       <c r="C179" s="4" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="180" ht="15" spans="1:3">
       <c r="A180" s="16"/>
       <c r="B180" s="6"/>
       <c r="C180" s="4" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="181" ht="15" spans="1:3">
       <c r="A181" s="16"/>
       <c r="B181" s="6"/>
       <c r="C181" s="4" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="182" ht="15" spans="1:3">
       <c r="A182" s="16"/>
       <c r="B182" s="6"/>
       <c r="C182" s="4" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="183" ht="15" spans="1:3">
       <c r="A183" s="16"/>
       <c r="B183" s="6"/>
       <c r="C183" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="184" ht="15" spans="1:3">
       <c r="A184" s="16"/>
       <c r="B184" s="6"/>
       <c r="C184" s="4" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="185" ht="15" spans="1:3">
       <c r="A185" s="16"/>
       <c r="B185" s="6"/>
       <c r="C185" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="186" ht="15" spans="1:3">
       <c r="A186" s="16"/>
       <c r="B186" s="6"/>
       <c r="C186" s="4" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="187" ht="15" spans="1:3">
       <c r="A187" s="16"/>
       <c r="B187" s="6"/>
       <c r="C187" s="4" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="188" ht="15" spans="1:3">
       <c r="A188" s="16"/>
       <c r="B188" s="6"/>
       <c r="C188" s="4" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="189" ht="15" spans="1:3">
       <c r="A189" s="16"/>
       <c r="B189" s="6"/>
       <c r="C189" s="4" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="190" ht="15" spans="3:3">
@@ -8569,55 +8572,55 @@
     </row>
     <row r="191" ht="15" spans="1:3">
       <c r="A191" s="16" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="192" ht="15" spans="1:3">
       <c r="A192" s="16"/>
       <c r="B192" s="6"/>
       <c r="C192" s="4" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="193" ht="15" spans="1:3">
       <c r="A193" s="16"/>
       <c r="B193" s="6"/>
       <c r="C193" s="4" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="194" ht="15" spans="1:3">
       <c r="A194" s="16"/>
       <c r="B194" s="6"/>
       <c r="C194" s="4" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="195" ht="15" spans="1:3">
       <c r="A195" s="16"/>
       <c r="B195" s="6"/>
       <c r="C195" s="4" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="196" ht="15" spans="1:3">
       <c r="A196" s="16"/>
       <c r="B196" s="6"/>
       <c r="C196" s="4" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="197" ht="15" spans="1:3">
       <c r="A197" s="16"/>
       <c r="B197" s="6"/>
       <c r="C197" s="4" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="198" ht="15" spans="3:3">
@@ -8625,83 +8628,83 @@
     </row>
     <row r="199" ht="15" spans="1:3">
       <c r="A199" s="16" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="200" ht="15" spans="1:3">
       <c r="A200" s="16"/>
       <c r="B200" s="6"/>
       <c r="C200" s="4" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="201" ht="15" spans="1:3">
       <c r="A201" s="16"/>
       <c r="B201" s="6"/>
       <c r="C201" s="4" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="202" ht="15" spans="1:3">
       <c r="A202" s="16"/>
       <c r="B202" s="6"/>
       <c r="C202" s="4" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="203" ht="15" spans="1:3">
       <c r="A203" s="16"/>
       <c r="B203" s="6"/>
       <c r="C203" s="4" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="204" ht="15" spans="1:3">
       <c r="A204" s="16"/>
       <c r="B204" s="6"/>
       <c r="C204" s="4" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="205" ht="15" spans="1:3">
       <c r="A205" s="16"/>
       <c r="B205" s="6"/>
       <c r="C205" s="4" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="206" ht="15" spans="1:3">
       <c r="A206" s="16"/>
       <c r="B206" s="6"/>
       <c r="C206" s="4" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="207" ht="15" spans="1:3">
       <c r="A207" s="16"/>
       <c r="B207" s="6"/>
       <c r="C207" s="4" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="208" ht="15" spans="1:3">
       <c r="A208" s="16"/>
       <c r="B208" s="6"/>
       <c r="C208" s="4" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="209" ht="15" spans="1:3">
       <c r="A209" s="16"/>
       <c r="B209" s="6"/>
       <c r="C209" s="4" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="210" ht="15" spans="3:3">
@@ -8713,14 +8716,14 @@
         <v>82</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="212" ht="15" spans="1:3">
       <c r="A212" s="16"/>
       <c r="B212" s="9"/>
       <c r="C212" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="213" ht="11" customHeight="1" spans="1:3">
@@ -8730,7 +8733,7 @@
     </row>
     <row r="218" ht="18.75" spans="1:2">
       <c r="A218" s="23" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B218" s="14">
         <v>4</v>
@@ -8738,7 +8741,7 @@
     </row>
     <row r="219" ht="18.75" spans="1:2">
       <c r="A219" s="23" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B219" s="14">
         <v>32</v>
@@ -8810,7 +8813,7 @@
   <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
@@ -8836,7 +8839,7 @@
     </row>
     <row r="2" ht="24.75" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -8857,10 +8860,10 @@
     </row>
     <row r="5" ht="15" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>26</v>
@@ -8870,49 +8873,49 @@
       <c r="A6" s="7"/>
       <c r="B6" s="6"/>
       <c r="C6" s="4" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
       <c r="A7" s="7"/>
       <c r="B7" s="6"/>
       <c r="C7" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
       <c r="A8" s="7"/>
       <c r="B8" s="6"/>
       <c r="C8" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
       <c r="A9" s="7"/>
       <c r="B9" s="6"/>
       <c r="C9" s="4" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
       <c r="A10" s="7"/>
       <c r="B10" s="6"/>
       <c r="C10" s="4" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:3">
       <c r="A11" s="7"/>
       <c r="B11" s="6"/>
       <c r="C11" s="4" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
       <c r="A12" s="7"/>
       <c r="B12" s="6"/>
       <c r="C12" s="4" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
@@ -8928,7 +8931,7 @@
     <row r="15" ht="15" spans="1:3">
       <c r="A15" s="7"/>
       <c r="B15" s="6" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>26</v>
@@ -8938,56 +8941,56 @@
       <c r="A16" s="7"/>
       <c r="B16" s="6"/>
       <c r="C16" s="4" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
       <c r="A17" s="7"/>
       <c r="B17" s="6"/>
       <c r="C17" s="4" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
       <c r="A18" s="7"/>
       <c r="B18" s="6"/>
       <c r="C18" s="4" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:3">
       <c r="A19" s="7"/>
       <c r="B19" s="6"/>
       <c r="C19" s="4" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:3">
       <c r="A20" s="7"/>
       <c r="B20" s="6"/>
       <c r="C20" s="4" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
       <c r="A21" s="7"/>
       <c r="B21" s="6"/>
       <c r="C21" s="4" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
       <c r="A22" s="7"/>
       <c r="B22" s="6"/>
       <c r="C22" s="4" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:3">
       <c r="A23" s="7"/>
       <c r="B23" s="6"/>
       <c r="C23" s="4" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:3">
@@ -9005,7 +9008,7 @@
     <row r="26" ht="15" spans="1:3">
       <c r="A26" s="7"/>
       <c r="B26" s="6" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>26</v>
@@ -9015,56 +9018,56 @@
       <c r="A27" s="7"/>
       <c r="B27" s="6"/>
       <c r="C27" s="4" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:3">
       <c r="A28" s="7"/>
       <c r="B28" s="6"/>
       <c r="C28" s="4" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:3">
       <c r="A29" s="7"/>
       <c r="B29" s="6"/>
       <c r="C29" s="4" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:3">
       <c r="A30" s="7"/>
       <c r="B30" s="6"/>
       <c r="C30" s="4" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:3">
       <c r="A31" s="7"/>
       <c r="B31" s="6"/>
       <c r="C31" s="4" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:3">
       <c r="A32" s="7"/>
       <c r="B32" s="6"/>
       <c r="C32" s="4" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:3">
       <c r="A33" s="7"/>
       <c r="B33" s="6"/>
       <c r="C33" s="4" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:3">
       <c r="A34" s="7"/>
       <c r="B34" s="6"/>
       <c r="C34" s="4" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:3">
@@ -9082,7 +9085,7 @@
     <row r="37" ht="15" spans="1:3">
       <c r="A37" s="7"/>
       <c r="B37" s="6" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>26</v>
@@ -9092,56 +9095,56 @@
       <c r="A38" s="7"/>
       <c r="B38" s="6"/>
       <c r="C38" s="4" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:3">
       <c r="A39" s="7"/>
       <c r="B39" s="6"/>
       <c r="C39" s="4" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:3">
       <c r="A40" s="7"/>
       <c r="B40" s="6"/>
       <c r="C40" s="4" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="41" ht="15" spans="1:3">
       <c r="A41" s="7"/>
       <c r="B41" s="6"/>
       <c r="C41" s="4" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:3">
       <c r="A42" s="7"/>
       <c r="B42" s="6"/>
       <c r="C42" s="4" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:3">
       <c r="A43" s="7"/>
       <c r="B43" s="6"/>
       <c r="C43" s="4" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:3">
       <c r="A44" s="7"/>
       <c r="B44" s="6"/>
       <c r="C44" s="4" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:3">
       <c r="A45" s="7"/>
       <c r="B45" s="6"/>
       <c r="C45" s="4" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:3">
@@ -9159,17 +9162,17 @@
     <row r="48" ht="15" spans="1:3">
       <c r="A48" s="7"/>
       <c r="B48" s="9" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="49" ht="30" spans="1:3">
       <c r="A49" s="7"/>
       <c r="B49" s="9"/>
       <c r="C49" s="11" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="50" customFormat="1" ht="9" customHeight="1" spans="1:3">
@@ -9179,7 +9182,7 @@
     </row>
     <row r="55" ht="18.75" spans="1:2">
       <c r="A55" s="13" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B55" s="14">
         <v>1</v>
@@ -9187,7 +9190,7 @@
     </row>
     <row r="56" ht="18.75" spans="1:2">
       <c r="A56" s="13" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B56" s="14">
         <v>8</v>

--- a/Java Apps @ DXC - Track 2 - TOC.xlsx
+++ b/Java Apps @ DXC - Track 2 - TOC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7815" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="7" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="657">
   <si>
     <t>Track 2</t>
   </si>
@@ -1766,7 +1766,7 @@
 Validations</t>
   </si>
   <si>
-    <t>15. Introduction to TemplateDriven Forms</t>
+    <t>2. Introduction to TemplateDriven Forms</t>
   </si>
   <si>
     <t>1. Module Overview</t>
@@ -1781,7 +1781,7 @@
     <t>5. Validations</t>
   </si>
   <si>
-    <t>16. Template-driven vs. Reactive Forms</t>
+    <t>3. Template-driven vs. Reactive Forms</t>
   </si>
   <si>
     <t>2. Form Building Blocks</t>
@@ -1807,7 +1807,7 @@
 Custom Validations</t>
   </si>
   <si>
-    <t>17. Building a Reactive Form</t>
+    <t>4. Building a Reactive Form</t>
   </si>
   <si>
     <t>2. The Component Class</t>
@@ -1844,7 +1844,7 @@
 Consuming REST end Points using HttpClient                                A sample CRUD application</t>
   </si>
   <si>
-    <t>18. Validation</t>
+    <t>5. Validation</t>
   </si>
   <si>
     <t>2. Setting Built-in Validation Rules</t>
@@ -1865,7 +1865,7 @@
     <t>7. Cross-Field Validation-Custom Validator</t>
   </si>
   <si>
-    <t>19. Create, Read, Update, and Delete (CRUD) Using HTTP</t>
+    <t>6. Create, Read, Update, and Delete (CRUD) Using HTTP</t>
   </si>
   <si>
     <t>2. Data Access Service</t>
@@ -1910,7 +1910,7 @@
     <t>Bootstrap Integration</t>
   </si>
   <si>
-    <t>20. Bootstrap Integration with Angular</t>
+    <t>7. Bootstrap Integration with Angular</t>
   </si>
   <si>
     <t>1. Getting Started with ng-bootstrap</t>
@@ -1938,7 +1938,7 @@
 </t>
   </si>
   <si>
-    <t>21. Create Multiple Angular Apps in One Project</t>
+    <t>8. Create Multiple Angular Apps in One Project</t>
   </si>
   <si>
     <t>1. Advantages</t>
@@ -2114,10 +2114,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -2272,7 +2272,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2280,7 +2280,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2295,7 +2309,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2308,32 +2337,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2349,43 +2363,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2401,15 +2379,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2461,49 +2461,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2533,7 +2503,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2545,19 +2599,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2569,7 +2623,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2581,67 +2635,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2735,17 +2735,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2765,11 +2776,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2791,51 +2832,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2853,130 +2853,130 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6016,7 +6016,7 @@
   <sheetPr/>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
@@ -7189,12 +7189,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D219"/>
+  <dimension ref="A1:D221"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D114" sqref="D114"/>
+      <selection pane="bottomLeft" activeCell="D208" sqref="D208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="3"/>
@@ -8201,549 +8201,563 @@
     </row>
     <row r="138" ht="18.75" spans="1:3">
       <c r="A138" s="16"/>
-      <c r="B138" s="17"/>
+      <c r="B138" s="6"/>
       <c r="C138" s="4"/>
     </row>
-    <row r="139" ht="15" spans="1:3">
+    <row r="139" ht="18.75" spans="1:3">
       <c r="A139" s="16" t="s">
         <v>543</v>
       </c>
-      <c r="B139" s="6" t="s">
-        <v>544</v>
+      <c r="B139" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="140" ht="15" spans="1:3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="140" ht="18.75" spans="1:3">
       <c r="A140" s="16"/>
-      <c r="B140" s="6"/>
-      <c r="C140" s="4" t="s">
-        <v>546</v>
-      </c>
+      <c r="B140" s="3"/>
+      <c r="C140" s="4"/>
     </row>
     <row r="141" ht="15" spans="1:3">
       <c r="A141" s="16"/>
-      <c r="B141" s="6"/>
+      <c r="B141" s="6" t="s">
+        <v>544</v>
+      </c>
       <c r="C141" s="4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="142" ht="15" spans="1:3">
       <c r="A142" s="16"/>
       <c r="B142" s="6"/>
       <c r="C142" s="4" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="143" ht="18" spans="1:3">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="143" ht="15" spans="1:3">
       <c r="A143" s="16"/>
-      <c r="B143" s="17"/>
-      <c r="C143" s="4"/>
+      <c r="B143" s="6"/>
+      <c r="C143" s="4" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="144" ht="15" spans="1:3">
       <c r="A144" s="16"/>
-      <c r="B144" s="6" t="s">
-        <v>549</v>
-      </c>
+      <c r="B144" s="6"/>
       <c r="C144" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="145" ht="15" spans="1:3">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="145" ht="18" spans="1:3">
       <c r="A145" s="16"/>
-      <c r="B145" s="6"/>
-      <c r="C145" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="B145" s="17"/>
+      <c r="C145" s="4"/>
     </row>
     <row r="146" ht="15" spans="1:3">
       <c r="A146" s="16"/>
-      <c r="B146" s="6"/>
+      <c r="B146" s="6" t="s">
+        <v>549</v>
+      </c>
       <c r="C146" s="4" t="s">
-        <v>551</v>
+        <v>26</v>
       </c>
     </row>
     <row r="147" ht="15" spans="1:3">
       <c r="A147" s="16"/>
       <c r="B147" s="6"/>
       <c r="C147" s="4" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="148" ht="15" spans="1:3">
       <c r="A148" s="16"/>
       <c r="B148" s="6"/>
       <c r="C148" s="4" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="149" ht="15" spans="1:3">
       <c r="A149" s="16"/>
       <c r="B149" s="6"/>
       <c r="C149" s="4" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="150" ht="15" spans="1:3">
       <c r="A150" s="16"/>
       <c r="B150" s="6"/>
       <c r="C150" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="151" ht="15" spans="1:3">
       <c r="A151" s="16"/>
       <c r="B151" s="6"/>
       <c r="C151" s="4" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="152" ht="15" spans="1:3">
+      <c r="A152" s="16"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="4" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="153" ht="15" spans="1:3">
+      <c r="A153" s="16"/>
+      <c r="B153" s="6"/>
+      <c r="C153" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="152" ht="15" spans="2:3">
-      <c r="B152" s="21"/>
-      <c r="C152" s="4"/>
-    </row>
-    <row r="153" ht="15" spans="1:3">
-      <c r="A153" s="16" t="s">
+    <row r="154" ht="15" spans="2:3">
+      <c r="B154" s="21"/>
+      <c r="C154" s="4"/>
+    </row>
+    <row r="155" ht="15" spans="1:3">
+      <c r="A155" s="16" t="s">
         <v>556</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="B155" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="C153" s="4" t="s">
+      <c r="C155" s="4" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="154" ht="15" spans="1:3">
-      <c r="A154" s="16"/>
-      <c r="B154" s="6"/>
-      <c r="C154" s="4" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="155" ht="15" spans="1:3">
-      <c r="A155" s="16"/>
-      <c r="B155" s="6"/>
-      <c r="C155" s="4" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="156" ht="15" spans="1:3">
       <c r="A156" s="16"/>
       <c r="B156" s="6"/>
       <c r="C156" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="157" ht="15" spans="1:3">
       <c r="A157" s="16"/>
       <c r="B157" s="6"/>
       <c r="C157" s="4" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="158" ht="15" spans="1:3">
       <c r="A158" s="16"/>
       <c r="B158" s="6"/>
       <c r="C158" s="4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="159" ht="15" spans="1:3">
       <c r="A159" s="16"/>
       <c r="B159" s="6"/>
       <c r="C159" s="4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="160" ht="15" spans="1:3">
       <c r="A160" s="16"/>
       <c r="B160" s="6"/>
       <c r="C160" s="4" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="161" ht="15" spans="1:3">
       <c r="A161" s="16"/>
       <c r="B161" s="6"/>
       <c r="C161" s="4" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="162" ht="18.75" spans="1:3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="162" ht="15" spans="1:3">
       <c r="A162" s="16"/>
-      <c r="B162" s="17"/>
-      <c r="C162" s="4"/>
+      <c r="B162" s="6"/>
+      <c r="C162" s="4" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="163" ht="15" spans="1:3">
       <c r="A163" s="16"/>
-      <c r="B163" s="9" t="s">
+      <c r="B163" s="6"/>
+      <c r="C163" s="4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="164" ht="18.75" spans="1:3">
+      <c r="A164" s="16"/>
+      <c r="B164" s="17"/>
+      <c r="C164" s="4"/>
+    </row>
+    <row r="165" ht="15" spans="1:3">
+      <c r="A165" s="16"/>
+      <c r="B165" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C163" s="10" t="s">
+      <c r="C165" s="10" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="164" ht="15" spans="1:3">
-      <c r="A164" s="16"/>
-      <c r="B164" s="9"/>
-      <c r="C164" s="4" t="s">
+    <row r="166" ht="15" spans="1:3">
+      <c r="A166" s="16"/>
+      <c r="B166" s="9"/>
+      <c r="C166" s="4" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="165" ht="13" customHeight="1" spans="1:3">
-      <c r="A165" s="22"/>
-      <c r="B165" s="22"/>
-      <c r="C165" s="22"/>
-    </row>
-    <row r="166" ht="24.75" spans="1:3">
-      <c r="A166" s="2" t="s">
+    <row r="167" ht="13" customHeight="1" spans="1:3">
+      <c r="A167" s="22"/>
+      <c r="B167" s="22"/>
+      <c r="C167" s="22"/>
+    </row>
+    <row r="168" ht="24.75" spans="1:3">
+      <c r="A168" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="B166" s="2"/>
-      <c r="C166" s="2"/>
-    </row>
-    <row r="167" ht="15" spans="1:3">
-      <c r="A167" s="16" t="s">
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
+    </row>
+    <row r="169" ht="15" spans="1:3">
+      <c r="A169" s="16" t="s">
         <v>568</v>
       </c>
-      <c r="B167" s="6" t="s">
+      <c r="B169" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="C167" s="4" t="s">
+      <c r="C169" s="4" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="168" ht="15" spans="1:3">
-      <c r="A168" s="16"/>
-      <c r="B168" s="6"/>
-      <c r="C168" s="4" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="169" ht="15" spans="1:3">
-      <c r="A169" s="16"/>
-      <c r="B169" s="6"/>
-      <c r="C169" s="4" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="170" ht="15" spans="1:3">
       <c r="A170" s="16"/>
       <c r="B170" s="6"/>
       <c r="C170" s="4" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="171" ht="15" spans="1:3">
       <c r="A171" s="16"/>
       <c r="B171" s="6"/>
       <c r="C171" s="4" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="172" ht="15" spans="1:3">
       <c r="A172" s="16"/>
       <c r="B172" s="6"/>
       <c r="C172" s="4" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="173" ht="15" spans="1:3">
       <c r="A173" s="16"/>
       <c r="B173" s="6"/>
       <c r="C173" s="4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="174" ht="15" spans="1:3">
       <c r="A174" s="16"/>
       <c r="B174" s="6"/>
       <c r="C174" s="4" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="175" ht="15" spans="1:3">
+      <c r="A175" s="16"/>
+      <c r="B175" s="6"/>
+      <c r="C175" s="4" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="176" ht="15" spans="1:3">
+      <c r="A176" s="16"/>
+      <c r="B176" s="6"/>
+      <c r="C176" s="4" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
-      <c r="A175" s="16"/>
-      <c r="C175" s="21"/>
-    </row>
-    <row r="176" ht="23" customHeight="1" spans="1:3">
-      <c r="A176" s="16"/>
-      <c r="B176" s="6" t="s">
+    <row r="177" spans="1:3">
+      <c r="A177" s="16"/>
+      <c r="C177" s="21"/>
+    </row>
+    <row r="178" ht="23" customHeight="1" spans="1:3">
+      <c r="A178" s="16"/>
+      <c r="B178" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="C176" s="4" t="s">
+      <c r="C178" s="4" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="177" ht="15" spans="1:3">
-      <c r="A177" s="16"/>
-      <c r="B177" s="6"/>
-      <c r="C177" s="4" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="178" ht="15" spans="1:3">
-      <c r="A178" s="16"/>
-      <c r="B178" s="6"/>
-      <c r="C178" s="4" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="179" ht="15" spans="1:3">
       <c r="A179" s="16"/>
       <c r="B179" s="6"/>
       <c r="C179" s="4" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="180" ht="15" spans="1:3">
       <c r="A180" s="16"/>
       <c r="B180" s="6"/>
       <c r="C180" s="4" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="181" ht="15" spans="1:3">
       <c r="A181" s="16"/>
       <c r="B181" s="6"/>
       <c r="C181" s="4" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="182" ht="15" spans="1:3">
       <c r="A182" s="16"/>
       <c r="B182" s="6"/>
       <c r="C182" s="4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="183" ht="15" spans="1:3">
       <c r="A183" s="16"/>
       <c r="B183" s="6"/>
       <c r="C183" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="184" ht="15" spans="1:3">
       <c r="A184" s="16"/>
       <c r="B184" s="6"/>
       <c r="C184" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="185" ht="15" spans="1:3">
       <c r="A185" s="16"/>
       <c r="B185" s="6"/>
       <c r="C185" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="186" ht="15" spans="1:3">
       <c r="A186" s="16"/>
       <c r="B186" s="6"/>
       <c r="C186" s="4" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="187" ht="15" spans="1:3">
       <c r="A187" s="16"/>
       <c r="B187" s="6"/>
       <c r="C187" s="4" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="188" ht="15" spans="1:3">
       <c r="A188" s="16"/>
       <c r="B188" s="6"/>
       <c r="C188" s="4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="189" ht="15" spans="1:3">
       <c r="A189" s="16"/>
       <c r="B189" s="6"/>
       <c r="C189" s="4" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="190" ht="15" spans="1:3">
+      <c r="A190" s="16"/>
+      <c r="B190" s="6"/>
+      <c r="C190" s="4" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="191" ht="15" spans="1:3">
+      <c r="A191" s="16"/>
+      <c r="B191" s="6"/>
+      <c r="C191" s="4" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="190" ht="15" spans="3:3">
-      <c r="C190" s="4"/>
-    </row>
-    <row r="191" ht="15" spans="1:3">
-      <c r="A191" s="16" t="s">
+    <row r="192" ht="15" spans="3:3">
+      <c r="C192" s="4"/>
+    </row>
+    <row r="193" ht="15" spans="1:3">
+      <c r="A193" s="16" t="s">
         <v>590</v>
       </c>
-      <c r="B191" s="6" t="s">
+      <c r="B193" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="C191" s="4" t="s">
+      <c r="C193" s="4" t="s">
         <v>592</v>
-      </c>
-    </row>
-    <row r="192" ht="15" spans="1:3">
-      <c r="A192" s="16"/>
-      <c r="B192" s="6"/>
-      <c r="C192" s="4" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="193" ht="15" spans="1:3">
-      <c r="A193" s="16"/>
-      <c r="B193" s="6"/>
-      <c r="C193" s="4" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="194" ht="15" spans="1:3">
       <c r="A194" s="16"/>
       <c r="B194" s="6"/>
       <c r="C194" s="4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="195" ht="15" spans="1:3">
       <c r="A195" s="16"/>
       <c r="B195" s="6"/>
       <c r="C195" s="4" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="196" ht="15" spans="1:3">
       <c r="A196" s="16"/>
       <c r="B196" s="6"/>
       <c r="C196" s="4" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="197" ht="15" spans="1:3">
       <c r="A197" s="16"/>
       <c r="B197" s="6"/>
       <c r="C197" s="4" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="198" ht="15" spans="1:3">
+      <c r="A198" s="16"/>
+      <c r="B198" s="6"/>
+      <c r="C198" s="4" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="199" ht="15" spans="1:3">
+      <c r="A199" s="16"/>
+      <c r="B199" s="6"/>
+      <c r="C199" s="4" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="198" ht="15" spans="3:3">
-      <c r="C198" s="4"/>
-    </row>
-    <row r="199" ht="15" spans="1:3">
-      <c r="A199" s="16" t="s">
+    <row r="200" ht="15" spans="3:3">
+      <c r="C200" s="4"/>
+    </row>
+    <row r="201" ht="15" spans="1:3">
+      <c r="A201" s="16" t="s">
         <v>599</v>
       </c>
-      <c r="B199" s="6" t="s">
+      <c r="B201" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="C199" s="4" t="s">
+      <c r="C201" s="4" t="s">
         <v>601</v>
-      </c>
-    </row>
-    <row r="200" ht="15" spans="1:3">
-      <c r="A200" s="16"/>
-      <c r="B200" s="6"/>
-      <c r="C200" s="4" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="201" ht="15" spans="1:3">
-      <c r="A201" s="16"/>
-      <c r="B201" s="6"/>
-      <c r="C201" s="4" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="202" ht="15" spans="1:3">
       <c r="A202" s="16"/>
       <c r="B202" s="6"/>
       <c r="C202" s="4" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="203" ht="15" spans="1:3">
       <c r="A203" s="16"/>
       <c r="B203" s="6"/>
       <c r="C203" s="4" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="204" ht="15" spans="1:3">
       <c r="A204" s="16"/>
       <c r="B204" s="6"/>
       <c r="C204" s="4" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="205" ht="15" spans="1:3">
       <c r="A205" s="16"/>
       <c r="B205" s="6"/>
       <c r="C205" s="4" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="206" ht="15" spans="1:3">
       <c r="A206" s="16"/>
       <c r="B206" s="6"/>
       <c r="C206" s="4" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="207" ht="15" spans="1:3">
       <c r="A207" s="16"/>
       <c r="B207" s="6"/>
       <c r="C207" s="4" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="208" ht="15" spans="1:3">
       <c r="A208" s="16"/>
       <c r="B208" s="6"/>
       <c r="C208" s="4" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="209" ht="15" spans="1:3">
       <c r="A209" s="16"/>
       <c r="B209" s="6"/>
       <c r="C209" s="4" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="210" ht="15" spans="3:3">
-      <c r="C210" s="4"/>
+        <v>609</v>
+      </c>
+    </row>
+    <row r="210" ht="15" spans="1:3">
+      <c r="A210" s="16"/>
+      <c r="B210" s="6"/>
+      <c r="C210" s="4" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="211" ht="15" spans="1:3">
       <c r="A211" s="16"/>
-      <c r="B211" s="9" t="s">
+      <c r="B211" s="6"/>
+      <c r="C211" s="4" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="212" ht="15" spans="3:3">
+      <c r="C212" s="4"/>
+    </row>
+    <row r="213" ht="15" spans="1:3">
+      <c r="A213" s="16"/>
+      <c r="B213" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C211" s="10" t="s">
+      <c r="C213" s="10" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="212" ht="15" spans="1:3">
-      <c r="A212" s="16"/>
-      <c r="B212" s="9"/>
-      <c r="C212" s="4" t="s">
+    <row r="214" ht="15" spans="1:3">
+      <c r="A214" s="16"/>
+      <c r="B214" s="9"/>
+      <c r="C214" s="4" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="213" ht="11" customHeight="1" spans="1:3">
-      <c r="A213" s="22"/>
-      <c r="B213" s="22"/>
-      <c r="C213" s="22"/>
-    </row>
-    <row r="218" ht="18.75" spans="1:2">
-      <c r="A218" s="23" t="s">
+    <row r="215" ht="11" customHeight="1" spans="1:3">
+      <c r="A215" s="22"/>
+      <c r="B215" s="22"/>
+      <c r="C215" s="22"/>
+    </row>
+    <row r="220" ht="18.75" spans="1:2">
+      <c r="A220" s="23" t="s">
         <v>614</v>
       </c>
-      <c r="B218" s="14">
+      <c r="B220" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="219" ht="18.75" spans="1:2">
-      <c r="A219" s="23" t="s">
+    <row r="221" ht="18.75" spans="1:2">
+      <c r="A221" s="23" t="s">
         <v>615</v>
       </c>
-      <c r="B219" s="14">
+      <c r="B221" s="14">
         <v>32</v>
       </c>
     </row>
@@ -8753,9 +8767,9 @@
     <mergeCell ref="A52:C52"/>
     <mergeCell ref="A74:C74"/>
     <mergeCell ref="A115:C115"/>
-    <mergeCell ref="A165:C165"/>
-    <mergeCell ref="A166:C166"/>
-    <mergeCell ref="A213:C213"/>
+    <mergeCell ref="A167:C167"/>
+    <mergeCell ref="A168:C168"/>
+    <mergeCell ref="A215:C215"/>
     <mergeCell ref="A3:A19"/>
     <mergeCell ref="A21:A30"/>
     <mergeCell ref="A32:A39"/>
@@ -8770,13 +8784,13 @@
     <mergeCell ref="A112:A113"/>
     <mergeCell ref="A116:A129"/>
     <mergeCell ref="A131:A137"/>
-    <mergeCell ref="A139:A151"/>
-    <mergeCell ref="A153:A161"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="A167:A189"/>
-    <mergeCell ref="A191:A197"/>
-    <mergeCell ref="A199:A209"/>
-    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="A139:A153"/>
+    <mergeCell ref="A155:A163"/>
+    <mergeCell ref="A165:A166"/>
+    <mergeCell ref="A169:A191"/>
+    <mergeCell ref="A193:A199"/>
+    <mergeCell ref="A201:A211"/>
+    <mergeCell ref="A213:A214"/>
     <mergeCell ref="B5:B9"/>
     <mergeCell ref="B11:B19"/>
     <mergeCell ref="B21:B30"/>
@@ -8792,15 +8806,15 @@
     <mergeCell ref="B112:B113"/>
     <mergeCell ref="B116:B129"/>
     <mergeCell ref="B131:B137"/>
-    <mergeCell ref="B139:B142"/>
-    <mergeCell ref="B144:B151"/>
-    <mergeCell ref="B153:B161"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="B167:B174"/>
-    <mergeCell ref="B176:B189"/>
-    <mergeCell ref="B191:B197"/>
-    <mergeCell ref="B199:B209"/>
-    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="B141:B144"/>
+    <mergeCell ref="B146:B153"/>
+    <mergeCell ref="B155:B163"/>
+    <mergeCell ref="B165:B166"/>
+    <mergeCell ref="B169:B176"/>
+    <mergeCell ref="B178:B191"/>
+    <mergeCell ref="B193:B199"/>
+    <mergeCell ref="B201:B211"/>
+    <mergeCell ref="B213:B214"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -8813,7 +8827,7 @@
   <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
